--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4131A6A1-6204-431B-A9FE-7EC7691FA391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EB9686-86B5-408D-A0A3-B31955D7B193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Titanic.csv" sheetId="1" r:id="rId1"/>
     <sheet name="Working sheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6234" uniqueCount="1228">
   <si>
     <t>PassengerId</t>
   </si>
@@ -3687,6 +3700,24 @@
   </si>
   <si>
     <t>Dooley, Mr. Patrick</t>
+  </si>
+  <si>
+    <t>P-class</t>
+  </si>
+  <si>
+    <t>Sib - Sp</t>
+  </si>
+  <si>
+    <t>Par - ch</t>
+  </si>
+  <si>
+    <t>Cherbourg</t>
+  </si>
+  <si>
+    <t>Queenstown</t>
+  </si>
+  <si>
+    <t>Southampton</t>
   </si>
 </sst>
 </file>
@@ -35263,11 +35294,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9C3FA-328B-4B7E-8BC0-43999772E7D0}">
   <dimension ref="A1:L892"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A814" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F900" sqref="F900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -35277,7 +35312,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1222</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -35289,10 +35324,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>1223</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>1224</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
@@ -35339,7 +35374,7 @@
         <v>7.25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -35377,7 +35412,7 @@
         <v>19</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -35412,7 +35447,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -35450,7 +35485,7 @@
         <v>24</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -35485,7 +35520,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -35504,6 +35539,9 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F7" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
@@ -35517,7 +35555,7 @@
         <v>8.4582999999999995</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -35555,7 +35593,7 @@
         <v>29</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -35590,7 +35628,7 @@
         <v>21.074999999999999</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -35625,7 +35663,7 @@
         <v>11.1333</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -35660,7 +35698,7 @@
         <v>30.070799999999998</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -35682,9 +35720,7 @@
       <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1">
         <v>1</v>
       </c>
@@ -35698,7 +35734,7 @@
         <v>35</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -35736,7 +35772,7 @@
         <v>37</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -35771,7 +35807,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -35806,7 +35842,7 @@
         <v>31.274999999999999</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -35841,7 +35877,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -35876,7 +35912,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -35911,7 +35947,7 @@
         <v>29.125</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -35930,6 +35966,9 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F19" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G19" s="1">
         <v>0</v>
       </c>
@@ -35943,7 +35982,7 @@
         <v>13</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -35978,7 +36017,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -35997,6 +36036,9 @@
       <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F21" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G21" s="1">
         <v>0</v>
       </c>
@@ -36010,7 +36052,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -36045,7 +36087,7 @@
         <v>26</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -36083,7 +36125,7 @@
         <v>49</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -36118,7 +36160,7 @@
         <v>8.0291999999999994</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -36156,7 +36198,7 @@
         <v>52</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -36191,7 +36233,7 @@
         <v>21.074999999999999</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -36226,7 +36268,7 @@
         <v>31.387499999999999</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -36245,6 +36287,9 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F28" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G28" s="1">
         <v>0</v>
       </c>
@@ -36258,7 +36303,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -36296,7 +36341,7 @@
         <v>57</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -36315,6 +36360,9 @@
       <c r="E30" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F30" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G30" s="1">
         <v>0</v>
       </c>
@@ -36328,7 +36376,7 @@
         <v>7.8792</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -36347,6 +36395,9 @@
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F31" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G31" s="1">
         <v>0</v>
       </c>
@@ -36360,7 +36411,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -36395,7 +36446,7 @@
         <v>27.720800000000001</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -36414,6 +36465,9 @@
       <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F33" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G33" s="1">
         <v>1</v>
       </c>
@@ -36430,7 +36484,7 @@
         <v>64</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -36449,6 +36503,9 @@
       <c r="E34" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F34" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G34" s="1">
         <v>0</v>
       </c>
@@ -36462,7 +36519,7 @@
         <v>7.75</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -36497,7 +36554,7 @@
         <v>10.5</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -36532,7 +36589,7 @@
         <v>82.1708</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -36567,7 +36624,7 @@
         <v>52</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -36586,6 +36643,9 @@
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F38" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G38" s="1">
         <v>0</v>
       </c>
@@ -36599,7 +36659,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -36634,7 +36694,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -36669,7 +36729,7 @@
         <v>18</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -36704,7 +36764,7 @@
         <v>11.2417</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -36739,7 +36799,7 @@
         <v>9.4749999999999996</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -36774,7 +36834,7 @@
         <v>21</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -36793,6 +36853,9 @@
       <c r="E44" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F44" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
@@ -36806,7 +36869,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -36841,7 +36904,7 @@
         <v>41.5792</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -36876,7 +36939,7 @@
         <v>7.8792</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -36895,6 +36958,9 @@
       <c r="E47" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F47" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
@@ -36908,7 +36974,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -36927,6 +36993,9 @@
       <c r="E48" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F48" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G48" s="1">
         <v>1</v>
       </c>
@@ -36940,7 +37009,7 @@
         <v>15.5</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -36959,6 +37028,9 @@
       <c r="E49" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F49" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G49" s="1">
         <v>0</v>
       </c>
@@ -36972,7 +37044,7 @@
         <v>7.75</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -36991,6 +37063,9 @@
       <c r="E50" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F50" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G50" s="1">
         <v>2</v>
       </c>
@@ -37004,7 +37079,7 @@
         <v>21.679200000000002</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -37039,7 +37114,7 @@
         <v>17.8</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -37074,7 +37149,7 @@
         <v>39.6875</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -37109,7 +37184,7 @@
         <v>7.8</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -37147,7 +37222,7 @@
         <v>93</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -37182,7 +37257,7 @@
         <v>26</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -37220,7 +37295,7 @@
         <v>96</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -37239,6 +37314,9 @@
       <c r="E57" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F57" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G57" s="1">
         <v>0</v>
       </c>
@@ -37255,7 +37333,7 @@
         <v>98</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -37290,7 +37368,7 @@
         <v>10.5</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -37325,7 +37403,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -37360,7 +37438,7 @@
         <v>27.75</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -37395,7 +37473,7 @@
         <v>46.9</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -37430,7 +37508,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -37503,7 +37581,7 @@
         <v>110</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -37538,7 +37616,7 @@
         <v>27.9</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -37557,6 +37635,9 @@
       <c r="E66" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F66" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G66" s="1">
         <v>0</v>
       </c>
@@ -37570,7 +37651,7 @@
         <v>27.720800000000001</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -37589,6 +37670,9 @@
       <c r="E67" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F67" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G67" s="1">
         <v>1</v>
       </c>
@@ -37602,7 +37686,7 @@
         <v>15.245799999999999</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -37640,7 +37724,7 @@
         <v>117</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -37675,7 +37759,7 @@
         <v>8.1583000000000006</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -37710,7 +37794,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -37745,7 +37829,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -37780,7 +37864,7 @@
         <v>10.5</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -37815,7 +37899,7 @@
         <v>46.9</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -37850,7 +37934,7 @@
         <v>73.5</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -37885,7 +37969,7 @@
         <v>14.4542</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -37920,7 +38004,7 @@
         <v>56.495800000000003</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -37958,7 +38042,7 @@
         <v>130</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -37977,6 +38061,9 @@
       <c r="E78" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F78" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G78" s="1">
         <v>0</v>
       </c>
@@ -37990,7 +38077,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -38009,6 +38096,9 @@
       <c r="E79" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F79" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G79" s="1">
         <v>0</v>
       </c>
@@ -38022,7 +38112,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -38057,7 +38147,7 @@
         <v>29</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -38092,7 +38182,7 @@
         <v>12.475</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -38127,7 +38217,7 @@
         <v>9</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -38162,7 +38252,7 @@
         <v>9.5</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -38181,6 +38271,9 @@
       <c r="E84" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F84" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G84" s="1">
         <v>0</v>
       </c>
@@ -38194,7 +38287,7 @@
         <v>7.7874999999999996</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -38229,7 +38322,7 @@
         <v>47.1</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -38264,7 +38357,7 @@
         <v>10.5</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -38299,7 +38392,7 @@
         <v>15.85</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -38334,7 +38427,7 @@
         <v>34.375</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -38353,6 +38446,9 @@
       <c r="E89" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F89" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G89" s="1">
         <v>0</v>
       </c>
@@ -38366,7 +38462,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -38404,7 +38500,7 @@
         <v>57</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -38439,7 +38535,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -38474,7 +38570,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -38509,7 +38605,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -38547,7 +38643,7 @@
         <v>152</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -38582,7 +38678,7 @@
         <v>20.574999999999999</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -38617,7 +38713,7 @@
         <v>7.25</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -38636,6 +38732,9 @@
       <c r="E97" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F97" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G97" s="1">
         <v>0</v>
       </c>
@@ -38649,7 +38748,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -38687,7 +38786,7 @@
         <v>159</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -38725,7 +38824,7 @@
         <v>162</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -38760,7 +38859,7 @@
         <v>23</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -38795,7 +38894,7 @@
         <v>26</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -38830,7 +38929,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -38849,6 +38948,9 @@
       <c r="E103" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F103" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G103" s="1">
         <v>0</v>
       </c>
@@ -38862,7 +38964,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -38900,7 +39002,7 @@
         <v>168</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -38935,7 +39037,7 @@
         <v>8.6541999999999994</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -38970,7 +39072,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -39005,7 +39107,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -39040,7 +39142,7 @@
         <v>7.65</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -39059,6 +39161,9 @@
       <c r="E109" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F109" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G109" s="1">
         <v>0</v>
       </c>
@@ -39072,7 +39177,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -39107,7 +39212,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -39126,6 +39231,9 @@
       <c r="E111" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F111" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G111" s="1">
         <v>1</v>
       </c>
@@ -39139,7 +39247,7 @@
         <v>24.15</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -39177,7 +39285,7 @@
         <v>177</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -39212,7 +39320,7 @@
         <v>14.4542</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -39247,7 +39355,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -39282,7 +39390,7 @@
         <v>9.8249999999999993</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -39317,7 +39425,7 @@
         <v>14.458299999999999</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -39352,7 +39460,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -39387,7 +39495,7 @@
         <v>7.75</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -39422,7 +39530,7 @@
         <v>21</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -39460,7 +39568,7 @@
         <v>188</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -39495,7 +39603,7 @@
         <v>31.274999999999999</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -39530,7 +39638,7 @@
         <v>73.5</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -39549,6 +39657,9 @@
       <c r="E123" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F123" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G123" s="1">
         <v>0</v>
       </c>
@@ -39562,7 +39673,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -39597,7 +39708,7 @@
         <v>30.070799999999998</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -39635,7 +39746,7 @@
         <v>195</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -39673,7 +39784,7 @@
         <v>168</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -39693,7 +39804,7 @@
         <v>13</v>
       </c>
       <c r="F127" s="1">
-        <v>12</v>
+        <v>29.7</v>
       </c>
       <c r="G127" s="1">
         <v>1</v>
@@ -39708,7 +39819,7 @@
         <v>11.2417</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -39727,6 +39838,9 @@
       <c r="E128" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F128" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G128" s="1">
         <v>0</v>
       </c>
@@ -39740,7 +39854,7 @@
         <v>7.75</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -39775,7 +39889,7 @@
         <v>7.1417000000000002</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -39794,6 +39908,9 @@
       <c r="E130" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F130" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G130" s="1">
         <v>1</v>
       </c>
@@ -39810,7 +39927,7 @@
         <v>202</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -39845,7 +39962,7 @@
         <v>6.9749999999999996</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -39880,7 +39997,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -39915,7 +40032,7 @@
         <v>7.05</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -39950,7 +40067,7 @@
         <v>14.5</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -39985,7 +40102,7 @@
         <v>26</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -40020,7 +40137,7 @@
         <v>13</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -40055,7 +40172,7 @@
         <v>15.0458</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -40093,7 +40210,7 @@
         <v>215</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -40131,7 +40248,7 @@
         <v>24</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -40166,7 +40283,7 @@
         <v>9.2166999999999994</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -40204,7 +40321,7 @@
         <v>220</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -40223,6 +40340,9 @@
       <c r="E142" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F142" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G142" s="1">
         <v>0</v>
       </c>
@@ -40236,7 +40356,7 @@
         <v>15.245799999999999</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -40271,7 +40391,7 @@
         <v>7.75</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -40306,7 +40426,7 @@
         <v>15.85</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -40341,7 +40461,7 @@
         <v>6.75</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -40376,7 +40496,7 @@
         <v>11.5</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -40411,7 +40531,7 @@
         <v>36.75</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -40446,7 +40566,7 @@
         <v>7.7957999999999998</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -40481,7 +40601,7 @@
         <v>34.375</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -40519,7 +40639,7 @@
         <v>232</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -40554,7 +40674,7 @@
         <v>13</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -40589,7 +40709,7 @@
         <v>12.525</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -40627,7 +40747,7 @@
         <v>237</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -40662,7 +40782,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -40697,7 +40817,7 @@
         <v>14.5</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -40716,6 +40836,9 @@
       <c r="E156" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F156" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G156" s="1">
         <v>0</v>
       </c>
@@ -40729,7 +40852,7 @@
         <v>7.3125</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -40764,7 +40887,7 @@
         <v>61.379199999999997</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -40799,7 +40922,7 @@
         <v>7.7332999999999998</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -40834,7 +40957,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -40853,6 +40976,9 @@
       <c r="E160" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F160" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G160" s="1">
         <v>0</v>
       </c>
@@ -40866,7 +40992,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -40885,6 +41011,9 @@
       <c r="E161" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F161" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G161" s="1">
         <v>8</v>
       </c>
@@ -40898,7 +41027,7 @@
         <v>69.55</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -40933,7 +41062,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -40968,7 +41097,7 @@
         <v>15.75</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -41003,7 +41132,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -41038,7 +41167,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -41073,7 +41202,7 @@
         <v>39.6875</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -41108,7 +41237,7 @@
         <v>20.524999999999999</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -41127,6 +41256,9 @@
       <c r="E168" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F168" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G168" s="1">
         <v>0</v>
       </c>
@@ -41143,7 +41275,7 @@
         <v>260</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -41178,7 +41310,7 @@
         <v>27.9</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -41197,6 +41329,9 @@
       <c r="E170" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F170" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G170" s="1">
         <v>0</v>
       </c>
@@ -41210,7 +41345,7 @@
         <v>25.925000000000001</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -41245,7 +41380,7 @@
         <v>56.495800000000003</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -41283,7 +41418,7 @@
         <v>266</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -41318,7 +41453,7 @@
         <v>29.125</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -41353,7 +41488,7 @@
         <v>11.1333</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -41388,7 +41523,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -41426,7 +41561,7 @@
         <v>272</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -41461,7 +41596,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -41480,6 +41615,9 @@
       <c r="E178" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F178" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G178" s="1">
         <v>3</v>
       </c>
@@ -41493,7 +41631,7 @@
         <v>25.466699999999999</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -41531,7 +41669,7 @@
         <v>277</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -41566,7 +41704,7 @@
         <v>13</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -41601,7 +41739,7 @@
         <v>0</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -41620,6 +41758,9 @@
       <c r="E182" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F182" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G182" s="1">
         <v>8</v>
       </c>
@@ -41633,7 +41774,7 @@
         <v>69.55</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -41652,6 +41793,9 @@
       <c r="E183" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F183" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G183" s="1">
         <v>0</v>
       </c>
@@ -41665,7 +41809,7 @@
         <v>15.05</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -41700,7 +41844,7 @@
         <v>31.387499999999999</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -41738,7 +41882,7 @@
         <v>286</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -41773,7 +41917,7 @@
         <v>22.024999999999999</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -41792,6 +41936,9 @@
       <c r="E187" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F187" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G187" s="1">
         <v>0</v>
       </c>
@@ -41808,7 +41955,7 @@
         <v>289</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -41827,6 +41974,9 @@
       <c r="E188" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F188" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G188" s="1">
         <v>1</v>
       </c>
@@ -41840,7 +41990,7 @@
         <v>15.5</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -41875,7 +42025,7 @@
         <v>26.55</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -41910,7 +42060,7 @@
         <v>15.5</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -41945,7 +42095,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -41980,7 +42130,7 @@
         <v>13</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -42015,7 +42165,7 @@
         <v>13</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -42050,7 +42200,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -42088,7 +42238,7 @@
         <v>232</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -42126,7 +42276,7 @@
         <v>300</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -42164,7 +42314,7 @@
         <v>302</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -42183,6 +42333,9 @@
       <c r="E198" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F198" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G198" s="1">
         <v>0</v>
       </c>
@@ -42196,7 +42349,7 @@
         <v>7.75</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -42231,7 +42384,7 @@
         <v>8.4041999999999994</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -42250,6 +42403,9 @@
       <c r="E200" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F200" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G200" s="1">
         <v>0</v>
       </c>
@@ -42263,7 +42419,7 @@
         <v>7.75</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -42298,7 +42454,7 @@
         <v>13</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -42333,7 +42489,7 @@
         <v>9.5</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -42352,6 +42508,9 @@
       <c r="E203" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F203" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G203" s="1">
         <v>8</v>
       </c>
@@ -42365,7 +42524,7 @@
         <v>69.55</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -42400,7 +42559,7 @@
         <v>6.4958</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -42435,7 +42594,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -42470,7 +42629,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -42508,7 +42667,7 @@
         <v>35</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -42543,7 +42702,7 @@
         <v>15.85</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -42578,7 +42737,7 @@
         <v>18.787500000000001</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -42613,7 +42772,7 @@
         <v>7.75</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -42651,7 +42810,7 @@
         <v>318</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -42686,7 +42845,7 @@
         <v>7.05</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -42721,7 +42880,7 @@
         <v>21</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -42756,7 +42915,7 @@
         <v>7.25</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -42791,7 +42950,7 @@
         <v>13</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -42810,6 +42969,9 @@
       <c r="E216" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F216" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G216" s="1">
         <v>1</v>
       </c>
@@ -42823,7 +42985,7 @@
         <v>7.75</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -42861,7 +43023,7 @@
         <v>328</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -42896,7 +43058,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -42931,7 +43093,7 @@
         <v>27</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -42969,7 +43131,7 @@
         <v>333</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -43004,7 +43166,7 @@
         <v>10.5</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -43039,7 +43201,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -43074,7 +43236,7 @@
         <v>13</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -43109,7 +43271,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -43128,6 +43290,9 @@
       <c r="E225" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F225" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G225" s="1">
         <v>0</v>
       </c>
@@ -43141,7 +43306,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -43179,7 +43344,7 @@
         <v>342</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -43214,7 +43379,7 @@
         <v>9.35</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -43249,7 +43414,7 @@
         <v>10.5</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -43284,7 +43449,7 @@
         <v>7.25</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -43319,7 +43484,7 @@
         <v>13</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -43338,6 +43503,9 @@
       <c r="E231" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F231" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G231" s="1">
         <v>3</v>
       </c>
@@ -43351,7 +43519,7 @@
         <v>25.466699999999999</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -43389,7 +43557,7 @@
         <v>110</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -43424,7 +43592,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -43459,7 +43627,7 @@
         <v>13.5</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -43494,7 +43662,7 @@
         <v>31.387499999999999</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -43529,7 +43697,7 @@
         <v>10.5</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -43548,6 +43716,9 @@
       <c r="E237" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F237" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G237" s="1">
         <v>0</v>
       </c>
@@ -43561,7 +43732,7 @@
         <v>7.55</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -43596,7 +43767,7 @@
         <v>26</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -43631,7 +43802,7 @@
         <v>26.25</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -43666,7 +43837,7 @@
         <v>10.5</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -43701,7 +43872,7 @@
         <v>12.275</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -43720,6 +43891,9 @@
       <c r="E242" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F242" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G242" s="1">
         <v>1</v>
       </c>
@@ -43733,7 +43907,7 @@
         <v>14.4542</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -43752,6 +43926,9 @@
       <c r="E243" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F243" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G243" s="1">
         <v>1</v>
       </c>
@@ -43765,7 +43942,7 @@
         <v>15.5</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -43800,7 +43977,7 @@
         <v>10.5</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -43835,7 +44012,7 @@
         <v>7.125</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -43870,7 +44047,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -43908,7 +44085,7 @@
         <v>373</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -43943,7 +44120,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -43978,7 +44155,7 @@
         <v>14.5</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -44016,7 +44193,7 @@
         <v>377</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -44051,7 +44228,7 @@
         <v>26</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -44070,6 +44247,9 @@
       <c r="E252" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F252" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G252" s="1">
         <v>0</v>
       </c>
@@ -44083,7 +44263,7 @@
         <v>7.25</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -44121,7 +44301,7 @@
         <v>35</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -44159,7 +44339,7 @@
         <v>382</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -44194,7 +44374,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -44229,7 +44409,7 @@
         <v>20.212499999999999</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -44264,7 +44444,7 @@
         <v>15.245799999999999</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -44283,6 +44463,9 @@
       <c r="E258" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F258" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G258" s="1">
         <v>0</v>
       </c>
@@ -44296,7 +44479,7 @@
         <v>79.2</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -44334,7 +44517,7 @@
         <v>390</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -44369,7 +44552,7 @@
         <v>512.32920000000001</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -44404,7 +44587,7 @@
         <v>26</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -44423,6 +44606,9 @@
       <c r="E262" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F262" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G262" s="1">
         <v>0</v>
       </c>
@@ -44436,7 +44622,7 @@
         <v>7.75</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -44471,7 +44657,7 @@
         <v>31.387499999999999</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -44509,7 +44695,7 @@
         <v>397</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -44547,7 +44733,7 @@
         <v>399</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -44566,6 +44752,9 @@
       <c r="E266" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F266" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G266" s="1">
         <v>0</v>
       </c>
@@ -44579,7 +44768,7 @@
         <v>7.75</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -44614,7 +44803,7 @@
         <v>10.5</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -44649,7 +44838,7 @@
         <v>39.6875</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -44684,7 +44873,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -44722,7 +44911,7 @@
         <v>407</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -44760,7 +44949,7 @@
         <v>410</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -44779,6 +44968,9 @@
       <c r="E272" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F272" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G272" s="1">
         <v>0</v>
       </c>
@@ -44792,7 +44984,7 @@
         <v>31</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -44827,7 +45019,7 @@
         <v>0</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -44862,7 +45054,7 @@
         <v>19.5</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -44900,7 +45092,7 @@
         <v>416</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -44919,6 +45111,9 @@
       <c r="E276" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F276" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G276" s="1">
         <v>0</v>
       </c>
@@ -44932,7 +45127,7 @@
         <v>7.75</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -44970,7 +45165,7 @@
         <v>419</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -45005,7 +45200,7 @@
         <v>7.75</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -45024,6 +45219,9 @@
       <c r="E279" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F279" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G279" s="1">
         <v>0</v>
       </c>
@@ -45037,7 +45235,7 @@
         <v>0</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -45072,7 +45270,7 @@
         <v>29.125</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -45107,7 +45305,7 @@
         <v>20.25</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -45142,7 +45340,7 @@
         <v>7.75</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -45177,7 +45375,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -45212,7 +45410,7 @@
         <v>9.5</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -45247,7 +45445,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -45266,6 +45464,9 @@
       <c r="E286" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F286" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G286" s="1">
         <v>0</v>
       </c>
@@ -45282,7 +45483,7 @@
         <v>431</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -45317,7 +45518,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -45352,7 +45553,7 @@
         <v>9.5</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -45387,7 +45588,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -45422,7 +45623,7 @@
         <v>13</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -45457,7 +45658,7 @@
         <v>7.75</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -45492,7 +45693,7 @@
         <v>78.849999999999994</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -45530,7 +45731,7 @@
         <v>439</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -45568,7 +45769,7 @@
         <v>442</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -45603,7 +45804,7 @@
         <v>8.85</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -45638,7 +45839,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -45657,6 +45858,9 @@
       <c r="E297" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F297" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G297" s="1">
         <v>0</v>
       </c>
@@ -45670,7 +45874,7 @@
         <v>27.720800000000001</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -45705,7 +45909,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -45743,7 +45947,7 @@
         <v>449</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -45762,6 +45966,9 @@
       <c r="E300" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F300" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G300" s="1">
         <v>0</v>
       </c>
@@ -45778,7 +45985,7 @@
         <v>451</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -45816,7 +46023,7 @@
         <v>188</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -45835,6 +46042,9 @@
       <c r="E302" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F302" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G302" s="1">
         <v>0</v>
       </c>
@@ -45848,7 +46058,7 @@
         <v>7.75</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -45867,6 +46077,9 @@
       <c r="E303" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F303" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G303" s="1">
         <v>2</v>
       </c>
@@ -45880,7 +46093,7 @@
         <v>23.25</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -45915,7 +46128,7 @@
         <v>0</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -45934,6 +46147,9 @@
       <c r="E305" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F305" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G305" s="1">
         <v>0</v>
       </c>
@@ -45950,7 +46166,7 @@
         <v>195</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -45969,6 +46185,9 @@
       <c r="E306" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F306" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G306" s="1">
         <v>0</v>
       </c>
@@ -45982,7 +46201,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -46020,7 +46239,7 @@
         <v>449</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -46039,6 +46258,9 @@
       <c r="E308" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F308" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G308" s="1">
         <v>0</v>
       </c>
@@ -46052,7 +46274,7 @@
         <v>110.88330000000001</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -46090,7 +46312,7 @@
         <v>463</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -46125,7 +46347,7 @@
         <v>24</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -46163,7 +46385,7 @@
         <v>468</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -46201,7 +46423,7 @@
         <v>470</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -46239,7 +46461,7 @@
         <v>473</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -46274,7 +46496,7 @@
         <v>26</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -46309,7 +46531,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -46344,7 +46566,7 @@
         <v>26.25</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -46379,7 +46601,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -46414,7 +46636,7 @@
         <v>26</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -46449,7 +46671,7 @@
         <v>14</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -46487,7 +46709,7 @@
         <v>482</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -46525,7 +46747,7 @@
         <v>484</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -46560,7 +46782,7 @@
         <v>7.25</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -46595,7 +46817,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -46630,7 +46852,7 @@
         <v>12.35</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -46665,7 +46887,7 @@
         <v>29</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -46684,6 +46906,9 @@
       <c r="E326" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F326" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G326" s="1">
         <v>8</v>
       </c>
@@ -46697,7 +46922,7 @@
         <v>69.55</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -46735,7 +46960,7 @@
         <v>492</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -46770,7 +46995,7 @@
         <v>6.2374999999999998</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -46808,7 +47033,7 @@
         <v>442</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -46843,7 +47068,7 @@
         <v>20.524999999999999</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -46881,7 +47106,7 @@
         <v>497</v>
       </c>
       <c r="L331" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -46900,6 +47125,9 @@
       <c r="E332" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F332" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G332" s="1">
         <v>2</v>
       </c>
@@ -46913,7 +47141,7 @@
         <v>23.25</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -46951,7 +47179,7 @@
         <v>500</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -46989,7 +47217,7 @@
         <v>502</v>
       </c>
       <c r="L334" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -47024,7 +47252,7 @@
         <v>18</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -47043,6 +47271,9 @@
       <c r="E336" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F336" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G336" s="1">
         <v>1</v>
       </c>
@@ -47056,7 +47287,7 @@
         <v>133.65</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -47075,6 +47306,9 @@
       <c r="E337" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F337" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G337" s="1">
         <v>0</v>
       </c>
@@ -47088,7 +47322,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
@@ -47126,7 +47360,7 @@
         <v>237</v>
       </c>
       <c r="L338" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
@@ -47164,7 +47398,7 @@
         <v>509</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
@@ -47199,7 +47433,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
@@ -47237,7 +47471,7 @@
         <v>512</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
@@ -47275,7 +47509,7 @@
         <v>232</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
@@ -47313,7 +47547,7 @@
         <v>57</v>
       </c>
       <c r="L343" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
@@ -47348,7 +47582,7 @@
         <v>13</v>
       </c>
       <c r="L344" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -47383,7 +47617,7 @@
         <v>13</v>
       </c>
       <c r="L345" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
@@ -47418,7 +47652,7 @@
         <v>13</v>
       </c>
       <c r="L346" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
@@ -47456,7 +47690,7 @@
         <v>117</v>
       </c>
       <c r="L347" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -47491,7 +47725,7 @@
         <v>13</v>
       </c>
       <c r="L348" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -47510,6 +47744,9 @@
       <c r="E349" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F349" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G349" s="1">
         <v>1</v>
       </c>
@@ -47523,7 +47760,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L349" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -47558,7 +47795,7 @@
         <v>15.9</v>
       </c>
       <c r="L350" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -47593,7 +47830,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L351" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -47628,7 +47865,7 @@
         <v>9.2249999999999996</v>
       </c>
       <c r="L352" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -47647,6 +47884,9 @@
       <c r="E353" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F353" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G353" s="1">
         <v>0</v>
       </c>
@@ -47663,7 +47903,7 @@
         <v>526</v>
       </c>
       <c r="L353" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -47698,7 +47938,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L354" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -47733,7 +47973,7 @@
         <v>17.8</v>
       </c>
       <c r="L355" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -47752,6 +47992,9 @@
       <c r="E356" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F356" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G356" s="1">
         <v>0</v>
       </c>
@@ -47765,7 +48008,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L356" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -47800,7 +48043,7 @@
         <v>9.5</v>
       </c>
       <c r="L357" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -47838,7 +48081,7 @@
         <v>260</v>
       </c>
       <c r="L358" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -47873,7 +48116,7 @@
         <v>13</v>
       </c>
       <c r="L359" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -47892,6 +48135,9 @@
       <c r="E360" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F360" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G360" s="1">
         <v>0</v>
       </c>
@@ -47905,7 +48151,7 @@
         <v>7.8792</v>
       </c>
       <c r="L360" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -47924,6 +48170,9 @@
       <c r="E361" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F361" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G361" s="1">
         <v>0</v>
       </c>
@@ -47937,7 +48186,7 @@
         <v>7.8792</v>
       </c>
       <c r="L361" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -47972,7 +48221,7 @@
         <v>27.9</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -48007,7 +48256,7 @@
         <v>27.720800000000001</v>
       </c>
       <c r="L363" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -48042,7 +48291,7 @@
         <v>14.4542</v>
       </c>
       <c r="L364" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -48077,7 +48326,7 @@
         <v>7.05</v>
       </c>
       <c r="L365" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -48096,6 +48345,9 @@
       <c r="E366" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F366" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G366" s="1">
         <v>1</v>
       </c>
@@ -48109,7 +48361,7 @@
         <v>15.5</v>
       </c>
       <c r="L366" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -48144,7 +48396,7 @@
         <v>7.25</v>
       </c>
       <c r="L367" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -48182,7 +48434,7 @@
         <v>545</v>
       </c>
       <c r="L368" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -48201,6 +48453,9 @@
       <c r="E369" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F369" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G369" s="1">
         <v>0</v>
       </c>
@@ -48214,7 +48469,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L369" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -48233,6 +48488,9 @@
       <c r="E370" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F370" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G370" s="1">
         <v>0</v>
       </c>
@@ -48246,7 +48504,7 @@
         <v>7.75</v>
       </c>
       <c r="L370" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -48284,7 +48542,7 @@
         <v>550</v>
       </c>
       <c r="L371" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -48322,7 +48580,7 @@
         <v>552</v>
       </c>
       <c r="L372" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -48357,7 +48615,7 @@
         <v>6.4958</v>
       </c>
       <c r="L373" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -48392,7 +48650,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L374" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -48427,7 +48685,7 @@
         <v>135.63329999999999</v>
       </c>
       <c r="L375" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -48462,7 +48720,7 @@
         <v>21.074999999999999</v>
       </c>
       <c r="L376" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -48481,6 +48739,9 @@
       <c r="E377" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F377" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G377" s="1">
         <v>1</v>
       </c>
@@ -48494,7 +48755,7 @@
         <v>82.1708</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -48529,7 +48790,7 @@
         <v>7.25</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -48567,7 +48828,7 @@
         <v>561</v>
       </c>
       <c r="L379" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -48602,7 +48863,7 @@
         <v>4.0125000000000002</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -48637,7 +48898,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L381" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -48672,7 +48933,7 @@
         <v>227.52500000000001</v>
       </c>
       <c r="L382" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -48707,7 +48968,7 @@
         <v>15.7417</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -48742,7 +49003,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L384" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -48777,7 +49038,7 @@
         <v>52</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -48796,6 +49057,9 @@
       <c r="E386" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F386" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G386" s="1">
         <v>0</v>
       </c>
@@ -48809,7 +49073,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L386" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -48844,7 +49108,7 @@
         <v>73.5</v>
       </c>
       <c r="L387" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -48879,7 +49143,7 @@
         <v>46.9</v>
       </c>
       <c r="L388" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -48914,7 +49178,7 @@
         <v>13</v>
       </c>
       <c r="L389" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -48933,6 +49197,9 @@
       <c r="E390" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F390" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G390" s="1">
         <v>0</v>
       </c>
@@ -48946,7 +49213,7 @@
         <v>7.7291999999999996</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -48981,7 +49248,7 @@
         <v>12</v>
       </c>
       <c r="L391" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -49019,7 +49286,7 @@
         <v>578</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -49054,7 +49321,7 @@
         <v>7.7957999999999998</v>
       </c>
       <c r="L393" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -49089,7 +49356,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L394" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -49127,7 +49394,7 @@
         <v>328</v>
       </c>
       <c r="L395" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -49165,7 +49432,7 @@
         <v>35</v>
       </c>
       <c r="L396" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -49200,7 +49467,7 @@
         <v>7.7957999999999998</v>
       </c>
       <c r="L397" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -49235,7 +49502,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L398" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -49270,7 +49537,7 @@
         <v>26</v>
       </c>
       <c r="L399" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -49305,7 +49572,7 @@
         <v>10.5</v>
       </c>
       <c r="L400" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -49340,7 +49607,7 @@
         <v>12.65</v>
       </c>
       <c r="L401" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -49375,7 +49642,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L402" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -49410,7 +49677,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L403" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -49445,7 +49712,7 @@
         <v>9.8249999999999993</v>
       </c>
       <c r="L404" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -49480,7 +49747,7 @@
         <v>15.85</v>
       </c>
       <c r="L405" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -49515,7 +49782,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L406" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -49550,7 +49817,7 @@
         <v>21</v>
       </c>
       <c r="L407" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -49585,7 +49852,7 @@
         <v>7.75</v>
       </c>
       <c r="L408" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -49620,7 +49887,7 @@
         <v>18.75</v>
       </c>
       <c r="L409" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -49655,7 +49922,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -49674,6 +49941,9 @@
       <c r="E411" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F411" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G411" s="1">
         <v>3</v>
       </c>
@@ -49687,7 +49957,7 @@
         <v>25.466699999999999</v>
       </c>
       <c r="L411" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -49706,6 +49976,9 @@
       <c r="E412" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F412" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G412" s="1">
         <v>0</v>
       </c>
@@ -49719,7 +49992,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L412" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -49738,6 +50011,9 @@
       <c r="E413" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F413" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G413" s="1">
         <v>0</v>
       </c>
@@ -49751,7 +50027,7 @@
         <v>6.8582999999999998</v>
       </c>
       <c r="L413" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -49789,7 +50065,7 @@
         <v>373</v>
       </c>
       <c r="L414" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -49808,6 +50084,9 @@
       <c r="E415" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F415" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G415" s="1">
         <v>0</v>
       </c>
@@ -49821,7 +50100,7 @@
         <v>0</v>
       </c>
       <c r="L415" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -49856,7 +50135,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L416" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -49875,6 +50154,9 @@
       <c r="E417" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F417" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G417" s="1">
         <v>0</v>
       </c>
@@ -49888,7 +50170,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L417" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -49923,7 +50205,7 @@
         <v>32.5</v>
       </c>
       <c r="L418" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -49958,7 +50240,7 @@
         <v>13</v>
       </c>
       <c r="L419" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -49993,7 +50275,7 @@
         <v>13</v>
       </c>
       <c r="L420" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -50028,7 +50310,7 @@
         <v>24.15</v>
       </c>
       <c r="L421" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -50047,6 +50329,9 @@
       <c r="E422" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F422" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G422" s="1">
         <v>0</v>
       </c>
@@ -50060,7 +50345,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L422" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -50095,7 +50380,7 @@
         <v>7.7332999999999998</v>
       </c>
       <c r="L423" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -50130,7 +50415,7 @@
         <v>7.875</v>
       </c>
       <c r="L424" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -50165,7 +50450,7 @@
         <v>14.4</v>
       </c>
       <c r="L425" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -50200,7 +50485,7 @@
         <v>20.212499999999999</v>
       </c>
       <c r="L426" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -50219,6 +50504,9 @@
       <c r="E427" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F427" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G427" s="1">
         <v>0</v>
       </c>
@@ -50232,7 +50520,7 @@
         <v>7.25</v>
       </c>
       <c r="L427" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -50267,7 +50555,7 @@
         <v>26</v>
       </c>
       <c r="L428" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -50302,7 +50590,7 @@
         <v>26</v>
       </c>
       <c r="L429" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -50321,6 +50609,9 @@
       <c r="E430" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F430" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G430" s="1">
         <v>0</v>
       </c>
@@ -50334,7 +50625,7 @@
         <v>7.75</v>
       </c>
       <c r="L430" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -50372,7 +50663,7 @@
         <v>623</v>
       </c>
       <c r="L431" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
@@ -50410,7 +50701,7 @@
         <v>98</v>
       </c>
       <c r="L432" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
@@ -50429,6 +50720,9 @@
       <c r="E433" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F433" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G433" s="1">
         <v>1</v>
       </c>
@@ -50442,7 +50736,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L433" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
@@ -50477,7 +50771,7 @@
         <v>26</v>
       </c>
       <c r="L434" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
@@ -50512,7 +50806,7 @@
         <v>7.125</v>
       </c>
       <c r="L435" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
@@ -50550,7 +50844,7 @@
         <v>631</v>
       </c>
       <c r="L436" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
@@ -50588,7 +50882,7 @@
         <v>578</v>
       </c>
       <c r="L437" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
@@ -50623,7 +50917,7 @@
         <v>34.375</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
@@ -50658,7 +50952,7 @@
         <v>18.75</v>
       </c>
       <c r="L439" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
@@ -50696,7 +50990,7 @@
         <v>57</v>
       </c>
       <c r="L440" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
@@ -50731,7 +51025,7 @@
         <v>10.5</v>
       </c>
       <c r="L441" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
@@ -50766,7 +51060,7 @@
         <v>26.25</v>
       </c>
       <c r="L442" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
@@ -50801,7 +51095,7 @@
         <v>9.5</v>
       </c>
       <c r="L443" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
@@ -50836,7 +51130,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L444" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
@@ -50871,7 +51165,7 @@
         <v>13</v>
       </c>
       <c r="L445" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
@@ -50890,6 +51184,9 @@
       <c r="E446" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F446" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G446" s="1">
         <v>0</v>
       </c>
@@ -50903,7 +51200,7 @@
         <v>8.1125000000000007</v>
       </c>
       <c r="L446" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
@@ -50941,7 +51238,7 @@
         <v>644</v>
       </c>
       <c r="L447" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
@@ -50976,7 +51273,7 @@
         <v>19.5</v>
       </c>
       <c r="L448" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
@@ -51011,7 +51308,7 @@
         <v>26.55</v>
       </c>
       <c r="L449" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
@@ -51046,7 +51343,7 @@
         <v>19.258299999999998</v>
       </c>
       <c r="L450" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
@@ -51084,7 +51381,7 @@
         <v>649</v>
       </c>
       <c r="L451" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
@@ -51119,7 +51416,7 @@
         <v>27.75</v>
       </c>
       <c r="L452" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
@@ -51138,6 +51435,9 @@
       <c r="E453" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F453" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G453" s="1">
         <v>1</v>
       </c>
@@ -51151,7 +51451,7 @@
         <v>19.966699999999999</v>
       </c>
       <c r="L453" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
@@ -51189,7 +51489,7 @@
         <v>653</v>
       </c>
       <c r="L454" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
@@ -51227,7 +51527,7 @@
         <v>655</v>
       </c>
       <c r="L455" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
@@ -51246,6 +51546,9 @@
       <c r="E456" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F456" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G456" s="1">
         <v>0</v>
       </c>
@@ -51259,7 +51562,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L456" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
@@ -51294,7 +51597,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L457" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
@@ -51332,7 +51635,7 @@
         <v>660</v>
       </c>
       <c r="L458" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
@@ -51351,6 +51654,9 @@
       <c r="E459" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F459" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G459" s="1">
         <v>1</v>
       </c>
@@ -51367,7 +51673,7 @@
         <v>662</v>
       </c>
       <c r="L459" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
@@ -51402,7 +51708,7 @@
         <v>10.5</v>
       </c>
       <c r="L460" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
@@ -51421,6 +51727,9 @@
       <c r="E461" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F461" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G461" s="1">
         <v>0</v>
       </c>
@@ -51434,7 +51743,7 @@
         <v>7.75</v>
       </c>
       <c r="L461" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
@@ -51472,7 +51781,7 @@
         <v>667</v>
       </c>
       <c r="L462" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
@@ -51507,7 +51816,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L463" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
@@ -51545,7 +51854,7 @@
         <v>670</v>
       </c>
       <c r="L464" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.2">
@@ -51580,7 +51889,7 @@
         <v>13</v>
       </c>
       <c r="L465" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.2">
@@ -51599,6 +51908,9 @@
       <c r="E466" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F466" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G466" s="1">
         <v>0</v>
       </c>
@@ -51612,7 +51924,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L466" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.2">
@@ -51647,7 +51959,7 @@
         <v>7.05</v>
       </c>
       <c r="L467" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.2">
@@ -51666,6 +51978,9 @@
       <c r="E468" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F468" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G468" s="1">
         <v>0</v>
       </c>
@@ -51679,7 +51994,7 @@
         <v>0</v>
       </c>
       <c r="L468" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.2">
@@ -51714,7 +52029,7 @@
         <v>26.55</v>
       </c>
       <c r="L469" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.2">
@@ -51733,6 +52048,9 @@
       <c r="E470" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F470" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G470" s="1">
         <v>0</v>
       </c>
@@ -51746,7 +52064,7 @@
         <v>7.7249999999999996</v>
       </c>
       <c r="L470" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.2">
@@ -51781,7 +52099,7 @@
         <v>19.258299999999998</v>
       </c>
       <c r="L471" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.2">
@@ -51800,6 +52118,9 @@
       <c r="E472" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F472" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G472" s="1">
         <v>0</v>
       </c>
@@ -51813,7 +52134,7 @@
         <v>7.25</v>
       </c>
       <c r="L472" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.2">
@@ -51848,7 +52169,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L473" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.2">
@@ -51883,7 +52204,7 @@
         <v>27.75</v>
       </c>
       <c r="L474" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.2">
@@ -51921,7 +52242,7 @@
         <v>442</v>
       </c>
       <c r="L475" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.2">
@@ -51956,7 +52277,7 @@
         <v>9.8375000000000004</v>
       </c>
       <c r="L476" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
@@ -51975,6 +52296,9 @@
       <c r="E477" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F477" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G477" s="1">
         <v>0</v>
       </c>
@@ -51991,7 +52315,7 @@
         <v>687</v>
       </c>
       <c r="L477" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.2">
@@ -52026,7 +52350,7 @@
         <v>21</v>
       </c>
       <c r="L478" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
@@ -52061,7 +52385,7 @@
         <v>7.0457999999999998</v>
       </c>
       <c r="L479" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.2">
@@ -52096,7 +52420,7 @@
         <v>7.5208000000000004</v>
       </c>
       <c r="L480" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
@@ -52131,7 +52455,7 @@
         <v>12.2875</v>
       </c>
       <c r="L481" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
@@ -52166,7 +52490,7 @@
         <v>46.9</v>
       </c>
       <c r="L482" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
@@ -52185,6 +52509,9 @@
       <c r="E483" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F483" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G483" s="1">
         <v>0</v>
       </c>
@@ -52198,7 +52525,7 @@
         <v>0</v>
       </c>
       <c r="L483" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
@@ -52233,7 +52560,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L484" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
@@ -52268,7 +52595,7 @@
         <v>9.5875000000000004</v>
       </c>
       <c r="L485" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
@@ -52306,7 +52633,7 @@
         <v>439</v>
       </c>
       <c r="L486" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
@@ -52325,6 +52652,9 @@
       <c r="E487" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F487" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G487" s="1">
         <v>3</v>
       </c>
@@ -52338,7 +52668,7 @@
         <v>25.466699999999999</v>
       </c>
       <c r="L487" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
@@ -52376,7 +52706,7 @@
         <v>342</v>
       </c>
       <c r="L488" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
@@ -52414,7 +52744,7 @@
         <v>701</v>
       </c>
       <c r="L489" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
@@ -52449,7 +52779,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L490" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
@@ -52484,7 +52814,7 @@
         <v>15.9</v>
       </c>
       <c r="L491" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
@@ -52503,6 +52833,9 @@
       <c r="E492" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F492" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G492" s="1">
         <v>1</v>
       </c>
@@ -52516,7 +52849,7 @@
         <v>19.966699999999999</v>
       </c>
       <c r="L492" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
@@ -52551,7 +52884,7 @@
         <v>7.25</v>
       </c>
       <c r="L493" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
@@ -52589,7 +52922,7 @@
         <v>709</v>
       </c>
       <c r="L494" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.2">
@@ -52624,7 +52957,7 @@
         <v>49.504199999999997</v>
       </c>
       <c r="L495" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.2">
@@ -52659,7 +52992,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L496" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.2">
@@ -52678,6 +53011,9 @@
       <c r="E497" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F497" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G497" s="1">
         <v>0</v>
       </c>
@@ -52691,7 +53027,7 @@
         <v>14.458299999999999</v>
       </c>
       <c r="L497" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.2">
@@ -52729,7 +53065,7 @@
         <v>716</v>
       </c>
       <c r="L498" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.2">
@@ -52748,6 +53084,9 @@
       <c r="E499" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F499" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G499" s="1">
         <v>0</v>
       </c>
@@ -52761,7 +53100,7 @@
         <v>15.1</v>
       </c>
       <c r="L499" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.2">
@@ -52799,7 +53138,7 @@
         <v>449</v>
       </c>
       <c r="L500" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.2">
@@ -52834,7 +53173,7 @@
         <v>7.7957999999999998</v>
       </c>
       <c r="L501" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.2">
@@ -52869,7 +53208,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L502" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.2">
@@ -52904,7 +53243,7 @@
         <v>7.75</v>
       </c>
       <c r="L503" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.2">
@@ -52923,6 +53262,9 @@
       <c r="E504" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F504" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G504" s="1">
         <v>0</v>
       </c>
@@ -52936,7 +53278,7 @@
         <v>7.6292</v>
       </c>
       <c r="L504" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.2">
@@ -52971,7 +53313,7 @@
         <v>9.5875000000000004</v>
       </c>
       <c r="L505" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.2">
@@ -53009,7 +53351,7 @@
         <v>726</v>
       </c>
       <c r="L506" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.2">
@@ -53047,7 +53389,7 @@
         <v>463</v>
       </c>
       <c r="L507" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.2">
@@ -53082,7 +53424,7 @@
         <v>26</v>
       </c>
       <c r="L508" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.2">
@@ -53101,6 +53443,9 @@
       <c r="E509" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F509" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G509" s="1">
         <v>0</v>
       </c>
@@ -53114,7 +53459,7 @@
         <v>26.55</v>
       </c>
       <c r="L509" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.2">
@@ -53149,7 +53494,7 @@
         <v>22.524999999999999</v>
       </c>
       <c r="L510" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.2">
@@ -53184,7 +53529,7 @@
         <v>56.495800000000003</v>
       </c>
       <c r="L511" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.2">
@@ -53219,7 +53564,7 @@
         <v>7.75</v>
       </c>
       <c r="L512" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.2">
@@ -53238,6 +53583,9 @@
       <c r="E513" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F513" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G513" s="1">
         <v>0</v>
       </c>
@@ -53251,7 +53599,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L513" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.2">
@@ -53289,7 +53637,7 @@
         <v>738</v>
       </c>
       <c r="L514" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.2">
@@ -53324,7 +53672,7 @@
         <v>59.4</v>
       </c>
       <c r="L515" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.2">
@@ -53359,7 +53707,7 @@
         <v>7.4958</v>
       </c>
       <c r="L516" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.2">
@@ -53397,7 +53745,7 @@
         <v>743</v>
       </c>
       <c r="L517" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.2">
@@ -53435,7 +53783,7 @@
         <v>117</v>
       </c>
       <c r="L518" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.2">
@@ -53454,6 +53802,9 @@
       <c r="E519" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F519" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G519" s="1">
         <v>0</v>
       </c>
@@ -53467,7 +53818,7 @@
         <v>24.15</v>
       </c>
       <c r="L519" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.2">
@@ -53502,7 +53853,7 @@
         <v>26</v>
       </c>
       <c r="L520" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.2">
@@ -53537,7 +53888,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L521" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.2">
@@ -53575,7 +53926,7 @@
         <v>750</v>
       </c>
       <c r="L522" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.2">
@@ -53610,7 +53961,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L523" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.2">
@@ -53629,6 +53980,9 @@
       <c r="E524" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F524" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G524" s="1">
         <v>0</v>
       </c>
@@ -53642,7 +53996,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L524" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.2">
@@ -53680,7 +54034,7 @@
         <v>497</v>
       </c>
       <c r="L525" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.2">
@@ -53699,6 +54053,9 @@
       <c r="E526" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F526" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G526" s="1">
         <v>0</v>
       </c>
@@ -53712,7 +54069,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L526" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.2">
@@ -53747,7 +54104,7 @@
         <v>7.75</v>
       </c>
       <c r="L527" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.2">
@@ -53782,7 +54139,7 @@
         <v>10.5</v>
       </c>
       <c r="L528" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
@@ -53801,6 +54158,9 @@
       <c r="E529" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F529" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G529" s="1">
         <v>0</v>
       </c>
@@ -53817,7 +54177,7 @@
         <v>760</v>
       </c>
       <c r="L529" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.2">
@@ -53852,7 +54212,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L530" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.2">
@@ -53887,7 +54247,7 @@
         <v>11.5</v>
       </c>
       <c r="L531" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.2">
@@ -53922,7 +54282,7 @@
         <v>26</v>
       </c>
       <c r="L532" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.2">
@@ -53941,6 +54301,9 @@
       <c r="E533" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F533" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G533" s="1">
         <v>0</v>
       </c>
@@ -53954,7 +54317,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L533" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.2">
@@ -53989,7 +54352,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L534" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.2">
@@ -54008,6 +54371,9 @@
       <c r="E535" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F535" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G535" s="1">
         <v>0</v>
       </c>
@@ -54021,7 +54387,7 @@
         <v>22.3583</v>
       </c>
       <c r="L535" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.2">
@@ -54056,7 +54422,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L536" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.2">
@@ -54091,7 +54457,7 @@
         <v>26.25</v>
       </c>
       <c r="L537" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.2">
@@ -54129,7 +54495,7 @@
         <v>770</v>
       </c>
       <c r="L538" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.2">
@@ -54164,7 +54530,7 @@
         <v>106.425</v>
       </c>
       <c r="L539" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.2">
@@ -54183,6 +54549,9 @@
       <c r="E540" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F540" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G540" s="1">
         <v>0</v>
       </c>
@@ -54196,7 +54565,7 @@
         <v>14.5</v>
       </c>
       <c r="L540" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.2">
@@ -54234,7 +54603,7 @@
         <v>775</v>
       </c>
       <c r="L541" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.2">
@@ -54272,7 +54641,7 @@
         <v>778</v>
       </c>
       <c r="L542" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.2">
@@ -54307,7 +54676,7 @@
         <v>31.274999999999999</v>
       </c>
       <c r="L543" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.2">
@@ -54342,7 +54711,7 @@
         <v>31.274999999999999</v>
       </c>
       <c r="L544" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.2">
@@ -54377,7 +54746,7 @@
         <v>26</v>
       </c>
       <c r="L545" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.2">
@@ -54415,7 +54784,7 @@
         <v>783</v>
       </c>
       <c r="L546" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.2">
@@ -54450,7 +54819,7 @@
         <v>26</v>
       </c>
       <c r="L547" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.2">
@@ -54485,7 +54854,7 @@
         <v>26</v>
       </c>
       <c r="L548" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.2">
@@ -54504,6 +54873,9 @@
       <c r="E549" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F549" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G549" s="1">
         <v>0</v>
       </c>
@@ -54517,7 +54889,7 @@
         <v>13.862500000000001</v>
       </c>
       <c r="L549" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.2">
@@ -54552,7 +54924,7 @@
         <v>20.524999999999999</v>
       </c>
       <c r="L550" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.2">
@@ -54587,7 +54959,7 @@
         <v>36.75</v>
       </c>
       <c r="L551" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.2">
@@ -54625,7 +54997,7 @@
         <v>791</v>
       </c>
       <c r="L552" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.2">
@@ -54660,7 +55032,7 @@
         <v>26</v>
       </c>
       <c r="L553" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.2">
@@ -54679,6 +55051,9 @@
       <c r="E554" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F554" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G554" s="1">
         <v>0</v>
       </c>
@@ -54692,7 +55067,7 @@
         <v>7.8292000000000002</v>
       </c>
       <c r="L554" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.2">
@@ -54727,7 +55102,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L555" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.2">
@@ -54762,7 +55137,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L556" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.2">
@@ -54797,7 +55172,7 @@
         <v>26.55</v>
       </c>
       <c r="L557" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.2">
@@ -54835,7 +55210,7 @@
         <v>798</v>
       </c>
       <c r="L558" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.2">
@@ -54854,6 +55229,9 @@
       <c r="E559" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F559" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G559" s="1">
         <v>0</v>
       </c>
@@ -54867,7 +55245,7 @@
         <v>227.52500000000001</v>
       </c>
       <c r="L559" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.2">
@@ -54905,7 +55283,7 @@
         <v>397</v>
       </c>
       <c r="L560" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.2">
@@ -54940,7 +55318,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="L561" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.2">
@@ -54959,6 +55337,9 @@
       <c r="E562" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F562" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G562" s="1">
         <v>0</v>
       </c>
@@ -54972,7 +55353,7 @@
         <v>7.75</v>
       </c>
       <c r="L562" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.2">
@@ -55007,7 +55388,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L563" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.2">
@@ -55042,7 +55423,7 @@
         <v>13.5</v>
       </c>
       <c r="L564" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.2">
@@ -55061,6 +55442,9 @@
       <c r="E565" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F565" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G565" s="1">
         <v>0</v>
       </c>
@@ -55074,7 +55458,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L565" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.2">
@@ -55093,6 +55477,9 @@
       <c r="E566" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F566" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G566" s="1">
         <v>0</v>
       </c>
@@ -55106,7 +55493,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L566" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.2">
@@ -55141,7 +55528,7 @@
         <v>24.15</v>
       </c>
       <c r="L567" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.2">
@@ -55176,7 +55563,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L568" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.2">
@@ -55211,7 +55598,7 @@
         <v>21.074999999999999</v>
       </c>
       <c r="L569" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.2">
@@ -55230,6 +55617,9 @@
       <c r="E570" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F570" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G570" s="1">
         <v>0</v>
       </c>
@@ -55243,7 +55633,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L570" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.2">
@@ -55278,7 +55668,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L571" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.2">
@@ -55313,7 +55703,7 @@
         <v>10.5</v>
       </c>
       <c r="L572" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.2">
@@ -55351,7 +55741,7 @@
         <v>818</v>
       </c>
       <c r="L573" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.2">
@@ -55389,7 +55779,7 @@
         <v>738</v>
       </c>
       <c r="L574" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.2">
@@ -55408,6 +55798,9 @@
       <c r="E575" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F575" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G575" s="1">
         <v>0</v>
       </c>
@@ -55421,7 +55814,7 @@
         <v>7.75</v>
       </c>
       <c r="L575" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.2">
@@ -55456,7 +55849,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L576" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.2">
@@ -55491,7 +55884,7 @@
         <v>14.5</v>
       </c>
       <c r="L577" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.2">
@@ -55526,7 +55919,7 @@
         <v>13</v>
       </c>
       <c r="L578" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.2">
@@ -55564,7 +55957,7 @@
         <v>631</v>
       </c>
       <c r="L579" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.2">
@@ -55583,6 +55976,9 @@
       <c r="E580" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F580" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G580" s="1">
         <v>1</v>
       </c>
@@ -55596,7 +55992,7 @@
         <v>14.458299999999999</v>
       </c>
       <c r="L580" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.2">
@@ -55631,7 +56027,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L581" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.2">
@@ -55666,7 +56062,7 @@
         <v>30</v>
       </c>
       <c r="L582" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.2">
@@ -55704,7 +56100,7 @@
         <v>832</v>
       </c>
       <c r="L583" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.2">
@@ -55739,7 +56135,7 @@
         <v>26</v>
       </c>
       <c r="L584" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.2">
@@ -55777,7 +56173,7 @@
         <v>835</v>
       </c>
       <c r="L585" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.2">
@@ -55796,6 +56192,9 @@
       <c r="E586" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F586" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G586" s="1">
         <v>0</v>
       </c>
@@ -55809,7 +56208,7 @@
         <v>8.7125000000000004</v>
       </c>
       <c r="L586" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.2">
@@ -55847,7 +56246,7 @@
         <v>838</v>
       </c>
       <c r="L587" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.2">
@@ -55882,7 +56281,7 @@
         <v>15</v>
       </c>
       <c r="L588" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.2">
@@ -55920,7 +56319,7 @@
         <v>841</v>
       </c>
       <c r="L589" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.2">
@@ -55955,7 +56354,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L590" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.2">
@@ -55974,6 +56373,9 @@
       <c r="E591" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F591" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G591" s="1">
         <v>0</v>
       </c>
@@ -55987,7 +56389,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L591" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.2">
@@ -56022,7 +56424,7 @@
         <v>7.125</v>
       </c>
       <c r="L592" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.2">
@@ -56060,7 +56462,7 @@
         <v>716</v>
       </c>
       <c r="L593" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.2">
@@ -56095,7 +56497,7 @@
         <v>7.25</v>
       </c>
       <c r="L594" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.2">
@@ -56114,6 +56516,9 @@
       <c r="E595" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F595" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G595" s="1">
         <v>0</v>
       </c>
@@ -56127,7 +56532,7 @@
         <v>7.75</v>
       </c>
       <c r="L595" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.2">
@@ -56162,7 +56567,7 @@
         <v>26</v>
       </c>
       <c r="L596" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.2">
@@ -56197,7 +56602,7 @@
         <v>24.15</v>
       </c>
       <c r="L597" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.2">
@@ -56216,6 +56621,9 @@
       <c r="E598" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F598" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G598" s="1">
         <v>0</v>
       </c>
@@ -56229,7 +56637,7 @@
         <v>33</v>
       </c>
       <c r="L598" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.2">
@@ -56264,7 +56672,7 @@
         <v>0</v>
       </c>
       <c r="L599" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.2">
@@ -56283,6 +56691,9 @@
       <c r="E600" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F600" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G600" s="1">
         <v>0</v>
       </c>
@@ -56296,7 +56707,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L600" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.2">
@@ -56334,7 +56745,7 @@
         <v>858</v>
       </c>
       <c r="L601" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.2">
@@ -56369,7 +56780,7 @@
         <v>27</v>
       </c>
       <c r="L602" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.2">
@@ -56388,6 +56799,9 @@
       <c r="E603" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F603" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G603" s="1">
         <v>0</v>
       </c>
@@ -56401,7 +56815,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L603" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.2">
@@ -56420,6 +56834,9 @@
       <c r="E604" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F604" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G604" s="1">
         <v>0</v>
       </c>
@@ -56433,7 +56850,7 @@
         <v>42.4</v>
       </c>
       <c r="L604" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.2">
@@ -56468,7 +56885,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L605" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.2">
@@ -56503,7 +56920,7 @@
         <v>26.55</v>
       </c>
       <c r="L606" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.2">
@@ -56538,7 +56955,7 @@
         <v>15.55</v>
       </c>
       <c r="L607" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.2">
@@ -56573,7 +56990,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L608" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.2">
@@ -56608,7 +57025,7 @@
         <v>30.5</v>
       </c>
       <c r="L609" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.2">
@@ -56643,7 +57060,7 @@
         <v>41.5792</v>
       </c>
       <c r="L610" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.2">
@@ -56681,7 +57098,7 @@
         <v>407</v>
       </c>
       <c r="L611" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.2">
@@ -56716,7 +57133,7 @@
         <v>31.274999999999999</v>
       </c>
       <c r="L612" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.2">
@@ -56735,6 +57152,9 @@
       <c r="E613" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F613" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G613" s="1">
         <v>0</v>
       </c>
@@ -56748,7 +57168,7 @@
         <v>7.05</v>
       </c>
       <c r="L613" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.2">
@@ -56767,6 +57187,9 @@
       <c r="E614" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F614" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G614" s="1">
         <v>1</v>
       </c>
@@ -56780,7 +57203,7 @@
         <v>15.5</v>
       </c>
       <c r="L614" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.2">
@@ -56799,6 +57222,9 @@
       <c r="E615" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F615" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G615" s="1">
         <v>0</v>
       </c>
@@ -56812,7 +57238,7 @@
         <v>7.75</v>
       </c>
       <c r="L615" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.2">
@@ -56847,7 +57273,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L616" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.2">
@@ -56882,7 +57308,7 @@
         <v>65</v>
       </c>
       <c r="L617" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.2">
@@ -56917,7 +57343,7 @@
         <v>14.4</v>
       </c>
       <c r="L618" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.2">
@@ -56952,7 +57378,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L619" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.2">
@@ -56990,7 +57416,7 @@
         <v>286</v>
       </c>
       <c r="L620" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.2">
@@ -57025,7 +57451,7 @@
         <v>10.5</v>
       </c>
       <c r="L621" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.2">
@@ -57060,7 +57486,7 @@
         <v>14.4542</v>
       </c>
       <c r="L622" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.2">
@@ -57098,7 +57524,7 @@
         <v>882</v>
       </c>
       <c r="L623" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.2">
@@ -57133,7 +57559,7 @@
         <v>15.7417</v>
       </c>
       <c r="L624" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.2">
@@ -57168,7 +57594,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L625" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.2">
@@ -57203,7 +57629,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L626" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.2">
@@ -57241,7 +57667,7 @@
         <v>887</v>
       </c>
       <c r="L627" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.2">
@@ -57276,7 +57702,7 @@
         <v>12.35</v>
       </c>
       <c r="L628" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.2">
@@ -57314,7 +57740,7 @@
         <v>890</v>
       </c>
       <c r="L629" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.2">
@@ -57349,7 +57775,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L630" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.2">
@@ -57368,6 +57794,9 @@
       <c r="E631" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F631" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G631" s="1">
         <v>0</v>
       </c>
@@ -57381,7 +57810,7 @@
         <v>7.7332999999999998</v>
       </c>
       <c r="L631" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.2">
@@ -57419,7 +57848,7 @@
         <v>894</v>
       </c>
       <c r="L632" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.2">
@@ -57454,7 +57883,7 @@
         <v>7.0541999999999998</v>
       </c>
       <c r="L633" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.2">
@@ -57492,7 +57921,7 @@
         <v>897</v>
       </c>
       <c r="L634" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.2">
@@ -57511,6 +57940,9 @@
       <c r="E635" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F635" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G635" s="1">
         <v>0</v>
       </c>
@@ -57524,7 +57956,7 @@
         <v>0</v>
       </c>
       <c r="L635" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.2">
@@ -57559,7 +57991,7 @@
         <v>27.9</v>
       </c>
       <c r="L636" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.2">
@@ -57594,7 +58026,7 @@
         <v>13</v>
       </c>
       <c r="L637" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.2">
@@ -57629,7 +58061,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L638" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.2">
@@ -57664,7 +58096,7 @@
         <v>26.25</v>
       </c>
       <c r="L639" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.2">
@@ -57699,7 +58131,7 @@
         <v>39.6875</v>
       </c>
       <c r="L640" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.2">
@@ -57718,6 +58150,9 @@
       <c r="E641" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F641" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G641" s="1">
         <v>1</v>
       </c>
@@ -57731,7 +58166,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L641" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.2">
@@ -57766,7 +58201,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L642" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.2">
@@ -57804,7 +58239,7 @@
         <v>550</v>
       </c>
       <c r="L643" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.2">
@@ -57839,7 +58274,7 @@
         <v>27.9</v>
       </c>
       <c r="L644" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.2">
@@ -57858,6 +58293,9 @@
       <c r="E645" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F645" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G645" s="1">
         <v>0</v>
       </c>
@@ -57871,7 +58309,7 @@
         <v>56.495800000000003</v>
       </c>
       <c r="L645" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.2">
@@ -57906,7 +58344,7 @@
         <v>19.258299999999998</v>
       </c>
       <c r="L646" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.2">
@@ -57944,7 +58382,7 @@
         <v>93</v>
       </c>
       <c r="L647" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.2">
@@ -57979,7 +58417,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L648" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.2">
@@ -58017,7 +58455,7 @@
         <v>914</v>
       </c>
       <c r="L649" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.2">
@@ -58036,6 +58474,9 @@
       <c r="E650" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F650" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G650" s="1">
         <v>0</v>
       </c>
@@ -58049,7 +58490,7 @@
         <v>7.55</v>
       </c>
       <c r="L650" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.2">
@@ -58084,7 +58525,7 @@
         <v>7.55</v>
       </c>
       <c r="L651" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.2">
@@ -58103,6 +58544,9 @@
       <c r="E652" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F652" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G652" s="1">
         <v>0</v>
       </c>
@@ -58116,7 +58560,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L652" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.2">
@@ -58151,7 +58595,7 @@
         <v>23</v>
       </c>
       <c r="L653" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.2">
@@ -58186,7 +58630,7 @@
         <v>8.4332999999999991</v>
       </c>
       <c r="L654" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.2">
@@ -58205,6 +58649,9 @@
       <c r="E655" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F655" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G655" s="1">
         <v>0</v>
       </c>
@@ -58218,7 +58665,7 @@
         <v>7.8292000000000002</v>
       </c>
       <c r="L655" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.2">
@@ -58253,7 +58700,7 @@
         <v>6.75</v>
       </c>
       <c r="L656" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.2">
@@ -58288,7 +58735,7 @@
         <v>73.5</v>
       </c>
       <c r="L657" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.2">
@@ -58307,6 +58754,9 @@
       <c r="E658" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F658" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G658" s="1">
         <v>0</v>
       </c>
@@ -58320,7 +58770,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L658" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.2">
@@ -58355,7 +58805,7 @@
         <v>15.5</v>
       </c>
       <c r="L659" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.2">
@@ -58390,7 +58840,7 @@
         <v>13</v>
       </c>
       <c r="L660" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.2">
@@ -58428,7 +58878,7 @@
         <v>929</v>
       </c>
       <c r="L661" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.2">
@@ -58463,7 +58913,7 @@
         <v>133.65</v>
       </c>
       <c r="L662" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.2">
@@ -58498,7 +58948,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L663" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.2">
@@ -58536,7 +58986,7 @@
         <v>933</v>
       </c>
       <c r="L664" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.2">
@@ -58571,7 +59021,7 @@
         <v>7.4958</v>
       </c>
       <c r="L665" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.2">
@@ -58606,7 +59056,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L666" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.2">
@@ -58641,7 +59091,7 @@
         <v>73.5</v>
       </c>
       <c r="L667" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.2">
@@ -58676,7 +59126,7 @@
         <v>13</v>
       </c>
       <c r="L668" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.2">
@@ -58695,6 +59145,9 @@
       <c r="E669" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F669" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G669" s="1">
         <v>0</v>
       </c>
@@ -58708,7 +59161,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L669" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.2">
@@ -58743,7 +59196,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L670" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.2">
@@ -58762,6 +59215,9 @@
       <c r="E671" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F671" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G671" s="1">
         <v>1</v>
       </c>
@@ -58778,7 +59234,7 @@
         <v>943</v>
       </c>
       <c r="L671" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.2">
@@ -58813,7 +59269,7 @@
         <v>39</v>
       </c>
       <c r="L672" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.2">
@@ -58851,7 +59307,7 @@
         <v>947</v>
       </c>
       <c r="L673" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.2">
@@ -58886,7 +59342,7 @@
         <v>10.5</v>
       </c>
       <c r="L674" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.2">
@@ -58921,7 +59377,7 @@
         <v>13</v>
       </c>
       <c r="L675" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.2">
@@ -58940,6 +59396,9 @@
       <c r="E676" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F676" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G676" s="1">
         <v>0</v>
       </c>
@@ -58953,7 +59412,7 @@
         <v>0</v>
       </c>
       <c r="L676" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.2">
@@ -58988,7 +59447,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L677" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.2">
@@ -59023,7 +59482,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L678" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.2">
@@ -59058,7 +59517,7 @@
         <v>9.8416999999999994</v>
       </c>
       <c r="L679" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.2">
@@ -59093,7 +59552,7 @@
         <v>46.9</v>
       </c>
       <c r="L680" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.2">
@@ -59131,7 +59590,7 @@
         <v>957</v>
       </c>
       <c r="L681" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.2">
@@ -59150,6 +59609,9 @@
       <c r="E682" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F682" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G682" s="1">
         <v>0</v>
       </c>
@@ -59163,7 +59625,7 @@
         <v>8.1374999999999993</v>
       </c>
       <c r="L682" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.2">
@@ -59201,7 +59663,7 @@
         <v>960</v>
       </c>
       <c r="L683" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.2">
@@ -59236,7 +59698,7 @@
         <v>9.2249999999999996</v>
       </c>
       <c r="L684" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.2">
@@ -59271,7 +59733,7 @@
         <v>46.9</v>
       </c>
       <c r="L685" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.2">
@@ -59306,7 +59768,7 @@
         <v>39</v>
       </c>
       <c r="L686" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.2">
@@ -59341,7 +59803,7 @@
         <v>41.5792</v>
       </c>
       <c r="L687" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.2">
@@ -59376,7 +59838,7 @@
         <v>39.6875</v>
       </c>
       <c r="L688" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.2">
@@ -59411,7 +59873,7 @@
         <v>10.1708</v>
       </c>
       <c r="L689" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.2">
@@ -59446,7 +59908,7 @@
         <v>7.7957999999999998</v>
       </c>
       <c r="L690" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.2">
@@ -59484,7 +59946,7 @@
         <v>969</v>
       </c>
       <c r="L691" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.2">
@@ -59522,7 +59984,7 @@
         <v>971</v>
       </c>
       <c r="L692" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.2">
@@ -59557,7 +60019,7 @@
         <v>13.416700000000001</v>
       </c>
       <c r="L693" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.2">
@@ -59576,6 +60038,9 @@
       <c r="E694" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F694" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G694" s="1">
         <v>0</v>
       </c>
@@ -59589,7 +60054,7 @@
         <v>56.495800000000003</v>
       </c>
       <c r="L694" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.2">
@@ -59624,7 +60089,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L695" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.2">
@@ -59659,7 +60124,7 @@
         <v>26.55</v>
       </c>
       <c r="L696" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
@@ -59694,7 +60159,7 @@
         <v>13.5</v>
       </c>
       <c r="L697" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
@@ -59729,7 +60194,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L698" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.2">
@@ -59748,6 +60213,9 @@
       <c r="E699" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F699" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G699" s="1">
         <v>0</v>
       </c>
@@ -59761,7 +60229,7 @@
         <v>7.7332999999999998</v>
       </c>
       <c r="L699" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
@@ -59799,7 +60267,7 @@
         <v>832</v>
       </c>
       <c r="L700" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.2">
@@ -59837,7 +60305,7 @@
         <v>981</v>
       </c>
       <c r="L701" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.2">
@@ -59875,7 +60343,7 @@
         <v>983</v>
       </c>
       <c r="L702" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.2">
@@ -59913,7 +60381,7 @@
         <v>986</v>
       </c>
       <c r="L703" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.2">
@@ -59948,7 +60416,7 @@
         <v>14.4542</v>
       </c>
       <c r="L704" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.2">
@@ -59983,7 +60451,7 @@
         <v>7.7416999999999998</v>
       </c>
       <c r="L705" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.2">
@@ -60018,7 +60486,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L706" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.2">
@@ -60053,7 +60521,7 @@
         <v>26</v>
       </c>
       <c r="L707" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.2">
@@ -60088,7 +60556,7 @@
         <v>13.5</v>
       </c>
       <c r="L708" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.2">
@@ -60126,7 +60594,7 @@
         <v>986</v>
       </c>
       <c r="L709" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.2">
@@ -60161,7 +60629,7 @@
         <v>151.55000000000001</v>
       </c>
       <c r="L710" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.2">
@@ -60180,6 +60648,9 @@
       <c r="E711" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F711" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G711" s="1">
         <v>1</v>
       </c>
@@ -60193,7 +60664,7 @@
         <v>15.245799999999999</v>
       </c>
       <c r="L711" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.2">
@@ -60231,7 +60702,7 @@
         <v>998</v>
       </c>
       <c r="L712" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.2">
@@ -60250,6 +60721,9 @@
       <c r="E713" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F713" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G713" s="1">
         <v>0</v>
       </c>
@@ -60266,7 +60740,7 @@
         <v>500</v>
       </c>
       <c r="L713" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.2">
@@ -60304,7 +60778,7 @@
         <v>943</v>
       </c>
       <c r="L714" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.2">
@@ -60339,7 +60813,7 @@
         <v>9.4832999999999998</v>
       </c>
       <c r="L715" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.2">
@@ -60374,7 +60848,7 @@
         <v>13</v>
       </c>
       <c r="L716" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.2">
@@ -60412,7 +60886,7 @@
         <v>130</v>
       </c>
       <c r="L717" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.2">
@@ -60450,7 +60924,7 @@
         <v>1005</v>
       </c>
       <c r="L718" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.2">
@@ -60488,7 +60962,7 @@
         <v>195</v>
       </c>
       <c r="L719" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.2">
@@ -60507,6 +60981,9 @@
       <c r="E720" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F720" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G720" s="1">
         <v>0</v>
       </c>
@@ -60520,7 +60997,7 @@
         <v>15.5</v>
       </c>
       <c r="L720" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.2">
@@ -60555,7 +61032,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L721" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.2">
@@ -60590,7 +61067,7 @@
         <v>33</v>
       </c>
       <c r="L722" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.2">
@@ -60625,7 +61102,7 @@
         <v>7.0541999999999998</v>
       </c>
       <c r="L723" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.2">
@@ -60660,7 +61137,7 @@
         <v>13</v>
       </c>
       <c r="L724" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.2">
@@ -60695,7 +61172,7 @@
         <v>13</v>
       </c>
       <c r="L725" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.2">
@@ -60733,7 +61210,7 @@
         <v>1014</v>
       </c>
       <c r="L726" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.2">
@@ -60768,7 +61245,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L727" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.2">
@@ -60803,7 +61280,7 @@
         <v>21</v>
       </c>
       <c r="L728" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.2">
@@ -60822,6 +61299,9 @@
       <c r="E729" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F729" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G729" s="1">
         <v>0</v>
       </c>
@@ -60835,7 +61315,7 @@
         <v>7.7374999999999998</v>
       </c>
       <c r="L729" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.2">
@@ -60870,7 +61350,7 @@
         <v>26</v>
       </c>
       <c r="L730" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.2">
@@ -60905,7 +61385,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L731" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.2">
@@ -60943,7 +61423,7 @@
         <v>969</v>
       </c>
       <c r="L732" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.2">
@@ -60978,7 +61458,7 @@
         <v>18.787500000000001</v>
       </c>
       <c r="L733" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.2">
@@ -60997,6 +61477,9 @@
       <c r="E734" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F734" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G734" s="1">
         <v>0</v>
       </c>
@@ -61010,7 +61493,7 @@
         <v>0</v>
       </c>
       <c r="L734" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.2">
@@ -61045,7 +61528,7 @@
         <v>13</v>
       </c>
       <c r="L735" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.2">
@@ -61080,7 +61563,7 @@
         <v>13</v>
       </c>
       <c r="L736" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.2">
@@ -61115,7 +61598,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L737" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.2">
@@ -61150,7 +61633,7 @@
         <v>34.375</v>
       </c>
       <c r="L738" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.2">
@@ -61188,7 +61671,7 @@
         <v>1029</v>
       </c>
       <c r="L739" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.2">
@@ -61207,6 +61690,9 @@
       <c r="E740" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F740" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G740" s="1">
         <v>0</v>
       </c>
@@ -61220,7 +61706,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L740" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.2">
@@ -61239,6 +61725,9 @@
       <c r="E741" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F741" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G741" s="1">
         <v>0</v>
       </c>
@@ -61252,7 +61741,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L741" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.2">
@@ -61271,6 +61760,9 @@
       <c r="E742" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F742" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G742" s="1">
         <v>0</v>
       </c>
@@ -61287,7 +61779,7 @@
         <v>1033</v>
       </c>
       <c r="L742" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.2">
@@ -61325,7 +61817,7 @@
         <v>1035</v>
       </c>
       <c r="L743" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.2">
@@ -61363,7 +61855,7 @@
         <v>473</v>
       </c>
       <c r="L744" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.2">
@@ -61398,7 +61890,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="L745" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.2">
@@ -61433,7 +61925,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L746" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.2">
@@ -61471,7 +61963,7 @@
         <v>778</v>
       </c>
       <c r="L747" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.2">
@@ -61506,7 +61998,7 @@
         <v>20.25</v>
       </c>
       <c r="L748" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.2">
@@ -61541,7 +62033,7 @@
         <v>13</v>
       </c>
       <c r="L749" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.2">
@@ -61579,7 +62071,7 @@
         <v>1044</v>
       </c>
       <c r="L750" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.2">
@@ -61614,7 +62106,7 @@
         <v>7.75</v>
       </c>
       <c r="L751" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.2">
@@ -61649,7 +62141,7 @@
         <v>23</v>
       </c>
       <c r="L752" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.2">
@@ -61687,7 +62179,7 @@
         <v>1048</v>
       </c>
       <c r="L753" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.2">
@@ -61722,7 +62214,7 @@
         <v>9.5</v>
       </c>
       <c r="L754" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.2">
@@ -61757,7 +62249,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L755" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.2">
@@ -61792,7 +62284,7 @@
         <v>65</v>
       </c>
       <c r="L756" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.2">
@@ -61827,7 +62319,7 @@
         <v>14.5</v>
       </c>
       <c r="L757" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.2">
@@ -61862,7 +62354,7 @@
         <v>7.7957999999999998</v>
       </c>
       <c r="L758" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.2">
@@ -61897,7 +62389,7 @@
         <v>11.5</v>
       </c>
       <c r="L759" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.2">
@@ -61932,7 +62424,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L760" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.2">
@@ -61970,7 +62462,7 @@
         <v>390</v>
       </c>
       <c r="L761" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.2">
@@ -61989,6 +62481,9 @@
       <c r="E762" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F762" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G762" s="1">
         <v>0</v>
       </c>
@@ -62002,7 +62497,7 @@
         <v>14.5</v>
       </c>
       <c r="L762" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.2">
@@ -62037,7 +62532,7 @@
         <v>7.125</v>
       </c>
       <c r="L763" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.2">
@@ -62072,7 +62567,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L764" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.2">
@@ -62110,7 +62605,7 @@
         <v>578</v>
       </c>
       <c r="L765" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.2">
@@ -62145,7 +62640,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L766" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.2">
@@ -62183,7 +62678,7 @@
         <v>1064</v>
       </c>
       <c r="L767" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.2">
@@ -62202,6 +62697,9 @@
       <c r="E768" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F768" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G768" s="1">
         <v>0</v>
       </c>
@@ -62215,7 +62713,7 @@
         <v>39.6</v>
       </c>
       <c r="L768" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.2">
@@ -62250,7 +62748,7 @@
         <v>7.75</v>
       </c>
       <c r="L769" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.2">
@@ -62269,6 +62767,9 @@
       <c r="E770" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F770" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G770" s="1">
         <v>1</v>
       </c>
@@ -62282,7 +62783,7 @@
         <v>24.15</v>
       </c>
       <c r="L770" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.2">
@@ -62317,7 +62818,7 @@
         <v>8.3625000000000007</v>
       </c>
       <c r="L771" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.2">
@@ -62352,7 +62853,7 @@
         <v>9.5</v>
       </c>
       <c r="L772" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.2">
@@ -62387,7 +62888,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L773" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.2">
@@ -62425,7 +62926,7 @@
         <v>1073</v>
       </c>
       <c r="L774" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.2">
@@ -62444,6 +62945,9 @@
       <c r="E775" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F775" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G775" s="1">
         <v>0</v>
       </c>
@@ -62457,7 +62961,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L775" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.2">
@@ -62492,7 +62996,7 @@
         <v>23</v>
       </c>
       <c r="L776" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.2">
@@ -62527,7 +63031,7 @@
         <v>7.75</v>
       </c>
       <c r="L777" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.2">
@@ -62546,6 +63050,9 @@
       <c r="E778" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F778" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G778" s="1">
         <v>0</v>
       </c>
@@ -62562,7 +63069,7 @@
         <v>1078</v>
       </c>
       <c r="L778" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.2">
@@ -62597,7 +63104,7 @@
         <v>12.475</v>
       </c>
       <c r="L779" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.2">
@@ -62616,6 +63123,9 @@
       <c r="E780" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F780" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G780" s="1">
         <v>0</v>
       </c>
@@ -62629,7 +63139,7 @@
         <v>7.7374999999999998</v>
       </c>
       <c r="L780" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.2">
@@ -62667,7 +63177,7 @@
         <v>1082</v>
       </c>
       <c r="L781" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.2">
@@ -62702,7 +63212,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L782" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.2">
@@ -62740,7 +63250,7 @@
         <v>971</v>
       </c>
       <c r="L783" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.2">
@@ -62778,7 +63288,7 @@
         <v>1086</v>
       </c>
       <c r="L784" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.2">
@@ -62797,6 +63307,9 @@
       <c r="E785" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F785" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G785" s="1">
         <v>1</v>
       </c>
@@ -62810,7 +63323,7 @@
         <v>23.45</v>
       </c>
       <c r="L785" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.2">
@@ -62845,7 +63358,7 @@
         <v>7.05</v>
       </c>
       <c r="L786" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.2">
@@ -62880,7 +63393,7 @@
         <v>7.25</v>
       </c>
       <c r="L787" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.2">
@@ -62915,7 +63428,7 @@
         <v>7.4958</v>
       </c>
       <c r="L788" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.2">
@@ -62950,7 +63463,7 @@
         <v>29.125</v>
       </c>
       <c r="L789" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.2">
@@ -62985,7 +63498,7 @@
         <v>20.574999999999999</v>
       </c>
       <c r="L790" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.2">
@@ -63023,7 +63536,7 @@
         <v>1096</v>
       </c>
       <c r="L791" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.2">
@@ -63042,6 +63555,9 @@
       <c r="E792" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F792" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G792" s="1">
         <v>0</v>
       </c>
@@ -63055,7 +63571,7 @@
         <v>7.75</v>
       </c>
       <c r="L792" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.2">
@@ -63090,7 +63606,7 @@
         <v>26</v>
       </c>
       <c r="L793" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.2">
@@ -63109,6 +63625,9 @@
       <c r="E794" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F794" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G794" s="1">
         <v>8</v>
       </c>
@@ -63122,7 +63641,7 @@
         <v>69.55</v>
       </c>
       <c r="L794" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.2">
@@ -63141,6 +63660,9 @@
       <c r="E795" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F795" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G795" s="1">
         <v>0</v>
       </c>
@@ -63154,7 +63676,7 @@
         <v>30.695799999999998</v>
       </c>
       <c r="L795" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.2">
@@ -63189,7 +63711,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L796" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="797" spans="1:12" x14ac:dyDescent="0.2">
@@ -63224,7 +63746,7 @@
         <v>13</v>
       </c>
       <c r="L797" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.2">
@@ -63262,7 +63784,7 @@
         <v>1105</v>
       </c>
       <c r="L798" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="799" spans="1:12" x14ac:dyDescent="0.2">
@@ -63297,7 +63819,7 @@
         <v>8.6832999999999991</v>
       </c>
       <c r="L799" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="800" spans="1:12" x14ac:dyDescent="0.2">
@@ -63332,7 +63854,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L800" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="801" spans="1:12" x14ac:dyDescent="0.2">
@@ -63367,7 +63889,7 @@
         <v>24.15</v>
       </c>
       <c r="L801" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.2">
@@ -63402,7 +63924,7 @@
         <v>13</v>
       </c>
       <c r="L802" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="803" spans="1:12" x14ac:dyDescent="0.2">
@@ -63437,7 +63959,7 @@
         <v>26.25</v>
       </c>
       <c r="L803" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="804" spans="1:12" x14ac:dyDescent="0.2">
@@ -63475,7 +63997,7 @@
         <v>578</v>
       </c>
       <c r="L804" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.2">
@@ -63510,7 +64032,7 @@
         <v>8.5167000000000002</v>
       </c>
       <c r="L805" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.2">
@@ -63545,7 +64067,7 @@
         <v>6.9749999999999996</v>
       </c>
       <c r="L806" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.2">
@@ -63580,7 +64102,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L807" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.2">
@@ -63618,7 +64140,7 @@
         <v>1116</v>
       </c>
       <c r="L808" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="809" spans="1:12" x14ac:dyDescent="0.2">
@@ -63653,7 +64175,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L809" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.2">
@@ -63688,7 +64210,7 @@
         <v>13</v>
       </c>
       <c r="L810" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.2">
@@ -63726,7 +64248,7 @@
         <v>1014</v>
       </c>
       <c r="L811" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="812" spans="1:12" x14ac:dyDescent="0.2">
@@ -63761,7 +64283,7 @@
         <v>7.8875000000000002</v>
       </c>
       <c r="L812" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.2">
@@ -63796,7 +64318,7 @@
         <v>24.15</v>
       </c>
       <c r="L813" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="814" spans="1:12" x14ac:dyDescent="0.2">
@@ -63831,7 +64353,7 @@
         <v>10.5</v>
       </c>
       <c r="L814" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.2">
@@ -63866,7 +64388,7 @@
         <v>31.274999999999999</v>
       </c>
       <c r="L815" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.2">
@@ -63901,7 +64423,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L816" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="817" spans="1:12" x14ac:dyDescent="0.2">
@@ -63920,6 +64442,9 @@
       <c r="E817" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F817" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G817" s="1">
         <v>0</v>
       </c>
@@ -63936,7 +64461,7 @@
         <v>1126</v>
       </c>
       <c r="L817" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.2">
@@ -63971,7 +64496,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L818" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="819" spans="1:12" x14ac:dyDescent="0.2">
@@ -64006,7 +64531,7 @@
         <v>37.004199999999997</v>
       </c>
       <c r="L819" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="820" spans="1:12" x14ac:dyDescent="0.2">
@@ -64041,7 +64566,7 @@
         <v>6.45</v>
       </c>
       <c r="L820" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.2">
@@ -64076,7 +64601,7 @@
         <v>27.9</v>
       </c>
       <c r="L821" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.2">
@@ -64114,7 +64639,7 @@
         <v>1135</v>
       </c>
       <c r="L822" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="823" spans="1:12" x14ac:dyDescent="0.2">
@@ -64149,7 +64674,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L823" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="824" spans="1:12" x14ac:dyDescent="0.2">
@@ -64184,7 +64709,7 @@
         <v>0</v>
       </c>
       <c r="L824" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.2">
@@ -64222,7 +64747,7 @@
         <v>1048</v>
       </c>
       <c r="L825" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.2">
@@ -64257,7 +64782,7 @@
         <v>39.6875</v>
       </c>
       <c r="L826" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="827" spans="1:12" x14ac:dyDescent="0.2">
@@ -64276,6 +64801,9 @@
       <c r="E827" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F827" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G827" s="1">
         <v>0</v>
       </c>
@@ -64289,7 +64817,7 @@
         <v>6.95</v>
       </c>
       <c r="L827" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="828" spans="1:12" x14ac:dyDescent="0.2">
@@ -64308,6 +64836,9 @@
       <c r="E828" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F828" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G828" s="1">
         <v>0</v>
       </c>
@@ -64321,7 +64852,7 @@
         <v>56.495800000000003</v>
       </c>
       <c r="L828" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="829" spans="1:12" x14ac:dyDescent="0.2">
@@ -64356,7 +64887,7 @@
         <v>37.004199999999997</v>
       </c>
       <c r="L829" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="830" spans="1:12" x14ac:dyDescent="0.2">
@@ -64375,6 +64906,9 @@
       <c r="E830" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F830" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G830" s="1">
         <v>0</v>
       </c>
@@ -64388,7 +64922,7 @@
         <v>7.75</v>
       </c>
       <c r="L830" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="831" spans="1:12" x14ac:dyDescent="0.2">
@@ -64458,7 +64992,7 @@
         <v>14.4542</v>
       </c>
       <c r="L832" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="833" spans="1:12" x14ac:dyDescent="0.2">
@@ -64493,7 +65027,7 @@
         <v>18.75</v>
       </c>
       <c r="L833" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="834" spans="1:12" x14ac:dyDescent="0.2">
@@ -64512,6 +65046,9 @@
       <c r="E834" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F834" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G834" s="1">
         <v>0</v>
       </c>
@@ -64525,7 +65062,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L834" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="835" spans="1:12" x14ac:dyDescent="0.2">
@@ -64560,7 +65097,7 @@
         <v>7.8541999999999996</v>
       </c>
       <c r="L835" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="836" spans="1:12" x14ac:dyDescent="0.2">
@@ -64595,7 +65132,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="L836" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="837" spans="1:12" x14ac:dyDescent="0.2">
@@ -64633,7 +65170,7 @@
         <v>1152</v>
       </c>
       <c r="L837" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="838" spans="1:12" x14ac:dyDescent="0.2">
@@ -64668,7 +65205,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L838" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="839" spans="1:12" x14ac:dyDescent="0.2">
@@ -64687,6 +65224,9 @@
       <c r="E839" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F839" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G839" s="1">
         <v>0</v>
       </c>
@@ -64700,7 +65240,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="L839" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="840" spans="1:12" x14ac:dyDescent="0.2">
@@ -64735,7 +65275,7 @@
         <v>56.495800000000003</v>
       </c>
       <c r="L840" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="841" spans="1:12" x14ac:dyDescent="0.2">
@@ -64754,6 +65294,9 @@
       <c r="E841" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F841" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G841" s="1">
         <v>0</v>
       </c>
@@ -64770,7 +65313,7 @@
         <v>1157</v>
       </c>
       <c r="L841" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="842" spans="1:12" x14ac:dyDescent="0.2">
@@ -64805,7 +65348,7 @@
         <v>7.9249999999999998</v>
       </c>
       <c r="L842" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="843" spans="1:12" x14ac:dyDescent="0.2">
@@ -64840,7 +65383,7 @@
         <v>10.5</v>
       </c>
       <c r="L843" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="844" spans="1:12" x14ac:dyDescent="0.2">
@@ -64875,7 +65418,7 @@
         <v>31</v>
       </c>
       <c r="L844" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="845" spans="1:12" x14ac:dyDescent="0.2">
@@ -64910,7 +65453,7 @@
         <v>6.4375</v>
       </c>
       <c r="L845" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="846" spans="1:12" x14ac:dyDescent="0.2">
@@ -64945,7 +65488,7 @@
         <v>8.6624999999999996</v>
       </c>
       <c r="L846" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="847" spans="1:12" x14ac:dyDescent="0.2">
@@ -64980,7 +65523,7 @@
         <v>7.55</v>
       </c>
       <c r="L847" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="848" spans="1:12" x14ac:dyDescent="0.2">
@@ -64999,6 +65542,9 @@
       <c r="E848" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F848" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G848" s="1">
         <v>8</v>
       </c>
@@ -65012,7 +65558,7 @@
         <v>69.55</v>
       </c>
       <c r="L848" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="849" spans="1:12" x14ac:dyDescent="0.2">
@@ -65047,7 +65593,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L849" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="850" spans="1:12" x14ac:dyDescent="0.2">
@@ -65082,7 +65628,7 @@
         <v>33</v>
       </c>
       <c r="L850" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="851" spans="1:12" x14ac:dyDescent="0.2">
@@ -65101,6 +65647,9 @@
       <c r="E851" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F851" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G851" s="1">
         <v>1</v>
       </c>
@@ -65117,7 +65666,7 @@
         <v>655</v>
       </c>
       <c r="L851" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="852" spans="1:12" x14ac:dyDescent="0.2">
@@ -65152,7 +65701,7 @@
         <v>31.274999999999999</v>
       </c>
       <c r="L852" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="853" spans="1:12" x14ac:dyDescent="0.2">
@@ -65187,7 +65736,7 @@
         <v>7.7750000000000004</v>
       </c>
       <c r="L853" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="854" spans="1:12" x14ac:dyDescent="0.2">
@@ -65222,7 +65771,7 @@
         <v>15.245799999999999</v>
       </c>
       <c r="L854" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="855" spans="1:12" x14ac:dyDescent="0.2">
@@ -65260,7 +65809,7 @@
         <v>1175</v>
       </c>
       <c r="L855" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="856" spans="1:12" x14ac:dyDescent="0.2">
@@ -65295,7 +65844,7 @@
         <v>26</v>
       </c>
       <c r="L856" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="857" spans="1:12" x14ac:dyDescent="0.2">
@@ -65330,7 +65879,7 @@
         <v>9.35</v>
       </c>
       <c r="L857" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="858" spans="1:12" x14ac:dyDescent="0.2">
@@ -65365,7 +65914,7 @@
         <v>164.86670000000001</v>
       </c>
       <c r="L858" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="859" spans="1:12" x14ac:dyDescent="0.2">
@@ -65403,7 +65952,7 @@
         <v>1180</v>
       </c>
       <c r="L859" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="860" spans="1:12" x14ac:dyDescent="0.2">
@@ -65438,7 +65987,7 @@
         <v>19.258299999999998</v>
       </c>
       <c r="L860" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="861" spans="1:12" x14ac:dyDescent="0.2">
@@ -65457,6 +66006,9 @@
       <c r="E861" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F861" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G861" s="1">
         <v>0</v>
       </c>
@@ -65470,7 +66022,7 @@
         <v>7.2291999999999996</v>
       </c>
       <c r="L861" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="862" spans="1:12" x14ac:dyDescent="0.2">
@@ -65505,7 +66057,7 @@
         <v>14.1083</v>
       </c>
       <c r="L862" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="863" spans="1:12" x14ac:dyDescent="0.2">
@@ -65540,7 +66092,7 @@
         <v>11.5</v>
       </c>
       <c r="L863" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="864" spans="1:12" x14ac:dyDescent="0.2">
@@ -65578,7 +66130,7 @@
         <v>1105</v>
       </c>
       <c r="L864" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="865" spans="1:12" x14ac:dyDescent="0.2">
@@ -65597,6 +66149,9 @@
       <c r="E865" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F865" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G865" s="1">
         <v>8</v>
       </c>
@@ -65610,7 +66165,7 @@
         <v>69.55</v>
       </c>
       <c r="L865" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="866" spans="1:12" x14ac:dyDescent="0.2">
@@ -65645,7 +66200,7 @@
         <v>13</v>
       </c>
       <c r="L866" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="867" spans="1:12" x14ac:dyDescent="0.2">
@@ -65680,7 +66235,7 @@
         <v>13</v>
       </c>
       <c r="L867" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="868" spans="1:12" x14ac:dyDescent="0.2">
@@ -65715,7 +66270,7 @@
         <v>13.8583</v>
       </c>
       <c r="L868" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="869" spans="1:12" x14ac:dyDescent="0.2">
@@ -65753,7 +66308,7 @@
         <v>1193</v>
       </c>
       <c r="L869" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="870" spans="1:12" x14ac:dyDescent="0.2">
@@ -65772,6 +66327,9 @@
       <c r="E870" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F870" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G870" s="1">
         <v>0</v>
       </c>
@@ -65785,7 +66343,7 @@
         <v>9.5</v>
       </c>
       <c r="L870" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="871" spans="1:12" x14ac:dyDescent="0.2">
@@ -65820,7 +66378,7 @@
         <v>11.1333</v>
       </c>
       <c r="L871" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="872" spans="1:12" x14ac:dyDescent="0.2">
@@ -65855,7 +66413,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L872" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="873" spans="1:12" x14ac:dyDescent="0.2">
@@ -65893,7 +66451,7 @@
         <v>377</v>
       </c>
       <c r="L873" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="874" spans="1:12" x14ac:dyDescent="0.2">
@@ -65931,7 +66489,7 @@
         <v>957</v>
       </c>
       <c r="L874" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="875" spans="1:12" x14ac:dyDescent="0.2">
@@ -65966,7 +66524,7 @@
         <v>9</v>
       </c>
       <c r="L875" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="876" spans="1:12" x14ac:dyDescent="0.2">
@@ -66001,7 +66559,7 @@
         <v>24</v>
       </c>
       <c r="L876" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="877" spans="1:12" x14ac:dyDescent="0.2">
@@ -66036,7 +66594,7 @@
         <v>7.2249999999999996</v>
       </c>
       <c r="L877" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="878" spans="1:12" x14ac:dyDescent="0.2">
@@ -66071,7 +66629,7 @@
         <v>9.8458000000000006</v>
       </c>
       <c r="L878" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="879" spans="1:12" x14ac:dyDescent="0.2">
@@ -66106,7 +66664,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L879" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="880" spans="1:12" x14ac:dyDescent="0.2">
@@ -66125,6 +66683,9 @@
       <c r="E880" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F880" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G880" s="1">
         <v>0</v>
       </c>
@@ -66138,7 +66699,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L880" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="881" spans="1:12" x14ac:dyDescent="0.2">
@@ -66176,7 +66737,7 @@
         <v>1206</v>
       </c>
       <c r="L881" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="882" spans="1:12" x14ac:dyDescent="0.2">
@@ -66211,7 +66772,7 @@
         <v>26</v>
       </c>
       <c r="L882" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="883" spans="1:12" x14ac:dyDescent="0.2">
@@ -66246,7 +66807,7 @@
         <v>7.8958000000000004</v>
       </c>
       <c r="L883" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="884" spans="1:12" x14ac:dyDescent="0.2">
@@ -66281,7 +66842,7 @@
         <v>10.5167</v>
       </c>
       <c r="L884" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="885" spans="1:12" x14ac:dyDescent="0.2">
@@ -66316,7 +66877,7 @@
         <v>10.5</v>
       </c>
       <c r="L885" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="886" spans="1:12" x14ac:dyDescent="0.2">
@@ -66351,7 +66912,7 @@
         <v>7.05</v>
       </c>
       <c r="L886" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="887" spans="1:12" x14ac:dyDescent="0.2">
@@ -66386,7 +66947,7 @@
         <v>29.125</v>
       </c>
       <c r="L887" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="888" spans="1:12" x14ac:dyDescent="0.2">
@@ -66421,7 +66982,7 @@
         <v>13</v>
       </c>
       <c r="L888" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="889" spans="1:12" x14ac:dyDescent="0.2">
@@ -66459,7 +67020,7 @@
         <v>1217</v>
       </c>
       <c r="L889" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="890" spans="1:12" x14ac:dyDescent="0.2">
@@ -66478,6 +67039,9 @@
       <c r="E890" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="F890" s="1">
+        <v>29.7</v>
+      </c>
       <c r="G890" s="1">
         <v>1</v>
       </c>
@@ -66491,7 +67055,7 @@
         <v>23.45</v>
       </c>
       <c r="L890" s="1" t="s">
-        <v>15</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="891" spans="1:12" x14ac:dyDescent="0.2">
@@ -66529,7 +67093,7 @@
         <v>1220</v>
       </c>
       <c r="L891" s="1" t="s">
-        <v>20</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="892" spans="1:12" x14ac:dyDescent="0.2">
@@ -66564,7 +67128,7 @@
         <v>7.75</v>
       </c>
       <c r="L892" s="1" t="s">
-        <v>27</v>
+        <v>1226</v>
       </c>
     </row>
   </sheetData>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B648167-CCB7-47FF-99CA-E83ADBDECFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562209B-9326-42F0-AEEA-39B9966466FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35298,7 +35298,7 @@
   <dimension ref="A1:K892"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562209B-9326-42F0-AEEA-39B9966466FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2B7974-B420-4A2E-A849-1BF21707AD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2B7974-B420-4A2E-A849-1BF21707AD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF8180-16C0-496E-A918-3814949E0A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35295,10 +35295,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9C3FA-328B-4B7E-8BC0-43999772E7D0}">
-  <dimension ref="A1:K892"/>
+  <dimension ref="A1:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A877" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E902" sqref="E902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35380,9 +35380,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -67411,6 +67409,24 @@
       </c>
       <c r="K892" s="1" t="s">
         <v>1226</v>
+      </c>
+    </row>
+    <row r="893" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B893">
+        <f>COUNT(B2:B892)</f>
+        <v>891</v>
+      </c>
+    </row>
+    <row r="894" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B894">
+        <f xml:space="preserve"> COUNTIF(B2:B892, "=1")</f>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="895" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B895">
+        <f xml:space="preserve"> (B894/B893) * 100</f>
+        <v>38.383838383838381</v>
       </c>
     </row>
   </sheetData>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DF8180-16C0-496E-A918-3814949E0A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F850C8-6B1D-413C-BA23-04AA9D926B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35297,8 +35297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9C3FA-328B-4B7E-8BC0-43999772E7D0}">
   <dimension ref="A1:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A877" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E902" sqref="E902"/>
+    <sheetView tabSelected="1" topLeftCell="A861" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F894" sqref="F894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -67416,6 +67416,10 @@
         <f>COUNT(B2:B892)</f>
         <v>891</v>
       </c>
+      <c r="F893">
+        <f>AVERAGE(F2:F892)</f>
+        <v>29.579315375982041</v>
+      </c>
     </row>
     <row r="894" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B894">

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F850C8-6B1D-413C-BA23-04AA9D926B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0486944-6709-48D4-8702-D16DCB185439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3761,9 +3761,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3984,8 +3985,8 @@
   </sheetPr>
   <dimension ref="A1:L892"/>
   <sheetViews>
-    <sheetView topLeftCell="C860" workbookViewId="0">
-      <selection activeCell="M869" sqref="M869"/>
+    <sheetView topLeftCell="A872" workbookViewId="0">
+      <selection activeCell="H894" sqref="H894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35297,8 +35298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9C3FA-328B-4B7E-8BC0-43999772E7D0}">
   <dimension ref="A1:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A861" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F894" sqref="F894"/>
+    <sheetView tabSelected="1" topLeftCell="A879" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G898" sqref="G898"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -67416,6 +67417,10 @@
         <f>COUNT(B2:B892)</f>
         <v>891</v>
       </c>
+      <c r="E893" s="2">
+        <f>COUNTIF(E2:E892, "=male") / COUNTIF(E2:E892, "=female")</f>
+        <v>1.8375796178343948</v>
+      </c>
       <c r="F893">
         <f>AVERAGE(F2:F892)</f>
         <v>29.579315375982041</v>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0486944-6709-48D4-8702-D16DCB185439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10438A93-C168-43BB-8FBD-6D26452E8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35298,8 +35298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9C3FA-328B-4B7E-8BC0-43999772E7D0}">
   <dimension ref="A1:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A879" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G898" sqref="G898"/>
+    <sheetView tabSelected="1" topLeftCell="A887" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C896" sqref="C896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -67417,6 +67417,10 @@
         <f>COUNT(B2:B892)</f>
         <v>891</v>
       </c>
+      <c r="C893">
+        <f>COUNTIFS(C2:C892, "=3", B2:B892, "=1")</f>
+        <v>119</v>
+      </c>
       <c r="E893" s="2">
         <f>COUNTIF(E2:E892, "=male") / COUNTIF(E2:E892, "=female")</f>
         <v>1.8375796178343948</v>
@@ -67431,12 +67435,20 @@
         <f xml:space="preserve"> COUNTIF(B2:B892, "=1")</f>
         <v>342</v>
       </c>
+      <c r="C894">
+        <f>COUNTIFS(C2:C892, "=2", B2:B892, "=1")</f>
+        <v>87</v>
+      </c>
     </row>
     <row r="895" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B895">
         <f xml:space="preserve"> (B894/B893) * 100</f>
         <v>38.383838383838381</v>
       </c>
+      <c r="C895">
+        <f>COUNTIFS(C2:C892, "=1", B2:B892, "=1")</f>
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10438A93-C168-43BB-8FBD-6D26452E8512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACEA554-4A67-4766-99CC-F7A4FEB44A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35298,8 +35298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9C3FA-328B-4B7E-8BC0-43999772E7D0}">
   <dimension ref="A1:K895"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A887" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C896" sqref="C896"/>
+    <sheetView tabSelected="1" topLeftCell="A876" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H894" sqref="H894"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACEA554-4A67-4766-99CC-F7A4FEB44A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A91388-42A4-4A32-AB6B-512F3EEFBE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5808" uniqueCount="1238">
   <si>
     <t>PassengerId</t>
   </si>
@@ -3721,6 +3721,33 @@
   </si>
   <si>
     <t>Ticket price</t>
+  </si>
+  <si>
+    <t>Cherbourg1</t>
+  </si>
+  <si>
+    <t>Cherbourg2</t>
+  </si>
+  <si>
+    <t>Cherbourg3</t>
+  </si>
+  <si>
+    <t>Southampton1</t>
+  </si>
+  <si>
+    <t>Southampton2</t>
+  </si>
+  <si>
+    <t>Southampton3</t>
+  </si>
+  <si>
+    <t>Queenstown1</t>
+  </si>
+  <si>
+    <t>Queenstown2</t>
+  </si>
+  <si>
+    <t>Queenstown3</t>
   </si>
 </sst>
 </file>
@@ -35296,10 +35323,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA9C3FA-328B-4B7E-8BC0-43999772E7D0}">
-  <dimension ref="A1:K895"/>
+  <dimension ref="A1:L901"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A876" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H894" sqref="H894"/>
+    <sheetView tabSelected="1" topLeftCell="D804" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L902" sqref="L902"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -35307,6 +35334,7 @@
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -66980,7 +67008,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="881" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -67016,7 +67044,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="882" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -67052,7 +67080,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="883" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -67088,7 +67116,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="884" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A884" s="1">
         <v>883</v>
       </c>
@@ -67124,7 +67152,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="885" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A885" s="1">
         <v>884</v>
       </c>
@@ -67160,7 +67188,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="886" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A886" s="1">
         <v>885</v>
       </c>
@@ -67196,7 +67224,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="887" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A887" s="1">
         <v>886</v>
       </c>
@@ -67232,7 +67260,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="888" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A888" s="1">
         <v>887</v>
       </c>
@@ -67268,7 +67296,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="889" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A889" s="1">
         <v>888</v>
       </c>
@@ -67304,7 +67332,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="890" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A890" s="1">
         <v>889</v>
       </c>
@@ -67340,7 +67368,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="891" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A891" s="1">
         <v>890</v>
       </c>
@@ -67376,7 +67404,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="892" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A892" s="1">
         <v>891</v>
       </c>
@@ -67412,7 +67440,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="893" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B893">
         <f>COUNT(B2:B892)</f>
         <v>891</v>
@@ -67429,8 +67457,15 @@
         <f>AVERAGE(F2:F892)</f>
         <v>29.579315375982041</v>
       </c>
-    </row>
-    <row r="894" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K893">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "=Cherbourg", C2:C892, "=1")</f>
+        <v>8860</v>
+      </c>
+      <c r="L893" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="894" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B894">
         <f xml:space="preserve"> COUNTIF(B2:B892, "=1")</f>
         <v>342</v>
@@ -67439,8 +67474,15 @@
         <f>COUNTIFS(C2:C892, "=2", B2:B892, "=1")</f>
         <v>87</v>
       </c>
-    </row>
-    <row r="895" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K894">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "=Cherbourg", C2:C892, "=2")</f>
+        <v>425</v>
+      </c>
+      <c r="L894" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="895" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B895">
         <f xml:space="preserve"> (B894/B893) * 100</f>
         <v>38.383838383838381</v>
@@ -67448,6 +67490,67 @@
       <c r="C895">
         <f>COUNTIFS(C2:C892, "=1", B2:B892, "=1")</f>
         <v>136</v>
+      </c>
+      <c r="K895">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "=Cherbourg", C2:C892, "=3")</f>
+        <v>715</v>
+      </c>
+      <c r="L895" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="896" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K896">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "=Southampton", C2:C892, "=1")</f>
+        <v>8889</v>
+      </c>
+      <c r="L896" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="897" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K897">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "=Southampton", C2:C892, "=2")</f>
+        <v>3303</v>
+      </c>
+      <c r="L897" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="898" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K898">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "=Southampton", C2:C892, "=3")</f>
+        <v>4993</v>
+      </c>
+      <c r="L898" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="899" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K899">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "Queenstown", C2:C892, "=1")</f>
+        <v>180</v>
+      </c>
+      <c r="L899" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="900" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K900">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "Queenstown", C2:C892, "=2")</f>
+        <v>36</v>
+      </c>
+      <c r="L900" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="901" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K901">
+        <f xml:space="preserve"> SUMIFS(J2:J892, J2:J892, "&gt;0", K2:K892, "Queenstown", C2:C892, "=3")</f>
+        <v>760</v>
+      </c>
+      <c r="L901" t="s">
+        <v>1237</v>
       </c>
     </row>
   </sheetData>

--- a/Titanic.xlsx
+++ b/Titanic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshr\Desktop\Data analytics\Excel\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8366F1-9436-4845-B3D3-3A5E2719A658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA26BC0-4F0C-4A18-940A-CEC97761CB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Titanic.csv" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,27 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Working sheet'!$A$1:$L$890</definedName>
+    <definedName name="Slicer_Fare">#N/A</definedName>
+    <definedName name="Slicer_P_class">#N/A</definedName>
+    <definedName name="Slicer_Sex">#N/A</definedName>
+    <definedName name="Slicer_Sib___Sp">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -5593,10 +5608,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>312</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5920,20 +5935,7 @@
           <a:sp3d/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6437,20 +6439,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="lt1"/>
-            </a:solidFill>
-            <a:ln w="15875">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -6990,8 +6979,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -7664,10 +7652,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>312</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>577</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12496,6 +12484,318 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4330</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Sib - Sp">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AE87E4A-1D12-4C94-596D-87F6E04E9E30}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sib - Sp"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4330" y="1424929"/>
+              <a:ext cx="3816876" cy="3176614"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12326</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Sex">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F089C-7E55-7121-8C87-74CF670305DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Sex"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12326" y="4625788"/>
+              <a:ext cx="1892674" cy="2389094"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>187139</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104213</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="8" name="P-class">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64A06220-64DD-7FE3-8929-0C4EFD493C8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="P-class"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1905000" y="4625787"/>
+              <a:ext cx="1912845" cy="2381250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="9" name="Fare">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548CDB87-BBFF-A1D8-1E55-014D230BAD68}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Fare"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="7005917"/>
+              <a:ext cx="3810000" cy="3146611"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-IN" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12640,7 +12940,255 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6"/>
     </cacheField>
     <cacheField name="Fare" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="512.32920000000001"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="512.32920000000001" count="247">
+        <n v="7.25"/>
+        <n v="71.283299999999997"/>
+        <n v="7.9249999999999998"/>
+        <n v="53.1"/>
+        <n v="8.0500000000000007"/>
+        <n v="8.4582999999999995"/>
+        <n v="51.862499999999997"/>
+        <n v="21.074999999999999"/>
+        <n v="11.1333"/>
+        <n v="30.070799999999998"/>
+        <n v="16.7"/>
+        <n v="26.55"/>
+        <n v="31.274999999999999"/>
+        <n v="7.8541999999999996"/>
+        <n v="16"/>
+        <n v="29.125"/>
+        <n v="13"/>
+        <n v="18"/>
+        <n v="7.2249999999999996"/>
+        <n v="26"/>
+        <n v="8.0291999999999994"/>
+        <n v="35.5"/>
+        <n v="31.387499999999999"/>
+        <n v="263"/>
+        <n v="7.8792"/>
+        <n v="7.8958000000000004"/>
+        <n v="27.720800000000001"/>
+        <n v="146.52080000000001"/>
+        <n v="7.75"/>
+        <n v="10.5"/>
+        <n v="82.1708"/>
+        <n v="52"/>
+        <n v="7.2291999999999996"/>
+        <n v="11.2417"/>
+        <n v="9.4749999999999996"/>
+        <n v="21"/>
+        <n v="41.5792"/>
+        <n v="15.5"/>
+        <n v="21.679200000000002"/>
+        <n v="17.8"/>
+        <n v="39.6875"/>
+        <n v="7.8"/>
+        <n v="76.729200000000006"/>
+        <n v="61.979199999999999"/>
+        <n v="27.75"/>
+        <n v="46.9"/>
+        <n v="83.474999999999994"/>
+        <n v="27.9"/>
+        <n v="15.245799999999999"/>
+        <n v="8.1583000000000006"/>
+        <n v="8.6624999999999996"/>
+        <n v="73.5"/>
+        <n v="14.4542"/>
+        <n v="56.495800000000003"/>
+        <n v="7.65"/>
+        <n v="29"/>
+        <n v="12.475"/>
+        <n v="9"/>
+        <n v="9.5"/>
+        <n v="7.7874999999999996"/>
+        <n v="47.1"/>
+        <n v="15.85"/>
+        <n v="34.375"/>
+        <n v="61.174999999999997"/>
+        <n v="20.574999999999999"/>
+        <n v="34.654200000000003"/>
+        <n v="63.3583"/>
+        <n v="23"/>
+        <n v="77.287499999999994"/>
+        <n v="8.6541999999999994"/>
+        <n v="7.7750000000000004"/>
+        <n v="24.15"/>
+        <n v="9.8249999999999993"/>
+        <n v="14.458299999999999"/>
+        <n v="247.52080000000001"/>
+        <n v="7.1417000000000002"/>
+        <n v="22.3583"/>
+        <n v="6.9749999999999996"/>
+        <n v="7.05"/>
+        <n v="14.5"/>
+        <n v="15.0458"/>
+        <n v="26.283300000000001"/>
+        <n v="9.2166999999999994"/>
+        <n v="79.2"/>
+        <n v="6.75"/>
+        <n v="11.5"/>
+        <n v="36.75"/>
+        <n v="7.7957999999999998"/>
+        <n v="12.525"/>
+        <n v="66.599999999999994"/>
+        <n v="7.3125"/>
+        <n v="61.379199999999997"/>
+        <n v="7.7332999999999998"/>
+        <n v="69.55"/>
+        <n v="16.100000000000001"/>
+        <n v="15.75"/>
+        <n v="20.524999999999999"/>
+        <n v="55"/>
+        <n v="25.925000000000001"/>
+        <n v="33.5"/>
+        <n v="30.695799999999998"/>
+        <n v="25.466699999999999"/>
+        <n v="28.712499999999999"/>
+        <n v="0"/>
+        <n v="15.05"/>
+        <n v="39"/>
+        <n v="22.024999999999999"/>
+        <n v="50"/>
+        <n v="8.4041999999999994"/>
+        <n v="6.4958"/>
+        <n v="10.4625"/>
+        <n v="18.787500000000001"/>
+        <n v="31"/>
+        <n v="113.27500000000001"/>
+        <n v="27"/>
+        <n v="76.291700000000006"/>
+        <n v="90"/>
+        <n v="9.35"/>
+        <n v="13.5"/>
+        <n v="7.55"/>
+        <n v="26.25"/>
+        <n v="12.275"/>
+        <n v="7.125"/>
+        <n v="52.554200000000002"/>
+        <n v="20.212499999999999"/>
+        <n v="86.5"/>
+        <n v="512.32920000000001"/>
+        <n v="79.650000000000006"/>
+        <n v="153.46250000000001"/>
+        <n v="135.63329999999999"/>
+        <n v="19.5"/>
+        <n v="29.7"/>
+        <n v="77.958299999999994"/>
+        <n v="20.25"/>
+        <n v="78.849999999999994"/>
+        <n v="91.0792"/>
+        <n v="12.875"/>
+        <n v="8.85"/>
+        <n v="151.55000000000001"/>
+        <n v="30.5"/>
+        <n v="23.25"/>
+        <n v="12.35"/>
+        <n v="110.88330000000001"/>
+        <n v="108.9"/>
+        <n v="24"/>
+        <n v="56.929200000000002"/>
+        <n v="83.158299999999997"/>
+        <n v="262.375"/>
+        <n v="14"/>
+        <n v="164.86670000000001"/>
+        <n v="134.5"/>
+        <n v="6.2374999999999998"/>
+        <n v="57.979199999999999"/>
+        <n v="28.5"/>
+        <n v="133.65"/>
+        <n v="15.9"/>
+        <n v="9.2249999999999996"/>
+        <n v="35"/>
+        <n v="75.25"/>
+        <n v="69.3"/>
+        <n v="55.441699999999997"/>
+        <n v="211.5"/>
+        <n v="4.0125000000000002"/>
+        <n v="227.52500000000001"/>
+        <n v="15.7417"/>
+        <n v="7.7291999999999996"/>
+        <n v="12"/>
+        <n v="120"/>
+        <n v="12.65"/>
+        <n v="18.75"/>
+        <n v="6.8582999999999998"/>
+        <n v="32.5"/>
+        <n v="7.875"/>
+        <n v="14.4"/>
+        <n v="55.9"/>
+        <n v="8.1125000000000007"/>
+        <n v="81.8583"/>
+        <n v="19.258299999999998"/>
+        <n v="19.966699999999999"/>
+        <n v="89.104200000000006"/>
+        <n v="38.5"/>
+        <n v="7.7249999999999996"/>
+        <n v="13.791700000000001"/>
+        <n v="9.8375000000000004"/>
+        <n v="7.0457999999999998"/>
+        <n v="7.5208000000000004"/>
+        <n v="12.2875"/>
+        <n v="9.5875000000000004"/>
+        <n v="49.504199999999997"/>
+        <n v="78.2667"/>
+        <n v="15.1"/>
+        <n v="7.6292"/>
+        <n v="22.524999999999999"/>
+        <n v="26.287500000000001"/>
+        <n v="59.4"/>
+        <n v="7.4958"/>
+        <n v="34.020800000000001"/>
+        <n v="93.5"/>
+        <n v="221.7792"/>
+        <n v="106.425"/>
+        <n v="49.5"/>
+        <n v="71"/>
+        <n v="13.862500000000001"/>
+        <n v="7.8292000000000002"/>
+        <n v="39.6"/>
+        <n v="17.399999999999999"/>
+        <n v="51.479199999999999"/>
+        <n v="26.387499999999999"/>
+        <n v="30"/>
+        <n v="40.125"/>
+        <n v="8.7125000000000004"/>
+        <n v="15"/>
+        <n v="33"/>
+        <n v="42.4"/>
+        <n v="15.55"/>
+        <n v="65"/>
+        <n v="32.320799999999998"/>
+        <n v="7.0541999999999998"/>
+        <n v="8.4332999999999991"/>
+        <n v="25.587499999999999"/>
+        <n v="9.8416999999999994"/>
+        <n v="8.1374999999999993"/>
+        <n v="10.1708"/>
+        <n v="211.33750000000001"/>
+        <n v="57"/>
+        <n v="13.416700000000001"/>
+        <n v="7.7416999999999998"/>
+        <n v="9.4832999999999998"/>
+        <n v="7.7374999999999998"/>
+        <n v="8.3625000000000007"/>
+        <n v="23.45"/>
+        <n v="25.929200000000002"/>
+        <n v="8.6832999999999991"/>
+        <n v="8.5167000000000002"/>
+        <n v="7.8875000000000002"/>
+        <n v="37.004199999999997"/>
+        <n v="6.45"/>
+        <n v="6.95"/>
+        <n v="8.3000000000000007"/>
+        <n v="6.4375"/>
+        <n v="39.4"/>
+        <n v="14.1083"/>
+        <n v="13.8583"/>
+        <n v="50.495800000000003"/>
+        <n v="5"/>
+        <n v="9.8458000000000006"/>
+        <n v="10.5167"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Ticket price" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="512"/>
@@ -12674,7 +13222,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -12688,7 +13236,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="71.283299999999997"/>
+    <x v="1"/>
     <n v="71"/>
     <x v="1"/>
   </r>
@@ -12702,7 +13250,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -12716,7 +13264,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="53.1"/>
+    <x v="3"/>
     <n v="53"/>
     <x v="0"/>
   </r>
@@ -12730,7 +13278,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -12744,7 +13292,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.4582999999999995"/>
+    <x v="5"/>
     <n v="8"/>
     <x v="2"/>
   </r>
@@ -12758,7 +13306,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="51.862499999999997"/>
+    <x v="6"/>
     <n v="51"/>
     <x v="0"/>
   </r>
@@ -12772,7 +13320,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="1"/>
-    <n v="21.074999999999999"/>
+    <x v="7"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -12786,7 +13334,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="11.1333"/>
+    <x v="8"/>
     <n v="11"/>
     <x v="0"/>
   </r>
@@ -12800,7 +13348,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="30.070799999999998"/>
+    <x v="9"/>
     <n v="30"/>
     <x v="1"/>
   </r>
@@ -12814,7 +13362,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="16.7"/>
+    <x v="10"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -12828,7 +13376,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -12842,7 +13390,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -12856,7 +13404,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="5"/>
-    <n v="31.274999999999999"/>
+    <x v="12"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -12870,7 +13418,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -12884,7 +13432,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="16"/>
+    <x v="14"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -12898,7 +13446,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="29.125"/>
+    <x v="15"/>
     <n v="29"/>
     <x v="2"/>
   </r>
@@ -12912,7 +13460,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -12926,7 +13474,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="18"/>
+    <x v="17"/>
     <n v="18"/>
     <x v="0"/>
   </r>
@@ -12940,7 +13488,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -12954,7 +13502,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -12968,7 +13516,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -12982,7 +13530,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0291999999999994"/>
+    <x v="20"/>
     <n v="8"/>
     <x v="2"/>
   </r>
@@ -12996,7 +13544,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="35.5"/>
+    <x v="21"/>
     <n v="35"/>
     <x v="0"/>
   </r>
@@ -13010,7 +13558,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="1"/>
-    <n v="21.074999999999999"/>
+    <x v="7"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -13024,7 +13572,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="5"/>
-    <n v="31.387499999999999"/>
+    <x v="22"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -13038,7 +13586,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -13052,7 +13600,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="263"/>
+    <x v="23"/>
     <n v="263"/>
     <x v="0"/>
   </r>
@@ -13066,7 +13614,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8792"/>
+    <x v="24"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -13080,7 +13628,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -13094,7 +13642,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="27.720800000000001"/>
+    <x v="26"/>
     <n v="27"/>
     <x v="1"/>
   </r>
@@ -13108,7 +13656,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="146.52080000000001"/>
+    <x v="27"/>
     <n v="146"/>
     <x v="1"/>
   </r>
@@ -13122,7 +13670,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -13136,7 +13684,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -13150,7 +13698,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="82.1708"/>
+    <x v="30"/>
     <n v="82"/>
     <x v="1"/>
   </r>
@@ -13164,7 +13712,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="52"/>
+    <x v="31"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -13178,7 +13726,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -13192,7 +13740,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13206,7 +13754,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="18"/>
+    <x v="17"/>
     <n v="18"/>
     <x v="0"/>
   </r>
@@ -13220,7 +13768,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="11.2417"/>
+    <x v="33"/>
     <n v="11"/>
     <x v="1"/>
   </r>
@@ -13234,7 +13782,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="9.4749999999999996"/>
+    <x v="34"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -13248,7 +13796,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="21"/>
+    <x v="35"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -13262,7 +13810,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -13276,7 +13824,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="41.5792"/>
+    <x v="36"/>
     <n v="41"/>
     <x v="1"/>
   </r>
@@ -13290,7 +13838,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8792"/>
+    <x v="24"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -13304,7 +13852,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13318,7 +13866,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -13332,7 +13880,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -13346,7 +13894,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="21.679200000000002"/>
+    <x v="38"/>
     <n v="21"/>
     <x v="1"/>
   </r>
@@ -13360,7 +13908,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="17.8"/>
+    <x v="39"/>
     <n v="17"/>
     <x v="0"/>
   </r>
@@ -13374,7 +13922,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="39.6875"/>
+    <x v="40"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -13388,7 +13936,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8"/>
+    <x v="41"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -13402,7 +13950,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="76.729200000000006"/>
+    <x v="42"/>
     <n v="76"/>
     <x v="1"/>
   </r>
@@ -13416,7 +13964,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -13430,7 +13978,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="61.979199999999999"/>
+    <x v="43"/>
     <n v="61"/>
     <x v="1"/>
   </r>
@@ -13444,7 +13992,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="35.5"/>
+    <x v="21"/>
     <n v="35"/>
     <x v="0"/>
   </r>
@@ -13458,7 +14006,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -13472,7 +14020,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -13486,7 +14034,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="27.75"/>
+    <x v="44"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -13500,7 +14048,7 @@
     <x v="2"/>
     <x v="5"/>
     <n v="2"/>
-    <n v="46.9"/>
+    <x v="45"/>
     <n v="46"/>
     <x v="0"/>
   </r>
@@ -13514,7 +14062,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -13528,7 +14076,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="83.474999999999994"/>
+    <x v="46"/>
     <n v="83"/>
     <x v="0"/>
   </r>
@@ -13542,7 +14090,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="27.9"/>
+    <x v="47"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -13556,7 +14104,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="27.720800000000001"/>
+    <x v="26"/>
     <n v="27"/>
     <x v="1"/>
   </r>
@@ -13570,7 +14118,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.245799999999999"/>
+    <x v="48"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -13584,7 +14132,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -13598,7 +14146,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.1583000000000006"/>
+    <x v="49"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13612,7 +14160,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -13626,7 +14174,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13640,7 +14188,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -13654,7 +14202,7 @@
     <x v="2"/>
     <x v="5"/>
     <n v="2"/>
-    <n v="46.9"/>
+    <x v="45"/>
     <n v="46"/>
     <x v="0"/>
   </r>
@@ -13668,7 +14216,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="73.5"/>
+    <x v="51"/>
     <n v="73"/>
     <x v="0"/>
   </r>
@@ -13682,7 +14230,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="14.4542"/>
+    <x v="52"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -13696,7 +14244,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.495800000000003"/>
+    <x v="53"/>
     <n v="56"/>
     <x v="0"/>
   </r>
@@ -13710,7 +14258,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.65"/>
+    <x v="54"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -13724,7 +14272,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -13738,7 +14286,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13752,7 +14300,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="29"/>
+    <x v="55"/>
     <n v="29"/>
     <x v="0"/>
   </r>
@@ -13766,7 +14314,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.475"/>
+    <x v="56"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -13780,7 +14328,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="57"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -13794,7 +14342,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -13808,7 +14356,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7874999999999996"/>
+    <x v="59"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -13822,7 +14370,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="47.1"/>
+    <x v="60"/>
     <n v="47"/>
     <x v="0"/>
   </r>
@@ -13836,7 +14384,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -13850,7 +14398,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="15.85"/>
+    <x v="61"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -13864,7 +14412,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="3"/>
-    <n v="34.375"/>
+    <x v="62"/>
     <n v="34"/>
     <x v="0"/>
   </r>
@@ -13878,7 +14426,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13892,7 +14440,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="263"/>
+    <x v="23"/>
     <n v="263"/>
     <x v="0"/>
   </r>
@@ -13906,7 +14454,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13920,7 +14468,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -13934,7 +14482,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -13948,7 +14496,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="61.174999999999997"/>
+    <x v="63"/>
     <n v="61"/>
     <x v="0"/>
   </r>
@@ -13962,7 +14510,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="20.574999999999999"/>
+    <x v="64"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -13976,7 +14524,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -13990,7 +14538,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14004,7 +14552,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="34.654200000000003"/>
+    <x v="65"/>
     <n v="34"/>
     <x v="1"/>
   </r>
@@ -14018,7 +14566,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="63.3583"/>
+    <x v="66"/>
     <n v="63"/>
     <x v="1"/>
   </r>
@@ -14032,7 +14580,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="23"/>
+    <x v="67"/>
     <n v="23"/>
     <x v="0"/>
   </r>
@@ -14046,7 +14594,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -14060,7 +14608,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14074,7 +14622,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14088,7 +14636,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="77.287499999999994"/>
+    <x v="68"/>
     <n v="77"/>
     <x v="0"/>
   </r>
@@ -14102,7 +14650,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6541999999999994"/>
+    <x v="69"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14116,7 +14664,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14130,7 +14678,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14144,7 +14692,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.65"/>
+    <x v="54"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14158,7 +14706,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14172,7 +14720,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14186,7 +14734,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="2"/>
   </r>
@@ -14200,7 +14748,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="52"/>
+    <x v="31"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -14214,7 +14762,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="14.4542"/>
+    <x v="52"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -14228,7 +14776,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14242,7 +14790,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="9.8249999999999993"/>
+    <x v="72"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -14256,7 +14804,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="14.458299999999999"/>
+    <x v="73"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -14270,7 +14818,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14284,7 +14832,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -14298,7 +14846,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="21"/>
+    <x v="35"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -14312,7 +14860,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="247.52080000000001"/>
+    <x v="74"/>
     <n v="247"/>
     <x v="1"/>
   </r>
@@ -14326,7 +14874,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.274999999999999"/>
+    <x v="12"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -14340,7 +14888,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="73.5"/>
+    <x v="51"/>
     <n v="73"/>
     <x v="0"/>
   </r>
@@ -14354,7 +14902,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14368,7 +14916,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="30.070799999999998"/>
+    <x v="9"/>
     <n v="30"/>
     <x v="1"/>
   </r>
@@ -14382,7 +14930,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -14396,7 +14944,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="77.287499999999994"/>
+    <x v="68"/>
     <n v="77"/>
     <x v="0"/>
   </r>
@@ -14410,7 +14958,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="11.2417"/>
+    <x v="33"/>
     <n v="11"/>
     <x v="1"/>
   </r>
@@ -14424,7 +14972,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -14438,7 +14986,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.1417000000000002"/>
+    <x v="75"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14452,7 +15000,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="22.3583"/>
+    <x v="76"/>
     <n v="22"/>
     <x v="1"/>
   </r>
@@ -14466,7 +15014,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.9749999999999996"/>
+    <x v="77"/>
     <n v="6"/>
     <x v="0"/>
   </r>
@@ -14480,7 +15028,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -14494,7 +15042,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.05"/>
+    <x v="78"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14508,7 +15056,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="14.5"/>
+    <x v="79"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -14522,7 +15070,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -14536,7 +15084,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -14550,7 +15098,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="15.0458"/>
+    <x v="80"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -14564,7 +15112,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="26.283300000000001"/>
+    <x v="81"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -14578,7 +15126,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="53.1"/>
+    <x v="3"/>
     <n v="53"/>
     <x v="0"/>
   </r>
@@ -14592,7 +15140,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.2166999999999994"/>
+    <x v="82"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -14606,7 +15154,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="79.2"/>
+    <x v="83"/>
     <n v="79"/>
     <x v="1"/>
   </r>
@@ -14620,7 +15168,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="15.245799999999999"/>
+    <x v="48"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -14634,7 +15182,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14648,7 +15196,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.85"/>
+    <x v="61"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -14662,7 +15210,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.75"/>
+    <x v="84"/>
     <n v="6"/>
     <x v="2"/>
   </r>
@@ -14676,7 +15224,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="11.5"/>
+    <x v="85"/>
     <n v="11"/>
     <x v="0"/>
   </r>
@@ -14690,7 +15238,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="36.75"/>
+    <x v="86"/>
     <n v="36"/>
     <x v="0"/>
   </r>
@@ -14704,7 +15252,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7957999999999998"/>
+    <x v="87"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14718,7 +15266,7 @@
     <x v="2"/>
     <x v="4"/>
     <n v="2"/>
-    <n v="34.375"/>
+    <x v="62"/>
     <n v="34"/>
     <x v="0"/>
   </r>
@@ -14732,7 +15280,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -14746,7 +15294,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -14760,7 +15308,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.525"/>
+    <x v="88"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -14774,7 +15322,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="66.599999999999994"/>
+    <x v="89"/>
     <n v="66"/>
     <x v="0"/>
   </r>
@@ -14788,7 +15336,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14802,7 +15350,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="14.5"/>
+    <x v="79"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -14816,7 +15364,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.3125"/>
+    <x v="90"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14830,7 +15378,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="61.379199999999997"/>
+    <x v="91"/>
     <n v="61"/>
     <x v="1"/>
   </r>
@@ -14844,7 +15392,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7332999999999998"/>
+    <x v="92"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -14858,7 +15406,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14872,7 +15420,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14886,7 +15434,7 @@
     <x v="0"/>
     <x v="6"/>
     <n v="2"/>
-    <n v="69.55"/>
+    <x v="93"/>
     <n v="69"/>
     <x v="0"/>
   </r>
@@ -14900,7 +15448,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -14914,7 +15462,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="15.75"/>
+    <x v="95"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -14928,7 +15476,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -14942,7 +15490,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -14956,7 +15504,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="39.6875"/>
+    <x v="40"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -14970,7 +15518,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="20.524999999999999"/>
+    <x v="96"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -14984,7 +15532,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="55"/>
+    <x v="97"/>
     <n v="55"/>
     <x v="0"/>
   </r>
@@ -14998,7 +15546,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="4"/>
-    <n v="27.9"/>
+    <x v="47"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -15012,7 +15560,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="25.925000000000001"/>
+    <x v="98"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -15026,7 +15574,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.495800000000003"/>
+    <x v="53"/>
     <n v="56"/>
     <x v="0"/>
   </r>
@@ -15040,7 +15588,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="33.5"/>
+    <x v="99"/>
     <n v="33"/>
     <x v="0"/>
   </r>
@@ -15054,7 +15602,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="29.125"/>
+    <x v="15"/>
     <n v="29"/>
     <x v="2"/>
   </r>
@@ -15068,7 +15616,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="11.1333"/>
+    <x v="8"/>
     <n v="11"/>
     <x v="0"/>
   </r>
@@ -15082,7 +15630,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15096,7 +15644,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30.695799999999998"/>
+    <x v="100"/>
     <n v="30"/>
     <x v="1"/>
   </r>
@@ -15110,7 +15658,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15124,7 +15672,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="1"/>
-    <n v="25.466699999999999"/>
+    <x v="101"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -15138,7 +15686,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="28.712499999999999"/>
+    <x v="102"/>
     <n v="28"/>
     <x v="1"/>
   </r>
@@ -15152,7 +15700,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15166,7 +15714,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -15180,7 +15728,7 @@
     <x v="0"/>
     <x v="6"/>
     <n v="2"/>
-    <n v="69.55"/>
+    <x v="93"/>
     <n v="69"/>
     <x v="0"/>
   </r>
@@ -15194,7 +15742,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="15.05"/>
+    <x v="104"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -15208,7 +15756,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.387499999999999"/>
+    <x v="22"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -15222,7 +15770,7 @@
     <x v="2"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="39"/>
+    <x v="105"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -15236,7 +15784,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="22.024999999999999"/>
+    <x v="106"/>
     <n v="22"/>
     <x v="0"/>
   </r>
@@ -15250,7 +15798,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="50"/>
+    <x v="107"/>
     <n v="50"/>
     <x v="0"/>
   </r>
@@ -15264,7 +15812,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -15278,7 +15826,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -15292,7 +15840,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -15306,7 +15854,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15320,7 +15868,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15334,7 +15882,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15348,7 +15896,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15362,7 +15910,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -15376,7 +15924,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="27.720800000000001"/>
+    <x v="26"/>
     <n v="27"/>
     <x v="1"/>
   </r>
@@ -15390,7 +15938,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="146.52080000000001"/>
+    <x v="27"/>
     <n v="146"/>
     <x v="1"/>
   </r>
@@ -15404,7 +15952,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -15418,7 +15966,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="8.4041999999999994"/>
+    <x v="108"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -15432,7 +15980,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -15446,7 +15994,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15460,7 +16008,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -15474,7 +16022,7 @@
     <x v="0"/>
     <x v="6"/>
     <n v="2"/>
-    <n v="69.55"/>
+    <x v="93"/>
     <n v="69"/>
     <x v="0"/>
   </r>
@@ -15488,7 +16036,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.4958"/>
+    <x v="109"/>
     <n v="6"/>
     <x v="0"/>
   </r>
@@ -15502,7 +16050,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -15516,7 +16064,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -15530,7 +16078,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="10.4625"/>
+    <x v="110"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -15544,7 +16092,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.85"/>
+    <x v="61"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -15558,7 +16106,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="18.787500000000001"/>
+    <x v="111"/>
     <n v="18"/>
     <x v="1"/>
   </r>
@@ -15572,7 +16120,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -15586,7 +16134,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="31"/>
+    <x v="112"/>
     <n v="31"/>
     <x v="1"/>
   </r>
@@ -15600,7 +16148,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.05"/>
+    <x v="78"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15614,7 +16162,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="21"/>
+    <x v="35"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -15628,7 +16176,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15642,7 +16190,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15656,7 +16204,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -15670,7 +16218,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="113.27500000000001"/>
+    <x v="113"/>
     <n v="113"/>
     <x v="1"/>
   </r>
@@ -15684,7 +16232,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15698,7 +16246,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="27"/>
+    <x v="114"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -15712,7 +16260,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="76.291700000000006"/>
+    <x v="115"/>
     <n v="76"/>
     <x v="1"/>
   </r>
@@ -15726,7 +16274,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -15740,7 +16288,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -15754,7 +16302,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15768,7 +16316,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -15782,7 +16330,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15796,7 +16344,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="90"/>
+    <x v="116"/>
     <n v="90"/>
     <x v="0"/>
   </r>
@@ -15810,7 +16358,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.35"/>
+    <x v="117"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -15824,7 +16372,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -15838,7 +16386,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15852,7 +16400,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15866,7 +16414,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="1"/>
-    <n v="25.466699999999999"/>
+    <x v="101"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -15880,7 +16428,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="83.474999999999994"/>
+    <x v="46"/>
     <n v="83"/>
     <x v="0"/>
   </r>
@@ -15894,7 +16442,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15908,7 +16456,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13.5"/>
+    <x v="118"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -15922,7 +16470,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.387499999999999"/>
+    <x v="22"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -15936,7 +16484,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -15950,7 +16498,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.55"/>
+    <x v="119"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -15964,7 +16512,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -15978,7 +16526,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="26.25"/>
+    <x v="120"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -15992,7 +16540,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -16006,7 +16554,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.275"/>
+    <x v="121"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -16020,7 +16568,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="14.4542"/>
+    <x v="52"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -16034,7 +16582,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -16048,7 +16596,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -16062,7 +16610,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.125"/>
+    <x v="122"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16076,7 +16624,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -16090,7 +16638,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="90"/>
+    <x v="116"/>
     <n v="90"/>
     <x v="2"/>
   </r>
@@ -16104,7 +16652,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16118,7 +16666,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="14.5"/>
+    <x v="79"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -16132,7 +16680,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="52.554200000000002"/>
+    <x v="123"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -16146,7 +16694,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -16160,7 +16708,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16174,7 +16722,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="10.4625"/>
+    <x v="110"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -16188,7 +16736,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -16202,7 +16750,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -16216,7 +16764,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="20.212499999999999"/>
+    <x v="124"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -16230,7 +16778,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="15.245799999999999"/>
+    <x v="48"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -16244,7 +16792,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="79.2"/>
+    <x v="83"/>
     <n v="79"/>
     <x v="1"/>
   </r>
@@ -16258,7 +16806,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="86.5"/>
+    <x v="125"/>
     <n v="86"/>
     <x v="0"/>
   </r>
@@ -16272,7 +16820,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="512.32920000000001"/>
+    <x v="126"/>
     <n v="512"/>
     <x v="1"/>
   </r>
@@ -16286,7 +16834,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -16300,7 +16848,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -16314,7 +16862,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.387499999999999"/>
+    <x v="22"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -16328,7 +16876,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="79.650000000000006"/>
+    <x v="127"/>
     <n v="79"/>
     <x v="0"/>
   </r>
@@ -16342,7 +16890,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -16356,7 +16904,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -16370,7 +16918,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -16384,7 +16932,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="39.6875"/>
+    <x v="40"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -16398,7 +16946,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16412,7 +16960,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="153.46250000000001"/>
+    <x v="128"/>
     <n v="153"/>
     <x v="0"/>
   </r>
@@ -16426,7 +16974,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="135.63329999999999"/>
+    <x v="129"/>
     <n v="135"/>
     <x v="0"/>
   </r>
@@ -16440,7 +16988,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="31"/>
+    <x v="112"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -16454,7 +17002,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -16468,7 +17016,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="19.5"/>
+    <x v="130"/>
     <n v="19"/>
     <x v="0"/>
   </r>
@@ -16482,7 +17030,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="29.7"/>
+    <x v="131"/>
     <n v="29"/>
     <x v="1"/>
   </r>
@@ -16496,7 +17044,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -16510,7 +17058,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="77.958299999999994"/>
+    <x v="132"/>
     <n v="77"/>
     <x v="0"/>
   </r>
@@ -16524,7 +17072,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16538,7 +17086,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -16552,7 +17100,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="29.125"/>
+    <x v="15"/>
     <n v="29"/>
     <x v="2"/>
   </r>
@@ -16566,7 +17114,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="20.25"/>
+    <x v="133"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -16580,7 +17128,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -16594,7 +17142,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16608,7 +17156,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -16622,7 +17170,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -16636,7 +17184,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -16650,7 +17198,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="1"/>
   </r>
@@ -16664,7 +17212,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -16678,7 +17226,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16692,7 +17240,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -16706,7 +17254,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -16720,7 +17268,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="78.849999999999994"/>
+    <x v="134"/>
     <n v="78"/>
     <x v="0"/>
   </r>
@@ -16734,7 +17282,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="91.0792"/>
+    <x v="135"/>
     <n v="91"/>
     <x v="1"/>
   </r>
@@ -16748,7 +17296,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.875"/>
+    <x v="136"/>
     <n v="12"/>
     <x v="1"/>
   </r>
@@ -16762,7 +17310,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.85"/>
+    <x v="137"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -16776,7 +17324,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -16790,7 +17338,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="27.720800000000001"/>
+    <x v="26"/>
     <n v="27"/>
     <x v="1"/>
   </r>
@@ -16804,7 +17352,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -16818,7 +17366,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="151.55000000000001"/>
+    <x v="138"/>
     <n v="151"/>
     <x v="0"/>
   </r>
@@ -16832,7 +17380,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30.5"/>
+    <x v="139"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -16846,7 +17394,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="247.52080000000001"/>
+    <x v="74"/>
     <n v="247"/>
     <x v="1"/>
   </r>
@@ -16860,7 +17408,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -16874,7 +17422,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="23.25"/>
+    <x v="140"/>
     <n v="23"/>
     <x v="2"/>
   </r>
@@ -16888,7 +17436,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -16902,7 +17450,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.35"/>
+    <x v="141"/>
     <n v="12"/>
     <x v="2"/>
   </r>
@@ -16916,7 +17464,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -16930,7 +17478,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="151.55000000000001"/>
+    <x v="138"/>
     <n v="151"/>
     <x v="0"/>
   </r>
@@ -16944,7 +17492,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="110.88330000000001"/>
+    <x v="142"/>
     <n v="110"/>
     <x v="1"/>
   </r>
@@ -16958,7 +17506,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="108.9"/>
+    <x v="143"/>
     <n v="108"/>
     <x v="1"/>
   </r>
@@ -16972,7 +17520,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="24"/>
+    <x v="144"/>
     <n v="24"/>
     <x v="1"/>
   </r>
@@ -16986,7 +17534,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.929200000000002"/>
+    <x v="145"/>
     <n v="56"/>
     <x v="1"/>
   </r>
@@ -17000,7 +17548,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="83.158299999999997"/>
+    <x v="146"/>
     <n v="83"/>
     <x v="1"/>
   </r>
@@ -17014,7 +17562,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="2"/>
-    <n v="262.375"/>
+    <x v="147"/>
     <n v="262"/>
     <x v="1"/>
   </r>
@@ -17028,7 +17576,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -17042,7 +17590,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17056,7 +17604,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26.25"/>
+    <x v="120"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -17070,7 +17618,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17084,7 +17632,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -17098,7 +17646,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="14"/>
+    <x v="148"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -17112,7 +17660,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="164.86670000000001"/>
+    <x v="149"/>
     <n v="164"/>
     <x v="0"/>
   </r>
@@ -17126,7 +17674,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="134.5"/>
+    <x v="150"/>
     <n v="134"/>
     <x v="1"/>
   </r>
@@ -17140,7 +17688,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17154,7 +17702,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17168,7 +17716,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.35"/>
+    <x v="141"/>
     <n v="12"/>
     <x v="2"/>
   </r>
@@ -17182,7 +17730,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="29"/>
+    <x v="55"/>
     <n v="29"/>
     <x v="0"/>
   </r>
@@ -17196,7 +17744,7 @@
     <x v="0"/>
     <x v="6"/>
     <n v="2"/>
-    <n v="69.55"/>
+    <x v="93"/>
     <n v="69"/>
     <x v="0"/>
   </r>
@@ -17210,7 +17758,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="135.63329999999999"/>
+    <x v="129"/>
     <n v="135"/>
     <x v="1"/>
   </r>
@@ -17224,7 +17772,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.2374999999999998"/>
+    <x v="151"/>
     <n v="6"/>
     <x v="0"/>
   </r>
@@ -17238,7 +17786,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -17252,7 +17800,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="20.524999999999999"/>
+    <x v="96"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -17266,7 +17814,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="57.979199999999999"/>
+    <x v="152"/>
     <n v="57"/>
     <x v="1"/>
   </r>
@@ -17280,7 +17828,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="23.25"/>
+    <x v="140"/>
     <n v="23"/>
     <x v="2"/>
   </r>
@@ -17294,7 +17842,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="28.5"/>
+    <x v="153"/>
     <n v="28"/>
     <x v="0"/>
   </r>
@@ -17308,7 +17856,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="153.46250000000001"/>
+    <x v="128"/>
     <n v="153"/>
     <x v="0"/>
   </r>
@@ -17322,7 +17870,7 @@
     <x v="2"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="18"/>
+    <x v="17"/>
     <n v="18"/>
     <x v="0"/>
   </r>
@@ -17336,7 +17884,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="133.65"/>
+    <x v="154"/>
     <n v="133"/>
     <x v="0"/>
   </r>
@@ -17350,7 +17898,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17364,7 +17912,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="66.599999999999994"/>
+    <x v="89"/>
     <n v="66"/>
     <x v="0"/>
   </r>
@@ -17378,7 +17926,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="134.5"/>
+    <x v="150"/>
     <n v="134"/>
     <x v="1"/>
   </r>
@@ -17392,7 +17940,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -17406,7 +17954,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="35.5"/>
+    <x v="21"/>
     <n v="35"/>
     <x v="0"/>
   </r>
@@ -17420,7 +17968,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -17434,7 +17982,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="263"/>
+    <x v="23"/>
     <n v="263"/>
     <x v="0"/>
   </r>
@@ -17448,7 +17996,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -17462,7 +18010,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -17476,7 +18024,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -17490,7 +18038,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -17504,7 +18052,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -17518,7 +18066,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -17532,7 +18080,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.9"/>
+    <x v="155"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -17546,7 +18094,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -17560,7 +18108,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.2249999999999996"/>
+    <x v="156"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -17574,7 +18122,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="35"/>
+    <x v="157"/>
     <n v="35"/>
     <x v="0"/>
   </r>
@@ -17588,7 +18136,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -17602,7 +18150,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="17.8"/>
+    <x v="39"/>
     <n v="17"/>
     <x v="0"/>
   </r>
@@ -17616,7 +18164,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -17630,7 +18178,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -17644,7 +18192,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="55"/>
+    <x v="97"/>
     <n v="55"/>
     <x v="0"/>
   </r>
@@ -17658,7 +18206,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -17672,7 +18220,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8792"/>
+    <x v="24"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -17686,7 +18234,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8792"/>
+    <x v="24"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -17700,7 +18248,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="4"/>
-    <n v="27.9"/>
+    <x v="47"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -17714,7 +18262,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="27.720800000000001"/>
+    <x v="26"/>
     <n v="27"/>
     <x v="1"/>
   </r>
@@ -17728,7 +18276,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="14.4542"/>
+    <x v="52"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -17742,7 +18290,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.05"/>
+    <x v="78"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17756,7 +18304,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -17770,7 +18318,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17784,7 +18332,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="75.25"/>
+    <x v="158"/>
     <n v="75"/>
     <x v="1"/>
   </r>
@@ -17798,7 +18346,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -17812,7 +18360,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -17826,7 +18374,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="69.3"/>
+    <x v="159"/>
     <n v="69"/>
     <x v="1"/>
   </r>
@@ -17840,7 +18388,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="55.441699999999997"/>
+    <x v="160"/>
     <n v="55"/>
     <x v="1"/>
   </r>
@@ -17854,7 +18402,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="6.4958"/>
+    <x v="109"/>
     <n v="6"/>
     <x v="0"/>
   </r>
@@ -17868,7 +18416,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -17882,7 +18430,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="135.63329999999999"/>
+    <x v="129"/>
     <n v="135"/>
     <x v="1"/>
   </r>
@@ -17896,7 +18444,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="1"/>
-    <n v="21.074999999999999"/>
+    <x v="7"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -17910,7 +18458,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="82.1708"/>
+    <x v="30"/>
     <n v="82"/>
     <x v="1"/>
   </r>
@@ -17924,7 +18472,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17938,7 +18486,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="211.5"/>
+    <x v="161"/>
     <n v="211"/>
     <x v="1"/>
   </r>
@@ -17952,7 +18500,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="4.0125000000000002"/>
+    <x v="162"/>
     <n v="4"/>
     <x v="1"/>
   </r>
@@ -17966,7 +18514,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -17980,7 +18528,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="227.52500000000001"/>
+    <x v="163"/>
     <n v="227"/>
     <x v="1"/>
   </r>
@@ -17994,7 +18542,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="15.7417"/>
+    <x v="164"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -18008,7 +18556,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18022,7 +18570,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="52"/>
+    <x v="31"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -18036,7 +18584,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18050,7 +18598,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="73.5"/>
+    <x v="51"/>
     <n v="73"/>
     <x v="0"/>
   </r>
@@ -18064,7 +18612,7 @@
     <x v="2"/>
     <x v="5"/>
     <n v="2"/>
-    <n v="46.9"/>
+    <x v="45"/>
     <n v="46"/>
     <x v="0"/>
   </r>
@@ -18078,7 +18626,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -18092,7 +18640,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7291999999999996"/>
+    <x v="165"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -18106,7 +18654,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12"/>
+    <x v="166"/>
     <n v="12"/>
     <x v="1"/>
   </r>
@@ -18120,7 +18668,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="120"/>
+    <x v="167"/>
     <n v="120"/>
     <x v="0"/>
   </r>
@@ -18134,7 +18682,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7957999999999998"/>
+    <x v="87"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18148,7 +18696,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18162,7 +18710,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="113.27500000000001"/>
+    <x v="113"/>
     <n v="113"/>
     <x v="1"/>
   </r>
@@ -18176,7 +18724,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="16.7"/>
+    <x v="10"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -18190,7 +18738,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7957999999999998"/>
+    <x v="87"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18204,7 +18752,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18218,7 +18766,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -18232,7 +18780,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -18246,7 +18794,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.65"/>
+    <x v="168"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -18260,7 +18808,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18274,7 +18822,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -18288,7 +18836,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="9.8249999999999993"/>
+    <x v="72"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -18302,7 +18850,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.85"/>
+    <x v="61"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -18316,7 +18864,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -18330,7 +18878,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="21"/>
+    <x v="35"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -18344,7 +18892,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18358,7 +18906,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="18.75"/>
+    <x v="169"/>
     <n v="18"/>
     <x v="0"/>
   </r>
@@ -18372,7 +18920,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18386,7 +18934,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="1"/>
-    <n v="25.466699999999999"/>
+    <x v="101"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -18400,7 +18948,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18414,7 +18962,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.8582999999999998"/>
+    <x v="170"/>
     <n v="6"/>
     <x v="2"/>
   </r>
@@ -18428,7 +18976,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="90"/>
+    <x v="116"/>
     <n v="90"/>
     <x v="2"/>
   </r>
@@ -18442,7 +18990,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -18456,7 +19004,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18470,7 +19018,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -18484,7 +19032,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="32.5"/>
+    <x v="171"/>
     <n v="32"/>
     <x v="0"/>
   </r>
@@ -18498,7 +19046,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -18512,7 +19060,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -18526,7 +19074,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="0"/>
   </r>
@@ -18540,7 +19088,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -18554,7 +19102,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7332999999999998"/>
+    <x v="92"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -18568,7 +19116,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.875"/>
+    <x v="172"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18582,7 +19130,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="14.4"/>
+    <x v="173"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -18596,7 +19144,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="20.212499999999999"/>
+    <x v="124"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -18610,7 +19158,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18624,7 +19172,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -18638,7 +19186,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -18652,7 +19200,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -18666,7 +19214,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -18680,7 +19228,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -18694,7 +19242,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -18708,7 +19256,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -18722,7 +19270,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.125"/>
+    <x v="122"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18736,7 +19284,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="55.9"/>
+    <x v="174"/>
     <n v="55"/>
     <x v="0"/>
   </r>
@@ -18750,7 +19298,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="120"/>
+    <x v="167"/>
     <n v="120"/>
     <x v="0"/>
   </r>
@@ -18764,7 +19312,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="2"/>
-    <n v="34.375"/>
+    <x v="62"/>
     <n v="34"/>
     <x v="0"/>
   </r>
@@ -18778,7 +19326,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="3"/>
-    <n v="18.75"/>
+    <x v="169"/>
     <n v="18"/>
     <x v="0"/>
   </r>
@@ -18792,7 +19340,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="4"/>
-    <n v="263"/>
+    <x v="23"/>
     <n v="263"/>
     <x v="0"/>
   </r>
@@ -18806,7 +19354,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -18820,7 +19368,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26.25"/>
+    <x v="120"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -18834,7 +19382,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -18848,7 +19396,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -18862,7 +19410,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -18876,7 +19424,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.1125000000000007"/>
+    <x v="175"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -18890,7 +19438,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="81.8583"/>
+    <x v="176"/>
     <n v="81"/>
     <x v="0"/>
   </r>
@@ -18904,7 +19452,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="19.5"/>
+    <x v="130"/>
     <n v="19"/>
     <x v="0"/>
   </r>
@@ -18918,7 +19466,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -18932,7 +19480,7 @@
     <x v="2"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="19.258299999999998"/>
+    <x v="177"/>
     <n v="19"/>
     <x v="1"/>
   </r>
@@ -18946,7 +19494,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30.5"/>
+    <x v="139"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -18960,7 +19508,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="27.75"/>
+    <x v="44"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -18974,7 +19522,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="19.966699999999999"/>
+    <x v="178"/>
     <n v="19"/>
     <x v="0"/>
   </r>
@@ -18988,7 +19536,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="27.75"/>
+    <x v="44"/>
     <n v="27"/>
     <x v="1"/>
   </r>
@@ -19002,7 +19550,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="89.104200000000006"/>
+    <x v="179"/>
     <n v="89"/>
     <x v="1"/>
   </r>
@@ -19016,7 +19564,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19030,7 +19578,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -19044,7 +19592,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -19058,7 +19606,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="51.862499999999997"/>
+    <x v="6"/>
     <n v="51"/>
     <x v="0"/>
   </r>
@@ -19072,7 +19620,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -19086,7 +19634,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -19100,7 +19648,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -19114,7 +19662,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19128,7 +19676,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="38.5"/>
+    <x v="180"/>
     <n v="38"/>
     <x v="0"/>
   </r>
@@ -19142,7 +19690,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -19156,7 +19704,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19170,7 +19718,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.05"/>
+    <x v="78"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19184,7 +19732,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -19198,7 +19746,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -19212,7 +19760,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7249999999999996"/>
+    <x v="181"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -19226,7 +19774,7 @@
     <x v="2"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="19.258299999999998"/>
+    <x v="177"/>
     <n v="19"/>
     <x v="1"/>
   </r>
@@ -19240,7 +19788,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19254,7 +19802,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19268,7 +19816,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="27.75"/>
+    <x v="44"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -19282,7 +19830,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13.791700000000001"/>
+    <x v="182"/>
     <n v="13"/>
     <x v="1"/>
   </r>
@@ -19296,7 +19844,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.8375000000000004"/>
+    <x v="183"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -19310,7 +19858,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="52"/>
+    <x v="31"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -19324,7 +19872,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="21"/>
+    <x v="35"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -19338,7 +19886,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.0457999999999998"/>
+    <x v="184"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19352,7 +19900,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.5208000000000004"/>
+    <x v="185"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19366,7 +19914,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="12.2875"/>
+    <x v="186"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -19380,7 +19928,7 @@
     <x v="2"/>
     <x v="5"/>
     <n v="2"/>
-    <n v="46.9"/>
+    <x v="45"/>
     <n v="46"/>
     <x v="0"/>
   </r>
@@ -19394,7 +19942,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -19408,7 +19956,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19422,7 +19970,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5875000000000004"/>
+    <x v="187"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -19436,7 +19984,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="91.0792"/>
+    <x v="135"/>
     <n v="91"/>
     <x v="1"/>
   </r>
@@ -19450,7 +19998,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="1"/>
-    <n v="25.466699999999999"/>
+    <x v="101"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -19464,7 +20012,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="90"/>
+    <x v="116"/>
     <n v="90"/>
     <x v="0"/>
   </r>
@@ -19478,7 +20026,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="29.7"/>
+    <x v="131"/>
     <n v="29"/>
     <x v="1"/>
   </r>
@@ -19492,7 +20040,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19506,7 +20054,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.9"/>
+    <x v="155"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -19520,7 +20068,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="19.966699999999999"/>
+    <x v="178"/>
     <n v="19"/>
     <x v="0"/>
   </r>
@@ -19534,7 +20082,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19548,7 +20096,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30.5"/>
+    <x v="139"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -19562,7 +20110,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="49.504199999999997"/>
+    <x v="188"/>
     <n v="49"/>
     <x v="1"/>
   </r>
@@ -19576,7 +20124,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19590,7 +20138,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="14.458299999999999"/>
+    <x v="73"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -19604,7 +20152,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="78.2667"/>
+    <x v="189"/>
     <n v="78"/>
     <x v="1"/>
   </r>
@@ -19618,7 +20166,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="15.1"/>
+    <x v="190"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -19632,7 +20180,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="151.55000000000001"/>
+    <x v="138"/>
     <n v="151"/>
     <x v="0"/>
   </r>
@@ -19646,7 +20194,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7957999999999998"/>
+    <x v="87"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19660,7 +20208,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19674,7 +20222,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -19688,7 +20236,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.6292"/>
+    <x v="191"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -19702,7 +20250,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5875000000000004"/>
+    <x v="187"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -19716,7 +20264,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="86.5"/>
+    <x v="125"/>
     <n v="86"/>
     <x v="0"/>
   </r>
@@ -19730,7 +20278,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="108.9"/>
+    <x v="143"/>
     <n v="108"/>
     <x v="1"/>
   </r>
@@ -19744,7 +20292,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -19758,7 +20306,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -19772,7 +20320,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="22.524999999999999"/>
+    <x v="192"/>
     <n v="22"/>
     <x v="0"/>
   </r>
@@ -19786,7 +20334,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.495800000000003"/>
+    <x v="53"/>
     <n v="56"/>
     <x v="0"/>
   </r>
@@ -19800,7 +20348,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -19814,7 +20362,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -19828,7 +20376,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.287500000000001"/>
+    <x v="193"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -19842,7 +20390,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="59.4"/>
+    <x v="194"/>
     <n v="59"/>
     <x v="1"/>
   </r>
@@ -19856,7 +20404,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.4958"/>
+    <x v="195"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19870,7 +20418,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="34.020800000000001"/>
+    <x v="196"/>
     <n v="34"/>
     <x v="0"/>
   </r>
@@ -19884,7 +20432,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -19898,7 +20446,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="2"/>
   </r>
@@ -19912,7 +20460,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -19926,7 +20474,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19940,7 +20488,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="93.5"/>
+    <x v="197"/>
     <n v="93"/>
     <x v="0"/>
   </r>
@@ -19954,7 +20502,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -19968,7 +20516,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -19982,7 +20530,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="57.979199999999999"/>
+    <x v="152"/>
     <n v="57"/>
     <x v="1"/>
   </r>
@@ -19996,7 +20544,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -20010,7 +20558,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -20024,7 +20572,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -20038,7 +20586,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="221.7792"/>
+    <x v="198"/>
     <n v="221"/>
     <x v="0"/>
   </r>
@@ -20052,7 +20600,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20066,7 +20614,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="11.5"/>
+    <x v="85"/>
     <n v="11"/>
     <x v="0"/>
   </r>
@@ -20080,7 +20628,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20094,7 +20642,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -20108,7 +20656,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -20122,7 +20670,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="22.3583"/>
+    <x v="76"/>
     <n v="22"/>
     <x v="1"/>
   </r>
@@ -20136,7 +20684,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -20150,7 +20698,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="26.25"/>
+    <x v="120"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20164,7 +20712,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20178,7 +20726,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="106.425"/>
+    <x v="199"/>
     <n v="106"/>
     <x v="1"/>
   </r>
@@ -20192,7 +20740,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="14.5"/>
+    <x v="79"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -20206,7 +20754,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="49.5"/>
+    <x v="200"/>
     <n v="49"/>
     <x v="1"/>
   </r>
@@ -20220,7 +20768,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="71"/>
+    <x v="201"/>
     <n v="71"/>
     <x v="0"/>
   </r>
@@ -20234,7 +20782,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.274999999999999"/>
+    <x v="12"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -20248,7 +20796,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.274999999999999"/>
+    <x v="12"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -20262,7 +20810,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20276,7 +20824,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="106.425"/>
+    <x v="199"/>
     <n v="106"/>
     <x v="1"/>
   </r>
@@ -20290,7 +20838,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20304,7 +20852,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20318,7 +20866,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13.862500000000001"/>
+    <x v="202"/>
     <n v="13"/>
     <x v="1"/>
   </r>
@@ -20332,7 +20880,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="20.524999999999999"/>
+    <x v="96"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -20346,7 +20894,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="36.75"/>
+    <x v="86"/>
     <n v="36"/>
     <x v="0"/>
   </r>
@@ -20360,7 +20908,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="110.88330000000001"/>
+    <x v="142"/>
     <n v="110"/>
     <x v="1"/>
   </r>
@@ -20374,7 +20922,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20388,7 +20936,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8292000000000002"/>
+    <x v="203"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -20402,7 +20950,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -20416,7 +20964,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20430,7 +20978,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20444,7 +20992,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="39.6"/>
+    <x v="204"/>
     <n v="39"/>
     <x v="1"/>
   </r>
@@ -20458,7 +21006,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="227.52500000000001"/>
+    <x v="163"/>
     <n v="227"/>
     <x v="1"/>
   </r>
@@ -20472,7 +21020,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="79.650000000000006"/>
+    <x v="127"/>
     <n v="79"/>
     <x v="0"/>
   </r>
@@ -20486,7 +21034,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="17.399999999999999"/>
+    <x v="205"/>
     <n v="17"/>
     <x v="0"/>
   </r>
@@ -20500,7 +21048,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -20514,7 +21062,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20528,7 +21076,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13.5"/>
+    <x v="118"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -20542,7 +21090,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -20556,7 +21104,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -20570,7 +21118,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="0"/>
   </r>
@@ -20584,7 +21132,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20598,7 +21146,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="4"/>
-    <n v="21.074999999999999"/>
+    <x v="7"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -20612,7 +21160,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -20626,7 +21174,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20640,7 +21188,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -20654,7 +21202,7 @@
     <x v="1"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="51.479199999999999"/>
+    <x v="206"/>
     <n v="51"/>
     <x v="0"/>
   </r>
@@ -20668,7 +21216,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.387499999999999"/>
+    <x v="207"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20682,7 +21230,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -20696,7 +21244,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -20710,7 +21258,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="14.5"/>
+    <x v="79"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -20724,7 +21272,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -20738,7 +21286,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="55.9"/>
+    <x v="174"/>
     <n v="55"/>
     <x v="0"/>
   </r>
@@ -20752,7 +21300,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="14.458299999999999"/>
+    <x v="73"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -20766,7 +21314,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20780,7 +21328,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="30"/>
+    <x v="208"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -20794,7 +21342,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="110.88330000000001"/>
+    <x v="142"/>
     <n v="110"/>
     <x v="1"/>
   </r>
@@ -20808,7 +21356,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20822,7 +21370,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="40.125"/>
+    <x v="209"/>
     <n v="40"/>
     <x v="1"/>
   </r>
@@ -20836,7 +21384,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.7125000000000004"/>
+    <x v="210"/>
     <n v="8"/>
     <x v="1"/>
   </r>
@@ -20850,7 +21398,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="79.650000000000006"/>
+    <x v="127"/>
     <n v="79"/>
     <x v="0"/>
   </r>
@@ -20864,7 +21412,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="15"/>
+    <x v="211"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -20878,7 +21426,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="79.2"/>
+    <x v="83"/>
     <n v="79"/>
     <x v="1"/>
   </r>
@@ -20892,7 +21440,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -20906,7 +21454,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -20920,7 +21468,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.125"/>
+    <x v="122"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20934,7 +21482,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="78.2667"/>
+    <x v="189"/>
     <n v="78"/>
     <x v="1"/>
   </r>
@@ -20948,7 +21496,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -20962,7 +21510,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -20976,7 +21524,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -20990,7 +21538,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="0"/>
   </r>
@@ -21004,7 +21552,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="33"/>
+    <x v="212"/>
     <n v="33"/>
     <x v="0"/>
   </r>
@@ -21018,7 +21566,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -21032,7 +21580,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -21046,7 +21594,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="56.929200000000002"/>
+    <x v="145"/>
     <n v="56"/>
     <x v="1"/>
   </r>
@@ -21060,7 +21608,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="27"/>
+    <x v="114"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -21074,7 +21622,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21088,7 +21636,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="42.4"/>
+    <x v="213"/>
     <n v="42"/>
     <x v="0"/>
   </r>
@@ -21102,7 +21650,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -21116,7 +21664,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="1"/>
   </r>
@@ -21130,7 +21678,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.55"/>
+    <x v="214"/>
     <n v="15"/>
     <x v="0"/>
   </r>
@@ -21144,7 +21692,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21158,7 +21706,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30.5"/>
+    <x v="139"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -21172,7 +21720,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="41.5792"/>
+    <x v="36"/>
     <n v="41"/>
     <x v="1"/>
   </r>
@@ -21186,7 +21734,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="153.46250000000001"/>
+    <x v="128"/>
     <n v="153"/>
     <x v="0"/>
   </r>
@@ -21200,7 +21748,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="5"/>
-    <n v="31.274999999999999"/>
+    <x v="12"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -21214,7 +21762,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.05"/>
+    <x v="78"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21228,7 +21776,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -21242,7 +21790,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -21256,7 +21804,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -21270,7 +21818,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="65"/>
+    <x v="215"/>
     <n v="65"/>
     <x v="0"/>
   </r>
@@ -21284,7 +21832,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="14.4"/>
+    <x v="173"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -21298,7 +21846,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -21312,7 +21860,7 @@
     <x v="2"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="39"/>
+    <x v="105"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -21326,7 +21874,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -21340,7 +21888,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="14.4542"/>
+    <x v="52"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -21354,7 +21902,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="52.554200000000002"/>
+    <x v="123"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -21368,7 +21916,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.7417"/>
+    <x v="164"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -21382,7 +21930,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21396,7 +21944,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -21410,7 +21958,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="32.320799999999998"/>
+    <x v="216"/>
     <n v="32"/>
     <x v="0"/>
   </r>
@@ -21424,7 +21972,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.35"/>
+    <x v="141"/>
     <n v="12"/>
     <x v="2"/>
   </r>
@@ -21438,7 +21986,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="77.958299999999994"/>
+    <x v="132"/>
     <n v="77"/>
     <x v="0"/>
   </r>
@@ -21452,7 +22000,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21466,7 +22014,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7332999999999998"/>
+    <x v="92"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -21480,7 +22028,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30"/>
+    <x v="208"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -21494,7 +22042,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.0541999999999998"/>
+    <x v="217"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21508,7 +22056,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30.5"/>
+    <x v="139"/>
     <n v="30"/>
     <x v="1"/>
   </r>
@@ -21522,7 +22070,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -21536,7 +22084,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="27.9"/>
+    <x v="47"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -21550,7 +22098,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -21564,7 +22112,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21578,7 +22126,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26.25"/>
+    <x v="120"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -21592,7 +22140,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="5"/>
-    <n v="39.6875"/>
+    <x v="40"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -21606,7 +22154,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -21620,7 +22168,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21634,7 +22182,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="69.3"/>
+    <x v="159"/>
     <n v="69"/>
     <x v="1"/>
   </r>
@@ -21648,7 +22196,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="27.9"/>
+    <x v="47"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -21662,7 +22210,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.495800000000003"/>
+    <x v="53"/>
     <n v="56"/>
     <x v="0"/>
   </r>
@@ -21676,7 +22224,7 @@
     <x v="2"/>
     <x v="4"/>
     <n v="1"/>
-    <n v="19.258299999999998"/>
+    <x v="177"/>
     <n v="19"/>
     <x v="1"/>
   </r>
@@ -21690,7 +22238,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="76.729200000000006"/>
+    <x v="42"/>
     <n v="76"/>
     <x v="1"/>
   </r>
@@ -21704,7 +22252,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21718,7 +22266,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="35.5"/>
+    <x v="21"/>
     <n v="35"/>
     <x v="1"/>
   </r>
@@ -21732,7 +22280,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.55"/>
+    <x v="119"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21746,7 +22294,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.55"/>
+    <x v="119"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21760,7 +22308,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21774,7 +22322,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="23"/>
+    <x v="67"/>
     <n v="23"/>
     <x v="0"/>
   </r>
@@ -21788,7 +22336,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.4332999999999991"/>
+    <x v="218"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -21802,7 +22350,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8292000000000002"/>
+    <x v="203"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -21816,7 +22364,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.75"/>
+    <x v="84"/>
     <n v="6"/>
     <x v="2"/>
   </r>
@@ -21830,7 +22378,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="73.5"/>
+    <x v="51"/>
     <n v="73"/>
     <x v="0"/>
   </r>
@@ -21844,7 +22392,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21858,7 +22406,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -21872,7 +22420,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -21886,7 +22434,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="113.27500000000001"/>
+    <x v="113"/>
     <n v="113"/>
     <x v="1"/>
   </r>
@@ -21900,7 +22448,7 @@
     <x v="1"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="133.65"/>
+    <x v="154"/>
     <n v="133"/>
     <x v="0"/>
   </r>
@@ -21914,7 +22462,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -21928,7 +22476,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="25.587499999999999"/>
+    <x v="219"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -21942,7 +22490,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.4958"/>
+    <x v="195"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21956,7 +22504,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -21970,7 +22518,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="73.5"/>
+    <x v="51"/>
     <n v="73"/>
     <x v="0"/>
   </r>
@@ -21984,7 +22532,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -21998,7 +22546,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22012,7 +22560,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -22026,7 +22574,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="52"/>
+    <x v="31"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -22040,7 +22588,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="39"/>
+    <x v="105"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -22054,7 +22602,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="52"/>
+    <x v="31"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -22068,7 +22616,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -22082,7 +22630,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22096,7 +22644,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -22110,7 +22658,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22124,7 +22672,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -22138,7 +22686,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.8416999999999994"/>
+    <x v="220"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -22152,7 +22700,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="6"/>
-    <n v="46.9"/>
+    <x v="45"/>
     <n v="46"/>
     <x v="0"/>
   </r>
@@ -22166,7 +22714,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="512.32920000000001"/>
+    <x v="126"/>
     <n v="512"/>
     <x v="1"/>
   </r>
@@ -22180,7 +22728,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.1374999999999993"/>
+    <x v="221"/>
     <n v="8"/>
     <x v="2"/>
   </r>
@@ -22194,7 +22742,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="76.729200000000006"/>
+    <x v="42"/>
     <n v="76"/>
     <x v="1"/>
   </r>
@@ -22208,7 +22756,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.2249999999999996"/>
+    <x v="156"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -22222,7 +22770,7 @@
     <x v="2"/>
     <x v="5"/>
     <n v="2"/>
-    <n v="46.9"/>
+    <x v="45"/>
     <n v="46"/>
     <x v="0"/>
   </r>
@@ -22236,7 +22784,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="39"/>
+    <x v="105"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -22250,7 +22798,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="41.5792"/>
+    <x v="36"/>
     <n v="41"/>
     <x v="1"/>
   </r>
@@ -22264,7 +22812,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="39.6875"/>
+    <x v="40"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -22278,7 +22826,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.1708"/>
+    <x v="222"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -22292,7 +22840,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7957999999999998"/>
+    <x v="87"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22306,7 +22854,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="211.33750000000001"/>
+    <x v="223"/>
     <n v="211"/>
     <x v="0"/>
   </r>
@@ -22320,7 +22868,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="57"/>
+    <x v="224"/>
     <n v="57"/>
     <x v="0"/>
   </r>
@@ -22334,7 +22882,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="13.416700000000001"/>
+    <x v="225"/>
     <n v="13"/>
     <x v="1"/>
   </r>
@@ -22348,7 +22896,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.495800000000003"/>
+    <x v="53"/>
     <n v="56"/>
     <x v="0"/>
   </r>
@@ -22362,7 +22910,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -22376,7 +22924,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -22390,7 +22938,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13.5"/>
+    <x v="118"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22404,7 +22952,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -22418,7 +22966,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7332999999999998"/>
+    <x v="92"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -22432,7 +22980,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="110.88330000000001"/>
+    <x v="142"/>
     <n v="110"/>
     <x v="1"/>
   </r>
@@ -22446,7 +22994,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.65"/>
+    <x v="54"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22460,7 +23008,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="227.52500000000001"/>
+    <x v="163"/>
     <n v="227"/>
     <x v="1"/>
   </r>
@@ -22474,7 +23022,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.287500000000001"/>
+    <x v="193"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -22488,7 +23036,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="14.4542"/>
+    <x v="52"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -22502,7 +23050,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7416999999999998"/>
+    <x v="226"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -22516,7 +23064,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22530,7 +23078,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -22544,7 +23092,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13.5"/>
+    <x v="118"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22558,7 +23106,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.287500000000001"/>
+    <x v="193"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -22572,7 +23120,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="151.55000000000001"/>
+    <x v="138"/>
     <n v="151"/>
     <x v="0"/>
   </r>
@@ -22586,7 +23134,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.245799999999999"/>
+    <x v="48"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -22600,7 +23148,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="49.504199999999997"/>
+    <x v="188"/>
     <n v="49"/>
     <x v="1"/>
   </r>
@@ -22614,7 +23162,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -22628,7 +23176,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="52"/>
+    <x v="31"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -22642,7 +23190,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.4832999999999998"/>
+    <x v="227"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -22656,7 +23204,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22670,7 +23218,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.65"/>
+    <x v="54"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22684,7 +23232,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="227.52500000000001"/>
+    <x v="163"/>
     <n v="227"/>
     <x v="1"/>
   </r>
@@ -22698,7 +23246,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -22712,7 +23260,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="15.5"/>
+    <x v="37"/>
     <n v="15"/>
     <x v="2"/>
   </r>
@@ -22726,7 +23274,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22740,7 +23288,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="33"/>
+    <x v="212"/>
     <n v="33"/>
     <x v="0"/>
   </r>
@@ -22754,7 +23302,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.0541999999999998"/>
+    <x v="217"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22768,7 +23316,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22782,7 +23330,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22796,7 +23344,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="53.1"/>
+    <x v="3"/>
     <n v="53"/>
     <x v="0"/>
   </r>
@@ -22810,7 +23358,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -22824,7 +23372,7 @@
     <x v="0"/>
     <x v="2"/>
     <n v="0"/>
-    <n v="21"/>
+    <x v="35"/>
     <n v="21"/>
     <x v="0"/>
   </r>
@@ -22838,7 +23386,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7374999999999998"/>
+    <x v="228"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -22852,7 +23400,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -22866,7 +23414,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -22880,7 +23428,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="211.33750000000001"/>
+    <x v="223"/>
     <n v="211"/>
     <x v="0"/>
   </r>
@@ -22894,7 +23442,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="18.787500000000001"/>
+    <x v="111"/>
     <n v="18"/>
     <x v="1"/>
   </r>
@@ -22908,7 +23456,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -22922,7 +23470,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22936,7 +23484,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -22950,7 +23498,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -22964,7 +23512,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="3"/>
-    <n v="34.375"/>
+    <x v="62"/>
     <n v="34"/>
     <x v="0"/>
   </r>
@@ -22978,7 +23526,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="512.32920000000001"/>
+    <x v="126"/>
     <n v="512"/>
     <x v="1"/>
   </r>
@@ -22992,7 +23540,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23006,7 +23554,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23020,7 +23568,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30"/>
+    <x v="208"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -23034,7 +23582,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="78.849999999999994"/>
+    <x v="134"/>
     <n v="78"/>
     <x v="0"/>
   </r>
@@ -23048,7 +23596,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="2"/>
-    <n v="262.375"/>
+    <x v="147"/>
     <n v="262"/>
     <x v="1"/>
   </r>
@@ -23062,7 +23610,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="16.100000000000001"/>
+    <x v="94"/>
     <n v="16"/>
     <x v="0"/>
   </r>
@@ -23076,7 +23624,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23090,7 +23638,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="71"/>
+    <x v="201"/>
     <n v="71"/>
     <x v="0"/>
   </r>
@@ -23104,7 +23652,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="20.25"/>
+    <x v="133"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -23118,7 +23666,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -23132,7 +23680,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="53.1"/>
+    <x v="3"/>
     <n v="53"/>
     <x v="0"/>
   </r>
@@ -23146,7 +23694,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -23160,7 +23708,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="23"/>
+    <x v="67"/>
     <n v="23"/>
     <x v="0"/>
   </r>
@@ -23174,7 +23722,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="12.475"/>
+    <x v="56"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -23188,7 +23736,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -23202,7 +23750,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23216,7 +23764,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="65"/>
+    <x v="215"/>
     <n v="65"/>
     <x v="0"/>
   </r>
@@ -23230,7 +23778,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="14.5"/>
+    <x v="79"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -23244,7 +23792,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7957999999999998"/>
+    <x v="87"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23258,7 +23806,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="11.5"/>
+    <x v="85"/>
     <n v="11"/>
     <x v="0"/>
   </r>
@@ -23272,7 +23820,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -23286,7 +23834,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="86.5"/>
+    <x v="125"/>
     <n v="86"/>
     <x v="0"/>
   </r>
@@ -23300,7 +23848,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="14.5"/>
+    <x v="79"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -23314,7 +23862,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.125"/>
+    <x v="122"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23328,7 +23876,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -23342,7 +23890,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="120"/>
+    <x v="167"/>
     <n v="120"/>
     <x v="0"/>
   </r>
@@ -23356,7 +23904,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23370,7 +23918,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="77.958299999999994"/>
+    <x v="132"/>
     <n v="77"/>
     <x v="0"/>
   </r>
@@ -23384,7 +23932,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="39.6"/>
+    <x v="204"/>
     <n v="39"/>
     <x v="1"/>
   </r>
@@ -23398,7 +23946,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -23412,7 +23960,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="2"/>
   </r>
@@ -23426,7 +23974,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.3625000000000007"/>
+    <x v="229"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -23440,7 +23988,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -23454,7 +24002,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23468,7 +24016,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -23482,7 +24030,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -23496,7 +24044,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="3"/>
-    <n v="23"/>
+    <x v="67"/>
     <n v="23"/>
     <x v="0"/>
   </r>
@@ -23510,7 +24058,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23524,7 +24072,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -23538,7 +24086,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="12.475"/>
+    <x v="56"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -23552,7 +24100,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7374999999999998"/>
+    <x v="228"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -23566,7 +24114,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="211.33750000000001"/>
+    <x v="223"/>
     <n v="211"/>
     <x v="0"/>
   </r>
@@ -23580,7 +24128,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -23594,7 +24142,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="57"/>
+    <x v="224"/>
     <n v="57"/>
     <x v="0"/>
   </r>
@@ -23608,7 +24156,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30"/>
+    <x v="208"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -23622,7 +24170,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="23.45"/>
+    <x v="230"/>
     <n v="23"/>
     <x v="0"/>
   </r>
@@ -23636,7 +24184,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.05"/>
+    <x v="78"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23650,7 +24198,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.25"/>
+    <x v="0"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23664,7 +24212,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.4958"/>
+    <x v="195"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23678,7 +24226,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="29.125"/>
+    <x v="15"/>
     <n v="29"/>
     <x v="2"/>
   </r>
@@ -23692,7 +24240,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="20.574999999999999"/>
+    <x v="64"/>
     <n v="20"/>
     <x v="0"/>
   </r>
@@ -23706,7 +24254,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="79.2"/>
+    <x v="83"/>
     <n v="79"/>
     <x v="1"/>
   </r>
@@ -23720,7 +24268,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -23734,7 +24282,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -23748,7 +24296,7 @@
     <x v="0"/>
     <x v="6"/>
     <n v="2"/>
-    <n v="69.55"/>
+    <x v="93"/>
     <n v="69"/>
     <x v="0"/>
   </r>
@@ -23762,7 +24310,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30.695799999999998"/>
+    <x v="100"/>
     <n v="30"/>
     <x v="1"/>
   </r>
@@ -23776,7 +24324,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23790,7 +24338,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -23804,7 +24352,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="25.929200000000002"/>
+    <x v="231"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -23818,7 +24366,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6832999999999991"/>
+    <x v="232"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -23832,7 +24380,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -23846,7 +24394,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="0"/>
   </r>
@@ -23860,7 +24408,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -23874,7 +24422,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="26.25"/>
+    <x v="120"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -23888,7 +24436,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="120"/>
+    <x v="167"/>
     <n v="120"/>
     <x v="0"/>
   </r>
@@ -23902,7 +24450,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="8.5167000000000002"/>
+    <x v="233"/>
     <n v="8"/>
     <x v="1"/>
   </r>
@@ -23916,7 +24464,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.9749999999999996"/>
+    <x v="77"/>
     <n v="6"/>
     <x v="0"/>
   </r>
@@ -23930,7 +24478,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23944,7 +24492,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -23958,7 +24506,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -23972,7 +24520,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -23986,7 +24534,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="53.1"/>
+    <x v="3"/>
     <n v="53"/>
     <x v="0"/>
   </r>
@@ -24000,7 +24548,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8875000000000002"/>
+    <x v="234"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24014,7 +24562,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="24.15"/>
+    <x v="71"/>
     <n v="24"/>
     <x v="0"/>
   </r>
@@ -24028,7 +24576,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -24042,7 +24590,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.274999999999999"/>
+    <x v="12"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -24056,7 +24604,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -24070,7 +24618,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -24084,7 +24632,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24098,7 +24646,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="37.004199999999997"/>
+    <x v="235"/>
     <n v="37"/>
     <x v="1"/>
   </r>
@@ -24112,7 +24660,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.45"/>
+    <x v="236"/>
     <n v="6"/>
     <x v="0"/>
   </r>
@@ -24126,7 +24674,7 @@
     <x v="2"/>
     <x v="2"/>
     <n v="2"/>
-    <n v="27.9"/>
+    <x v="47"/>
     <n v="27"/>
     <x v="0"/>
   </r>
@@ -24140,7 +24688,7 @@
     <x v="1"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="93.5"/>
+    <x v="197"/>
     <n v="93"/>
     <x v="0"/>
   </r>
@@ -24154,7 +24702,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -24168,7 +24716,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="0"/>
+    <x v="103"/>
     <n v="0"/>
     <x v="0"/>
   </r>
@@ -24182,7 +24730,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="12.475"/>
+    <x v="56"/>
     <n v="12"/>
     <x v="0"/>
   </r>
@@ -24196,7 +24744,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="1"/>
-    <n v="39.6875"/>
+    <x v="40"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -24210,7 +24758,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.95"/>
+    <x v="237"/>
     <n v="6"/>
     <x v="2"/>
   </r>
@@ -24224,7 +24772,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.495800000000003"/>
+    <x v="53"/>
     <n v="56"/>
     <x v="0"/>
   </r>
@@ -24238,7 +24786,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="2"/>
-    <n v="37.004199999999997"/>
+    <x v="235"/>
     <n v="37"/>
     <x v="1"/>
   </r>
@@ -24252,7 +24800,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -24266,7 +24814,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="14.4542"/>
+    <x v="52"/>
     <n v="14"/>
     <x v="1"/>
   </r>
@@ -24280,7 +24828,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="18.75"/>
+    <x v="169"/>
     <n v="18"/>
     <x v="0"/>
   </r>
@@ -24294,7 +24842,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -24308,7 +24856,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8541999999999996"/>
+    <x v="13"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24322,7 +24870,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.3000000000000007"/>
+    <x v="238"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -24336,7 +24884,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="83.158299999999997"/>
+    <x v="146"/>
     <n v="83"/>
     <x v="1"/>
   </r>
@@ -24350,7 +24898,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -24364,7 +24912,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.0500000000000007"/>
+    <x v="4"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -24378,7 +24926,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="56.495800000000003"/>
+    <x v="53"/>
     <n v="56"/>
     <x v="0"/>
   </r>
@@ -24392,7 +24940,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="29.7"/>
+    <x v="131"/>
     <n v="29"/>
     <x v="1"/>
   </r>
@@ -24406,7 +24954,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.9249999999999998"/>
+    <x v="2"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24420,7 +24968,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -24434,7 +24982,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="31"/>
+    <x v="112"/>
     <n v="31"/>
     <x v="1"/>
   </r>
@@ -24448,7 +24996,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="6.4375"/>
+    <x v="239"/>
     <n v="6"/>
     <x v="1"/>
   </r>
@@ -24462,7 +25010,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="8.6624999999999996"/>
+    <x v="50"/>
     <n v="8"/>
     <x v="0"/>
   </r>
@@ -24476,7 +25024,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.55"/>
+    <x v="119"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24490,7 +25038,7 @@
     <x v="0"/>
     <x v="6"/>
     <n v="2"/>
-    <n v="69.55"/>
+    <x v="93"/>
     <n v="69"/>
     <x v="0"/>
   </r>
@@ -24504,7 +25052,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -24518,7 +25066,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="33"/>
+    <x v="212"/>
     <n v="33"/>
     <x v="0"/>
   </r>
@@ -24532,7 +25080,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="89.104200000000006"/>
+    <x v="179"/>
     <n v="89"/>
     <x v="1"/>
   </r>
@@ -24546,7 +25094,7 @@
     <x v="2"/>
     <x v="3"/>
     <n v="2"/>
-    <n v="31.274999999999999"/>
+    <x v="12"/>
     <n v="31"/>
     <x v="0"/>
   </r>
@@ -24560,7 +25108,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.7750000000000004"/>
+    <x v="70"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24574,7 +25122,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="15.245799999999999"/>
+    <x v="48"/>
     <n v="15"/>
     <x v="1"/>
   </r>
@@ -24588,7 +25136,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="39.4"/>
+    <x v="240"/>
     <n v="39"/>
     <x v="0"/>
   </r>
@@ -24602,7 +25150,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -24616,7 +25164,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="9.35"/>
+    <x v="117"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -24630,7 +25178,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="164.86670000000001"/>
+    <x v="149"/>
     <n v="164"/>
     <x v="0"/>
   </r>
@@ -24644,7 +25192,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="26.55"/>
+    <x v="11"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -24658,7 +25206,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="3"/>
-    <n v="19.258299999999998"/>
+    <x v="177"/>
     <n v="19"/>
     <x v="1"/>
   </r>
@@ -24672,7 +25220,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2291999999999996"/>
+    <x v="32"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -24686,7 +25234,7 @@
     <x v="0"/>
     <x v="4"/>
     <n v="0"/>
-    <n v="14.1083"/>
+    <x v="241"/>
     <n v="14"/>
     <x v="0"/>
   </r>
@@ -24700,7 +25248,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="11.5"/>
+    <x v="85"/>
     <n v="11"/>
     <x v="0"/>
   </r>
@@ -24714,7 +25262,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="25.929200000000002"/>
+    <x v="231"/>
     <n v="25"/>
     <x v="0"/>
   </r>
@@ -24728,7 +25276,7 @@
     <x v="0"/>
     <x v="6"/>
     <n v="2"/>
-    <n v="69.55"/>
+    <x v="93"/>
     <n v="69"/>
     <x v="0"/>
   </r>
@@ -24742,7 +25290,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -24756,7 +25304,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -24770,7 +25318,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="13.8583"/>
+    <x v="242"/>
     <n v="13"/>
     <x v="1"/>
   </r>
@@ -24784,7 +25332,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="50.495800000000003"/>
+    <x v="243"/>
     <n v="50"/>
     <x v="0"/>
   </r>
@@ -24798,7 +25346,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.5"/>
+    <x v="58"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -24812,7 +25360,7 @@
     <x v="2"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="11.1333"/>
+    <x v="8"/>
     <n v="11"/>
     <x v="0"/>
   </r>
@@ -24826,7 +25374,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24840,7 +25388,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="1"/>
-    <n v="52.554200000000002"/>
+    <x v="123"/>
     <n v="52"/>
     <x v="0"/>
   </r>
@@ -24854,7 +25402,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="5"/>
+    <x v="244"/>
     <n v="5"/>
     <x v="0"/>
   </r>
@@ -24868,7 +25416,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9"/>
+    <x v="57"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -24882,7 +25430,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="0"/>
-    <n v="24"/>
+    <x v="144"/>
     <n v="24"/>
     <x v="1"/>
   </r>
@@ -24896,7 +25444,7 @@
     <x v="2"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.2249999999999996"/>
+    <x v="18"/>
     <n v="7"/>
     <x v="1"/>
   </r>
@@ -24910,7 +25458,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="9.8458000000000006"/>
+    <x v="245"/>
     <n v="9"/>
     <x v="0"/>
   </r>
@@ -24924,7 +25472,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24938,7 +25486,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24952,7 +25500,7 @@
     <x v="1"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="83.158299999999997"/>
+    <x v="146"/>
     <n v="83"/>
     <x v="1"/>
   </r>
@@ -24966,7 +25514,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="1"/>
-    <n v="26"/>
+    <x v="19"/>
     <n v="26"/>
     <x v="0"/>
   </r>
@@ -24980,7 +25528,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.8958000000000004"/>
+    <x v="25"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -24994,7 +25542,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5167"/>
+    <x v="246"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -25008,7 +25556,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="10.5"/>
+    <x v="29"/>
     <n v="10"/>
     <x v="0"/>
   </r>
@@ -25022,7 +25570,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.05"/>
+    <x v="78"/>
     <n v="7"/>
     <x v="0"/>
   </r>
@@ -25036,7 +25584,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="5"/>
-    <n v="29.125"/>
+    <x v="15"/>
     <n v="29"/>
     <x v="2"/>
   </r>
@@ -25050,7 +25598,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="13"/>
+    <x v="16"/>
     <n v="13"/>
     <x v="0"/>
   </r>
@@ -25064,7 +25612,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30"/>
+    <x v="208"/>
     <n v="30"/>
     <x v="0"/>
   </r>
@@ -25078,7 +25626,7 @@
     <x v="0"/>
     <x v="0"/>
     <n v="2"/>
-    <n v="23.45"/>
+    <x v="230"/>
     <n v="23"/>
     <x v="0"/>
   </r>
@@ -25092,7 +25640,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="30"/>
+    <x v="208"/>
     <n v="30"/>
     <x v="1"/>
   </r>
@@ -25106,7 +25654,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="0"/>
-    <n v="7.75"/>
+    <x v="28"/>
     <n v="7"/>
     <x v="2"/>
   </r>
@@ -25114,186 +25662,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB72BA1F-9FFA-415E-B223-A52F4E36CF57}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Survived" fld="1" subtotal="count" baseField="11" baseItem="1"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24540A46-F727-481E-AEF6-9D3972EC948E}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A60:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Survived" fld="1" subtotal="count" baseField="4" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB1D9E6E-E450-4538-9C37-3F4D815F6281}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A40:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
@@ -25402,7 +25770,18 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -25466,7 +25845,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{03E24DB5-9F8E-498D-A299-45063739BB9C}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A24:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -25481,7 +25860,13 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -25615,6 +26000,761 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB72BA1F-9FFA-415E-B223-A52F4E36CF57}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A5:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Survived" fld="1" subtotal="count" baseField="11" baseItem="1"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24540A46-F727-481E-AEF6-9D3972EC948E}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A60:B63" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="248">
+        <item h="1" x="103"/>
+        <item h="1" x="162"/>
+        <item h="1" x="244"/>
+        <item h="1" x="151"/>
+        <item h="1" x="239"/>
+        <item h="1" x="236"/>
+        <item h="1" x="109"/>
+        <item h="1" x="84"/>
+        <item h="1" x="170"/>
+        <item h="1" x="237"/>
+        <item h="1" x="77"/>
+        <item h="1" x="184"/>
+        <item h="1" x="78"/>
+        <item h="1" x="217"/>
+        <item h="1" x="122"/>
+        <item h="1" x="75"/>
+        <item h="1" x="18"/>
+        <item h="1" x="32"/>
+        <item h="1" x="0"/>
+        <item h="1" x="90"/>
+        <item h="1" x="195"/>
+        <item h="1" x="185"/>
+        <item h="1" x="119"/>
+        <item h="1" x="191"/>
+        <item h="1" x="54"/>
+        <item h="1" x="181"/>
+        <item h="1" x="165"/>
+        <item h="1" x="92"/>
+        <item h="1" x="228"/>
+        <item h="1" x="226"/>
+        <item h="1" x="28"/>
+        <item h="1" x="70"/>
+        <item h="1" x="59"/>
+        <item h="1" x="87"/>
+        <item h="1" x="41"/>
+        <item h="1" x="203"/>
+        <item h="1" x="13"/>
+        <item h="1" x="172"/>
+        <item h="1" x="24"/>
+        <item h="1" x="234"/>
+        <item h="1" x="25"/>
+        <item h="1" x="2"/>
+        <item h="1" x="20"/>
+        <item h="1" x="4"/>
+        <item h="1" x="175"/>
+        <item h="1" x="221"/>
+        <item h="1" x="49"/>
+        <item h="1" x="238"/>
+        <item h="1" x="229"/>
+        <item h="1" x="108"/>
+        <item h="1" x="218"/>
+        <item h="1" x="5"/>
+        <item h="1" x="233"/>
+        <item h="1" x="69"/>
+        <item h="1" x="50"/>
+        <item h="1" x="232"/>
+        <item h="1" x="210"/>
+        <item h="1" x="137"/>
+        <item h="1" x="57"/>
+        <item h="1" x="82"/>
+        <item h="1" x="156"/>
+        <item h="1" x="117"/>
+        <item h="1" x="34"/>
+        <item h="1" x="227"/>
+        <item h="1" x="58"/>
+        <item h="1" x="187"/>
+        <item h="1" x="72"/>
+        <item h="1" x="183"/>
+        <item h="1" x="220"/>
+        <item h="1" x="245"/>
+        <item h="1" x="222"/>
+        <item h="1" x="110"/>
+        <item h="1" x="29"/>
+        <item h="1" x="246"/>
+        <item h="1" x="8"/>
+        <item h="1" x="33"/>
+        <item h="1" x="85"/>
+        <item h="1" x="166"/>
+        <item h="1" x="121"/>
+        <item h="1" x="186"/>
+        <item h="1" x="141"/>
+        <item h="1" x="56"/>
+        <item h="1" x="88"/>
+        <item h="1" x="168"/>
+        <item h="1" x="136"/>
+        <item h="1" x="16"/>
+        <item h="1" x="225"/>
+        <item h="1" x="118"/>
+        <item h="1" x="182"/>
+        <item h="1" x="242"/>
+        <item h="1" x="202"/>
+        <item h="1" x="148"/>
+        <item h="1" x="241"/>
+        <item h="1" x="173"/>
+        <item h="1" x="52"/>
+        <item h="1" x="73"/>
+        <item h="1" x="79"/>
+        <item h="1" x="211"/>
+        <item h="1" x="80"/>
+        <item h="1" x="104"/>
+        <item h="1" x="190"/>
+        <item h="1" x="48"/>
+        <item h="1" x="37"/>
+        <item h="1" x="214"/>
+        <item h="1" x="164"/>
+        <item h="1" x="95"/>
+        <item h="1" x="61"/>
+        <item h="1" x="155"/>
+        <item h="1" x="14"/>
+        <item h="1" x="94"/>
+        <item h="1" x="10"/>
+        <item h="1" x="205"/>
+        <item h="1" x="39"/>
+        <item h="1" x="17"/>
+        <item h="1" x="169"/>
+        <item h="1" x="111"/>
+        <item h="1" x="177"/>
+        <item h="1" x="130"/>
+        <item h="1" x="178"/>
+        <item h="1" x="124"/>
+        <item h="1" x="133"/>
+        <item h="1" x="96"/>
+        <item h="1" x="64"/>
+        <item h="1" x="35"/>
+        <item h="1" x="7"/>
+        <item h="1" x="38"/>
+        <item h="1" x="106"/>
+        <item h="1" x="76"/>
+        <item h="1" x="192"/>
+        <item h="1" x="67"/>
+        <item h="1" x="140"/>
+        <item h="1" x="230"/>
+        <item h="1" x="144"/>
+        <item h="1" x="71"/>
+        <item h="1" x="101"/>
+        <item h="1" x="219"/>
+        <item h="1" x="98"/>
+        <item h="1" x="231"/>
+        <item h="1" x="19"/>
+        <item h="1" x="120"/>
+        <item h="1" x="81"/>
+        <item h="1" x="193"/>
+        <item h="1" x="207"/>
+        <item h="1" x="11"/>
+        <item h="1" x="114"/>
+        <item h="1" x="26"/>
+        <item h="1" x="44"/>
+        <item h="1" x="47"/>
+        <item h="1" x="153"/>
+        <item h="1" x="102"/>
+        <item h="1" x="55"/>
+        <item h="1" x="15"/>
+        <item h="1" x="131"/>
+        <item h="1" x="208"/>
+        <item h="1" x="9"/>
+        <item h="1" x="139"/>
+        <item h="1" x="100"/>
+        <item h="1" x="112"/>
+        <item h="1" x="12"/>
+        <item h="1" x="22"/>
+        <item h="1" x="216"/>
+        <item h="1" x="171"/>
+        <item h="1" x="212"/>
+        <item h="1" x="99"/>
+        <item h="1" x="196"/>
+        <item h="1" x="62"/>
+        <item h="1" x="65"/>
+        <item h="1" x="157"/>
+        <item h="1" x="21"/>
+        <item h="1" x="86"/>
+        <item h="1" x="235"/>
+        <item h="1" x="180"/>
+        <item h="1" x="105"/>
+        <item h="1" x="240"/>
+        <item h="1" x="204"/>
+        <item h="1" x="40"/>
+        <item h="1" x="209"/>
+        <item h="1" x="36"/>
+        <item h="1" x="213"/>
+        <item h="1" x="45"/>
+        <item h="1" x="60"/>
+        <item h="1" x="200"/>
+        <item h="1" x="188"/>
+        <item h="1" x="107"/>
+        <item h="1" x="243"/>
+        <item h="1" x="206"/>
+        <item h="1" x="6"/>
+        <item h="1" x="31"/>
+        <item h="1" x="123"/>
+        <item h="1" x="3"/>
+        <item h="1" x="97"/>
+        <item h="1" x="160"/>
+        <item h="1" x="174"/>
+        <item h="1" x="53"/>
+        <item h="1" x="145"/>
+        <item h="1" x="224"/>
+        <item h="1" x="152"/>
+        <item h="1" x="194"/>
+        <item h="1" x="63"/>
+        <item h="1" x="91"/>
+        <item h="1" x="43"/>
+        <item h="1" x="66"/>
+        <item h="1" x="215"/>
+        <item h="1" x="89"/>
+        <item h="1" x="159"/>
+        <item h="1" x="93"/>
+        <item h="1" x="201"/>
+        <item h="1" x="1"/>
+        <item h="1" x="51"/>
+        <item h="1" x="158"/>
+        <item h="1" x="115"/>
+        <item h="1" x="42"/>
+        <item h="1" x="68"/>
+        <item h="1" x="132"/>
+        <item h="1" x="189"/>
+        <item h="1" x="134"/>
+        <item h="1" x="83"/>
+        <item h="1" x="127"/>
+        <item h="1" x="176"/>
+        <item h="1" x="30"/>
+        <item h="1" x="146"/>
+        <item h="1" x="46"/>
+        <item h="1" x="125"/>
+        <item h="1" x="179"/>
+        <item h="1" x="116"/>
+        <item h="1" x="135"/>
+        <item h="1" x="197"/>
+        <item h="1" x="199"/>
+        <item h="1" x="143"/>
+        <item h="1" x="142"/>
+        <item h="1" x="113"/>
+        <item h="1" x="167"/>
+        <item h="1" x="154"/>
+        <item h="1" x="150"/>
+        <item h="1" x="129"/>
+        <item h="1" x="27"/>
+        <item h="1" x="138"/>
+        <item h="1" x="128"/>
+        <item h="1" x="149"/>
+        <item h="1" x="223"/>
+        <item h="1" x="161"/>
+        <item h="1" x="198"/>
+        <item x="163"/>
+        <item h="1" x="74"/>
+        <item h="1" x="147"/>
+        <item h="1" x="23"/>
+        <item h="1" x="126"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Survived" fld="1" subtotal="count" baseField="4" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Sib___Sp" xr10:uid="{16B50F1F-2C16-4CC1-8F20-62B84C32C740}" sourceName="Sib - Sp">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1443555794">
+      <items count="7">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+        <i x="4" s="1"/>
+        <i x="2" s="1"/>
+        <i x="3" s="1"/>
+        <i x="5" s="1"/>
+        <i x="6" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Sex" xr10:uid="{721D1687-219D-4C65-8476-DE33BDBEC148}" sourceName="Sex">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable2"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1443555794">
+      <items count="2">
+        <i x="1" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_P_class" xr10:uid="{BD9D0D04-F23F-48D9-B5B3-6D49D4330B9E}" sourceName="P-class">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1443555794">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Fare" xr10:uid="{D3D62B3C-0953-4810-A001-90435E62CC89}" sourceName="Fare">
+  <pivotTables>
+    <pivotTable tabId="3" name="PivotTable4"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1443555794">
+      <items count="247">
+        <i x="103"/>
+        <i x="162"/>
+        <i x="244"/>
+        <i x="151"/>
+        <i x="239"/>
+        <i x="236"/>
+        <i x="109"/>
+        <i x="84"/>
+        <i x="170"/>
+        <i x="237"/>
+        <i x="77"/>
+        <i x="184"/>
+        <i x="78"/>
+        <i x="217"/>
+        <i x="122"/>
+        <i x="75"/>
+        <i x="18"/>
+        <i x="32"/>
+        <i x="0"/>
+        <i x="90"/>
+        <i x="195"/>
+        <i x="185"/>
+        <i x="119"/>
+        <i x="191"/>
+        <i x="54"/>
+        <i x="181"/>
+        <i x="165"/>
+        <i x="92"/>
+        <i x="228"/>
+        <i x="226"/>
+        <i x="28"/>
+        <i x="70"/>
+        <i x="59"/>
+        <i x="87"/>
+        <i x="41"/>
+        <i x="203"/>
+        <i x="13"/>
+        <i x="172"/>
+        <i x="24"/>
+        <i x="234"/>
+        <i x="25"/>
+        <i x="2"/>
+        <i x="20"/>
+        <i x="4"/>
+        <i x="175"/>
+        <i x="221"/>
+        <i x="49"/>
+        <i x="238"/>
+        <i x="229"/>
+        <i x="108"/>
+        <i x="218"/>
+        <i x="5"/>
+        <i x="233"/>
+        <i x="69"/>
+        <i x="50"/>
+        <i x="232"/>
+        <i x="210"/>
+        <i x="137"/>
+        <i x="57"/>
+        <i x="82"/>
+        <i x="156"/>
+        <i x="117"/>
+        <i x="34"/>
+        <i x="227"/>
+        <i x="58"/>
+        <i x="187"/>
+        <i x="72"/>
+        <i x="183"/>
+        <i x="220"/>
+        <i x="245"/>
+        <i x="222"/>
+        <i x="110"/>
+        <i x="29"/>
+        <i x="246"/>
+        <i x="8"/>
+        <i x="33"/>
+        <i x="85"/>
+        <i x="166"/>
+        <i x="121"/>
+        <i x="186"/>
+        <i x="141"/>
+        <i x="56"/>
+        <i x="88"/>
+        <i x="168"/>
+        <i x="136"/>
+        <i x="16"/>
+        <i x="225"/>
+        <i x="118"/>
+        <i x="182"/>
+        <i x="242"/>
+        <i x="202"/>
+        <i x="148"/>
+        <i x="241"/>
+        <i x="173"/>
+        <i x="52"/>
+        <i x="73"/>
+        <i x="79"/>
+        <i x="211"/>
+        <i x="80"/>
+        <i x="104"/>
+        <i x="190"/>
+        <i x="48"/>
+        <i x="37"/>
+        <i x="214"/>
+        <i x="164"/>
+        <i x="95"/>
+        <i x="61"/>
+        <i x="155"/>
+        <i x="14"/>
+        <i x="94"/>
+        <i x="10"/>
+        <i x="205"/>
+        <i x="39"/>
+        <i x="17"/>
+        <i x="169"/>
+        <i x="111"/>
+        <i x="177"/>
+        <i x="130"/>
+        <i x="178"/>
+        <i x="124"/>
+        <i x="133"/>
+        <i x="96"/>
+        <i x="64"/>
+        <i x="35"/>
+        <i x="7"/>
+        <i x="38"/>
+        <i x="106"/>
+        <i x="76"/>
+        <i x="192"/>
+        <i x="67"/>
+        <i x="140"/>
+        <i x="230"/>
+        <i x="144"/>
+        <i x="71"/>
+        <i x="101"/>
+        <i x="219"/>
+        <i x="98"/>
+        <i x="231"/>
+        <i x="19"/>
+        <i x="120"/>
+        <i x="81"/>
+        <i x="193"/>
+        <i x="207"/>
+        <i x="11"/>
+        <i x="114"/>
+        <i x="26"/>
+        <i x="44"/>
+        <i x="47"/>
+        <i x="153"/>
+        <i x="102"/>
+        <i x="55"/>
+        <i x="15"/>
+        <i x="131"/>
+        <i x="208"/>
+        <i x="9"/>
+        <i x="139"/>
+        <i x="100"/>
+        <i x="112"/>
+        <i x="12"/>
+        <i x="22"/>
+        <i x="216"/>
+        <i x="171"/>
+        <i x="212"/>
+        <i x="99"/>
+        <i x="196"/>
+        <i x="62"/>
+        <i x="65"/>
+        <i x="157"/>
+        <i x="21"/>
+        <i x="86"/>
+        <i x="235"/>
+        <i x="180"/>
+        <i x="105"/>
+        <i x="240"/>
+        <i x="204"/>
+        <i x="40"/>
+        <i x="209"/>
+        <i x="36"/>
+        <i x="213"/>
+        <i x="45"/>
+        <i x="60"/>
+        <i x="200"/>
+        <i x="188"/>
+        <i x="107"/>
+        <i x="243"/>
+        <i x="206"/>
+        <i x="6"/>
+        <i x="31"/>
+        <i x="123"/>
+        <i x="3"/>
+        <i x="97"/>
+        <i x="160"/>
+        <i x="174"/>
+        <i x="53"/>
+        <i x="145"/>
+        <i x="224"/>
+        <i x="152"/>
+        <i x="194"/>
+        <i x="63"/>
+        <i x="91"/>
+        <i x="43"/>
+        <i x="66"/>
+        <i x="215"/>
+        <i x="89"/>
+        <i x="159"/>
+        <i x="93"/>
+        <i x="201"/>
+        <i x="1"/>
+        <i x="51"/>
+        <i x="158"/>
+        <i x="115"/>
+        <i x="42"/>
+        <i x="68"/>
+        <i x="132"/>
+        <i x="189"/>
+        <i x="134"/>
+        <i x="83"/>
+        <i x="127"/>
+        <i x="176"/>
+        <i x="30"/>
+        <i x="146"/>
+        <i x="46"/>
+        <i x="125"/>
+        <i x="179"/>
+        <i x="116"/>
+        <i x="135"/>
+        <i x="197"/>
+        <i x="199"/>
+        <i x="143"/>
+        <i x="142"/>
+        <i x="113"/>
+        <i x="167"/>
+        <i x="154"/>
+        <i x="150"/>
+        <i x="129"/>
+        <i x="27"/>
+        <i x="138"/>
+        <i x="128"/>
+        <i x="149"/>
+        <i x="223"/>
+        <i x="161"/>
+        <i x="198"/>
+        <i x="163" s="1"/>
+        <i x="74"/>
+        <i x="147"/>
+        <i x="23"/>
+        <i x="126"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Sib - Sp" xr10:uid="{8EA89AED-0C60-4BD4-9C42-3791234B9669}" cache="Slicer_Sib___Sp" caption="Sib - Sp" style="SlicerStyleLight3" rowHeight="225425"/>
+  <slicer name="Sex" xr10:uid="{A3E76AB3-F368-4454-9520-9075BD6DA6E6}" cache="Slicer_Sex" caption="Sex" style="SlicerStyleLight4" rowHeight="225425"/>
+  <slicer name="P-class" xr10:uid="{AAC68458-22B7-4257-B305-58BB77C2FF8C}" cache="Slicer_P_class" caption="P-class" style="SlicerStyleLight4" rowHeight="225425"/>
+  <slicer name="Fare" xr10:uid="{96251A21-72E8-489C-8FB9-F2AC31338218}" cache="Slicer_Fare" caption="Fare" style="SlicerStyleDark2" rowHeight="225425"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57134,7 +58274,7 @@
   <dimension ref="A1:M899"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L890" sqref="A1:L890"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -92865,8 +94005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE25BC2-8DEF-463B-91CF-DA22F3163AE5}">
   <dimension ref="A5:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -92930,7 +94070,7 @@
       <c r="A25" s="4">
         <v>1</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>214</v>
       </c>
     </row>
@@ -92938,7 +94078,7 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>184</v>
       </c>
     </row>
@@ -92946,7 +94086,7 @@
       <c r="A27" s="4">
         <v>3</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>491</v>
       </c>
     </row>
@@ -92954,7 +94094,7 @@
       <c r="A28" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>889</v>
       </c>
     </row>
@@ -92978,7 +94118,7 @@
       <c r="A41" s="4" t="s">
         <v>1242</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>704</v>
       </c>
     </row>
@@ -92986,7 +94126,7 @@
       <c r="A42" s="4" t="s">
         <v>1243</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>112</v>
       </c>
     </row>
@@ -92994,7 +94134,7 @@
       <c r="A43" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <v>73</v>
       </c>
     </row>
@@ -93002,7 +94142,7 @@
       <c r="A44" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <v>889</v>
       </c>
     </row>
@@ -93018,24 +94158,24 @@
       <c r="A61" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B61">
-        <v>312</v>
+      <c r="B61" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B62">
-        <v>577</v>
+      <c r="B62" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="B63">
-        <v>889</v>
+      <c r="B63" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -93048,8 +94188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB581FF-6A15-4AC0-A8C2-20ACF66D3A79}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -93270,5 +94410,12 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>